--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8C5459-6608-4A1F-9864-60B5EED9AA86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9468490F-9920-4545-A3E2-3A65D7B0BB66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,19 +55,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Env_DayLight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Env_DayLight, Env_DayLight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Plane_40_40_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>addPlane|String!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Env_Night, Env_Sunset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +442,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -494,10 +490,10 @@
         <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -514,7 +510,7 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -531,7 +527,7 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -548,7 +544,7 @@
         <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -565,7 +561,7 @@
         <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -582,7 +578,7 @@
         <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -599,7 +595,7 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9468490F-9920-4545-A3E2-3A65D7B0BB66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F00696F-DFB7-4DC8-8ED5-90DDA5D8C3E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
+    <sheet name="NodeWarSpawnTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +65,42 @@
   </si>
   <si>
     <t>Env_Night, Env_Sunset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VariationCrocodile_Gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minLevel|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minStep|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstWaiting|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnPeriod|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxCount|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalMax|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnChance|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -602,4 +639,75 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F00696F-DFB7-4DC8-8ED5-90DDA5D8C3E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4058A4BC-7C04-40A4-A8F8-BA0D62D504EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -31,6 +31,234 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D252F468-1C2F-4CB9-B2C4-16EE634F27AE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>토탈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맥스를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개별</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맥스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카운트는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않는다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{A74EAF7B-4BE6-46BE-B6C5-72D751BE2FE1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>토탈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맥스는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하드코딩으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
@@ -108,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +359,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -642,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -699,9 +940,6 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
@@ -709,5 +947,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4058A4BC-7C04-40A4-A8F8-BA0D62D504EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC61CCA-325C-4C81-A25A-4B424BDB7BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +329,10 @@
   </si>
   <si>
     <t>spawnChance|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeatRewardGold|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,21 +721,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="24.125" customWidth="1"/>
-    <col min="7" max="7" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -741,20 +743,23 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -762,19 +767,22 @@
         <v>1000</v>
       </c>
       <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
         <v>107</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -782,16 +790,19 @@
         <v>1100</v>
       </c>
       <c r="D3">
+        <v>600</v>
+      </c>
+      <c r="E3">
         <v>117</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -799,16 +810,19 @@
         <v>1200</v>
       </c>
       <c r="D4">
+        <v>700</v>
+      </c>
+      <c r="E4">
         <v>127</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>55</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -816,16 +830,19 @@
         <v>1300</v>
       </c>
       <c r="D5">
+        <v>800</v>
+      </c>
+      <c r="E5">
         <v>137</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>60</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -833,16 +850,19 @@
         <v>30</v>
       </c>
       <c r="D6">
+        <v>900</v>
+      </c>
+      <c r="E6">
         <v>147</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -850,16 +870,19 @@
         <v>1400</v>
       </c>
       <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
         <v>157</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>70</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -867,12 +890,15 @@
         <v>1500</v>
       </c>
       <c r="D8">
+        <v>1100</v>
+      </c>
+      <c r="E8">
         <v>167</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>75</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -886,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC61CCA-325C-4C81-A25A-4B424BDB7BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F02DC78-EE77-4CCE-857A-D53ECC1913EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,10 @@
   </si>
   <si>
     <t>repeatRewardGold|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VariationScarab_Yellow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -910,11 +914,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -964,9 +966,32 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="H2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="b">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F02DC78-EE77-4CCE-857A-D53ECC1913EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C216964-8B46-4243-A26C-FC531EBFFCA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -404,11 +404,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -727,7 +730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -773,11 +778,11 @@
       <c r="D2">
         <v>500</v>
       </c>
-      <c r="E2">
-        <v>107</v>
-      </c>
-      <c r="F2">
-        <v>45</v>
+      <c r="E2" s="2">
+        <v>405</v>
+      </c>
+      <c r="F2" s="2">
+        <v>168.75</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -796,11 +801,13 @@
       <c r="D3">
         <v>600</v>
       </c>
-      <c r="E3">
-        <v>117</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:F8" si="0">E2*1.2</f>
+        <v>486</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>202.5</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -816,11 +823,13 @@
       <c r="D4">
         <v>700</v>
       </c>
-      <c r="E4">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>55</v>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>583.19999999999993</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>243</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -836,11 +845,13 @@
       <c r="D5">
         <v>800</v>
       </c>
-      <c r="E5">
-        <v>137</v>
-      </c>
-      <c r="F5">
-        <v>60</v>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>699.83999999999992</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>291.59999999999997</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -856,11 +867,13 @@
       <c r="D6">
         <v>900</v>
       </c>
-      <c r="E6">
-        <v>147</v>
-      </c>
-      <c r="F6">
-        <v>65</v>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>839.80799999999988</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>349.91999999999996</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -876,11 +889,13 @@
       <c r="D7">
         <v>1000</v>
       </c>
-      <c r="E7">
-        <v>157</v>
-      </c>
-      <c r="F7">
-        <v>70</v>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1007.7695999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>419.90399999999994</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -896,11 +911,13 @@
       <c r="D8">
         <v>1100</v>
       </c>
-      <c r="E8">
-        <v>167</v>
-      </c>
-      <c r="F8">
-        <v>75</v>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>1209.3235199999997</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>503.88479999999993</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -916,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C216964-8B46-4243-A26C-FC531EBFFCA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9674B64-2AC1-4FA3-9046-DD4BEF45677E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,6 +337,10 @@
   </si>
   <si>
     <t>VariationScarab_Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreasureMonster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -931,9 +935,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1012,6 +1018,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9674B64-2AC1-4FA3-9046-DD4BEF45677E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6488EF63-2A8A-4BA9-A6A1-71029C8AE774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,10 @@
   </si>
   <si>
     <t>TreasureMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Env_NightNodeWar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +739,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -789,7 +793,7 @@
         <v>168.75</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -989,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1012,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6488EF63-2A8A-4BA9-A6A1-71029C8AE774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E1C0D4-2F19-470A-B033-650DDA5621C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,10 +337,6 @@
   </si>
   <si>
     <t>VariationScarab_Yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TreasureMonster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -739,7 +735,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -793,7 +789,7 @@
         <v>168.75</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -939,7 +935,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -993,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1016,33 +1012,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E1C0D4-2F19-470A-B033-650DDA5621C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC38B22-5B0D-40FB-83F0-4E5AA2461271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,12 @@
   <si>
     <t>Env_NightNodeWar</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarnivorousPlant_Green</t>
+  </si>
+  <si>
+    <t>HellCreeper_Red</t>
   </si>
 </sst>
 </file>
@@ -935,10 +941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1018,6 +1024,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC38B22-5B0D-40FB-83F0-4E5AA2461271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73522441-8FBF-411E-8641-97F127FF95CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D252F468-1C2F-4CB9-B2C4-16EE634F27AE}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{D252F468-1C2F-4CB9-B2C4-16EE634F27AE}">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{A74EAF7B-4BE6-46BE-B6C5-72D751BE2FE1}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A74EAF7B-4BE6-46BE-B6C5-72D751BE2FE1}">
       <text>
         <r>
           <rPr>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>minLevel|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>minStep|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,6 +344,30 @@
   </si>
   <si>
     <t>HellCreeper_Red</t>
+  </si>
+  <si>
+    <t>lastSpawnPeriod|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastMaxCount|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneLevel|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixedLevel|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disaster_Cross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diasater|String!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -738,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -752,7 +772,7 @@
     <col min="8" max="8" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -777,8 +797,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -795,13 +818,16 @@
         <v>168.75</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -823,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -845,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -867,7 +893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -889,7 +915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -911,7 +937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -941,10 +967,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -952,133 +979,1485 @@
     <col min="1" max="1" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>0.8</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>G2/4</f>
+        <v>0.2</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1.2</v>
       </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="0">G3/4</f>
+        <v>0.3</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f>G5/1</f>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.8</v>
+      </c>
+      <c r="H6">
+        <f>G6/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H9" si="1">G7/4</f>
+        <v>0.3</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>30</v>
       </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8</v>
+      </c>
+      <c r="H10">
+        <f>G10/4</f>
+        <v>0.2</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H12" si="2">G11/4</f>
+        <v>0.3</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>G13/1</f>
+        <v>2</v>
+      </c>
+      <c r="I13">
         <v>4</v>
       </c>
-      <c r="H5" t="b">
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8</v>
+      </c>
+      <c r="H14">
+        <f>G14/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H17" si="3">G15/4</f>
+        <v>0.3</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8</v>
+      </c>
+      <c r="H18">
+        <f>G18/4</f>
+        <v>0.2</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H20" si="4">G19/4</f>
+        <v>0.3</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f>G21/1</f>
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8</v>
+      </c>
+      <c r="H22">
+        <f>G22/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:H25" si="5">G23/4</f>
+        <v>0.3</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8</v>
+      </c>
+      <c r="H26">
+        <f>G26/4</f>
+        <v>0.2</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H28" si="6">G27/4</f>
+        <v>0.3</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <f>G29/1</f>
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.8</v>
+      </c>
+      <c r="H30">
+        <f>G30/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H33" si="7">G31/4</f>
+        <v>0.3</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="I32">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.8</v>
+      </c>
+      <c r="H34">
+        <f>G34/4</f>
+        <v>0.2</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:H36" si="8">G35/4</f>
+        <v>0.3</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <f>G37/1</f>
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0.8</v>
+      </c>
+      <c r="H38">
+        <f>G38/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1.2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H41" si="9">G39/4</f>
+        <v>0.3</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0.8</v>
+      </c>
+      <c r="H42">
+        <f>G42/4</f>
+        <v>0.2</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1.2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="H43:H44" si="10">G43/4</f>
+        <v>0.3</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+      <c r="F44">
+        <v>0.5</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45">
+        <v>0.5</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <f>G45/1</f>
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0.5</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0.8</v>
+      </c>
+      <c r="H46">
+        <f>G46/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1.2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47:H49" si="11">G47/4</f>
+        <v>0.3</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <v>8</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>0.5</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+      <c r="K49" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73522441-8FBF-411E-8641-97F127FF95CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7F1437-8FE2-4D61-BB48-147BBDD3819D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,11 +362,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Disaster_Cross</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diasater|String!</t>
+    <t>PolygonalMagma_Blue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,11 +754,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -772,7 +766,7 @@
     <col min="8" max="8" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -797,11 +791,8 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -823,11 +814,8 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -849,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -871,7 +859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -893,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -915,7 +903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -937,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -962,16 +950,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2336,34 +2325,40 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <f>G46/2</f>
-        <v>0.4</v>
+        <f>G46/1</f>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
       </c>
       <c r="K46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -2372,17 +2367,17 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:H49" si="11">G47/4</f>
-        <v>0.3</v>
+        <f>G47/2</f>
+        <v>0.4</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -2390,7 +2385,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2399,31 +2394,25 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H48">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="I48">
-        <v>8</v>
-      </c>
-      <c r="J48">
-        <v>8</v>
+        <f t="shared" ref="H48:H50" si="11">G48/4</f>
+        <v>0.3</v>
       </c>
       <c r="K48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -2432,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F49">
         <v>0.5</v>
@@ -2451,6 +2440,39 @@
         <v>8</v>
       </c>
       <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
+      </c>
+      <c r="F50">
+        <v>0.5</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+      <c r="K50" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7F1437-8FE2-4D61-BB48-147BBDD3819D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476C8E30-C5DE-4B05-97DA-16D6BF1CDAF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{D252F468-1C2F-4CB9-B2C4-16EE634F27AE}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D941AADD-B766-4E3A-8859-D0EE0E103C1D}">
       <text>
         <r>
           <rPr>
@@ -47,144 +47,801 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>토탈</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>맥스를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용하면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>개별</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>맥스</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>카운트는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용하지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않는다</t>
+          <t>트랩이면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함
+내부적으로는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>트랩은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대부분의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컬럼을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>독자적</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>루틴으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성됨</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A74EAF7B-4BE6-46BE-B6C5-72D751BE2FE1}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5624EBA2-E9DF-41C6-A181-47B8640A7C48}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>트랩만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주기마다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>질문을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하는데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>트랩의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>실패할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그러면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생성루틴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자체가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초씩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>밀리고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뒤에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이어지게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>된다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{D252F468-1C2F-4CB9-B2C4-16EE634F27AE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>토탈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맥스를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개별</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맥스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카운트는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않는다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{A74EAF7B-4BE6-46BE-B6C5-72D751BE2FE1}">
       <text>
         <r>
           <rPr>
@@ -260,7 +917,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +1020,22 @@
   </si>
   <si>
     <t>PolygonalMagma_Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trap_NodeWar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trap|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minPeriod|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxPeriod|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -956,11 +1629,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -968,1511 +1641,1690 @@
     <col min="1" max="1" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2" t="b">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>0.8</v>
       </c>
-      <c r="H2">
-        <f>G2/4</f>
+      <c r="K2">
+        <f>J2/4</f>
         <v>0.2</v>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" t="b">
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>1.2</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H4" si="0">G3/4</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K4" si="0">J3/4</f>
         <v>0.3</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4" t="b">
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5" t="b">
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <f>G5/1</f>
-        <v>2</v>
-      </c>
       <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f>J5/1</f>
+        <v>2</v>
+      </c>
+      <c r="L5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>2</v>
+      <c r="B6" t="b">
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>0.8</v>
       </c>
-      <c r="H6">
-        <f>G6/2</f>
+      <c r="K6">
+        <f>J6/2</f>
         <v>0.4</v>
       </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="B7" t="b">
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>1.2</v>
       </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H9" si="1">G7/4</f>
+      <c r="K7">
+        <f t="shared" ref="K7:K9" si="1">J7/4</f>
         <v>0.3</v>
       </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="B8" t="b">
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>20</v>
       </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
-        <v>2</v>
+      <c r="B9" t="b">
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>30</v>
       </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>0.8</v>
       </c>
-      <c r="H10">
-        <f>G10/4</f>
+      <c r="K10">
+        <f>J10/4</f>
         <v>0.2</v>
       </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>1.2</v>
       </c>
-      <c r="H11">
-        <f t="shared" ref="H11:H12" si="2">G11/4</f>
+      <c r="K11">
+        <f t="shared" ref="K11:K12" si="2">J11/4</f>
         <v>0.3</v>
       </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>20</v>
       </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I12">
-        <v>8</v>
-      </c>
-      <c r="J12">
-        <v>8</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>8</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>30</v>
       </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <f>G13/1</f>
-        <v>2</v>
-      </c>
       <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f>J13/1</f>
+        <v>2</v>
+      </c>
+      <c r="L13">
         <v>4</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>4</v>
       </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>0.8</v>
       </c>
-      <c r="H14">
-        <f>G14/2</f>
+      <c r="K14">
+        <f>J14/2</f>
         <v>0.4</v>
       </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="C15">
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>10</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>1.2</v>
       </c>
-      <c r="H15">
-        <f t="shared" ref="H15:H17" si="3">G15/4</f>
+      <c r="K15">
+        <f t="shared" ref="K15:K17" si="3">J15/4</f>
         <v>0.3</v>
       </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="C16">
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>20</v>
       </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
+      <c r="I16">
+        <v>0.5</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>8</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="C17">
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>30</v>
       </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="I17">
-        <v>8</v>
-      </c>
-      <c r="J17">
-        <v>8</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
       <c r="E18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>0.8</v>
       </c>
-      <c r="H18">
-        <f>G18/4</f>
+      <c r="K18">
+        <f>J18/4</f>
         <v>0.2</v>
       </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>10</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>1.2</v>
       </c>
-      <c r="H19">
-        <f t="shared" ref="H19:H20" si="4">G19/4</f>
+      <c r="K19">
+        <f t="shared" ref="K19:K20" si="4">J19/4</f>
         <v>0.3</v>
       </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>20</v>
       </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
+      <c r="I20">
+        <v>0.5</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="I20">
-        <v>8</v>
-      </c>
-      <c r="J20">
-        <v>8</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>8</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>30</v>
       </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <f>G21/1</f>
-        <v>2</v>
-      </c>
       <c r="I21">
+        <v>0.5</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f>J21/1</f>
+        <v>2</v>
+      </c>
+      <c r="L21">
         <v>4</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>4</v>
       </c>
-      <c r="K21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>6</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>0.8</v>
       </c>
-      <c r="H22">
-        <f>G22/2</f>
+      <c r="K22">
+        <f>J22/2</f>
         <v>0.4</v>
       </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="C23">
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>6</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>10</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
         <v>1.2</v>
       </c>
-      <c r="H23">
-        <f t="shared" ref="H23:H25" si="5">G23/4</f>
+      <c r="K23">
+        <f t="shared" ref="K23:K25" si="5">J23/4</f>
         <v>0.3</v>
       </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="C24">
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>6</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>20</v>
       </c>
-      <c r="F24">
-        <v>0.5</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
+      <c r="I24">
+        <v>0.5</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="I24">
-        <v>8</v>
-      </c>
-      <c r="J24">
-        <v>8</v>
-      </c>
-      <c r="K24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="C25">
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>6</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
       <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>30</v>
       </c>
-      <c r="F25">
-        <v>0.5</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
+      <c r="I25">
+        <v>0.5</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="I25">
-        <v>8</v>
-      </c>
-      <c r="J25">
-        <v>8</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="C26">
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>7</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
       <c r="E26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
         <v>0.8</v>
       </c>
-      <c r="H26">
-        <f>G26/4</f>
+      <c r="K26">
+        <f>J26/4</f>
         <v>0.2</v>
       </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="C27">
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>7</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
       <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>10</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
         <v>1.2</v>
       </c>
-      <c r="H27">
-        <f t="shared" ref="H27:H28" si="6">G27/4</f>
+      <c r="K27">
+        <f t="shared" ref="K27:K28" si="6">J27/4</f>
         <v>0.3</v>
       </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="C28">
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>7</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
       <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>20</v>
       </c>
-      <c r="F28">
-        <v>0.5</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="I28">
-        <v>8</v>
-      </c>
-      <c r="J28">
-        <v>8</v>
-      </c>
-      <c r="K28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <v>8</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="C29">
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>7</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
       <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>30</v>
       </c>
-      <c r="F29">
-        <v>0.5</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <f>G29/1</f>
-        <v>2</v>
-      </c>
       <c r="I29">
+        <v>0.5</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <f>J29/1</f>
+        <v>2</v>
+      </c>
+      <c r="L29">
         <v>4</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>4</v>
       </c>
-      <c r="K29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="C30">
-        <v>8</v>
+      <c r="B30" t="b">
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
         <v>0.8</v>
       </c>
-      <c r="H30">
-        <f>G30/2</f>
+      <c r="K30">
+        <f>J30/2</f>
         <v>0.4</v>
       </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="C31">
-        <v>8</v>
+      <c r="B31" t="b">
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>10</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
         <v>1.2</v>
       </c>
-      <c r="H31">
-        <f t="shared" ref="H31:H33" si="7">G31/4</f>
+      <c r="K31">
+        <f t="shared" ref="K31:K33" si="7">J31/4</f>
         <v>0.3</v>
       </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="C32">
-        <v>8</v>
+      <c r="B32" t="b">
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>20</v>
       </c>
-      <c r="F32">
-        <v>0.5</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
+      <c r="I32">
+        <v>0.5</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="I32">
-        <v>8</v>
-      </c>
-      <c r="J32">
-        <v>8</v>
-      </c>
-      <c r="K32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>8</v>
+      </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
-      <c r="C33">
-        <v>8</v>
+      <c r="B33" t="b">
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>30</v>
       </c>
-      <c r="F33">
-        <v>0.5</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
+      <c r="I33">
+        <v>0.5</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="I33">
-        <v>8</v>
-      </c>
-      <c r="J33">
-        <v>8</v>
-      </c>
-      <c r="K33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <v>8</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="C34">
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>9</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
       <c r="E34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
+        <v>0.5</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
         <v>0.8</v>
       </c>
-      <c r="H34">
-        <f>G34/4</f>
+      <c r="K34">
+        <f>J34/4</f>
         <v>0.2</v>
       </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
-      <c r="C35">
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>9</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
       <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>10</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
         <v>1.2</v>
       </c>
-      <c r="H35">
-        <f t="shared" ref="H35:H36" si="8">G35/4</f>
+      <c r="K35">
+        <f t="shared" ref="K35:K36" si="8">J35/4</f>
         <v>0.3</v>
       </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
-      <c r="C36">
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>9</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
       <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>20</v>
       </c>
-      <c r="F36">
-        <v>0.5</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
+      <c r="I36">
+        <v>0.5</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="I36">
-        <v>8</v>
-      </c>
-      <c r="J36">
-        <v>8</v>
-      </c>
-      <c r="K36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>8</v>
+      </c>
+      <c r="M36">
+        <v>8</v>
+      </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
-      <c r="C37">
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>9</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
       <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>30</v>
       </c>
-      <c r="F37">
-        <v>0.5</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <f>G37/1</f>
-        <v>2</v>
-      </c>
       <c r="I37">
+        <v>0.5</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <f>J37/1</f>
+        <v>2</v>
+      </c>
+      <c r="L37">
         <v>4</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>4</v>
       </c>
-      <c r="K37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="C38">
+      <c r="B38" t="b">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
+        <v>0.5</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
         <v>0.8</v>
       </c>
-      <c r="H38">
-        <f>G38/2</f>
+      <c r="K38">
+        <f>J38/2</f>
         <v>0.4</v>
       </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
-      <c r="C39">
+      <c r="B39" t="b">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>10</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
         <v>1.2</v>
       </c>
-      <c r="H39">
-        <f t="shared" ref="H39:H41" si="9">G39/4</f>
+      <c r="K39">
+        <f t="shared" ref="K39:K41" si="9">J39/4</f>
         <v>0.3</v>
       </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="C40">
+      <c r="B40" t="b">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <v>20</v>
       </c>
-      <c r="F40">
-        <v>0.5</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
+      <c r="I40">
+        <v>0.5</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="I40">
-        <v>8</v>
-      </c>
-      <c r="J40">
-        <v>8</v>
-      </c>
-      <c r="K40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>8</v>
+      </c>
+      <c r="M40">
+        <v>8</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
-      <c r="C41">
+      <c r="B41" t="b">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
         <v>30</v>
       </c>
-      <c r="F41">
-        <v>0.5</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
+      <c r="I41">
+        <v>0.5</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="I41">
-        <v>8</v>
-      </c>
-      <c r="J41">
-        <v>8</v>
-      </c>
-      <c r="K41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>8</v>
+      </c>
+      <c r="M41">
+        <v>8</v>
+      </c>
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="D42">
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
+        <v>0.5</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
         <v>0.8</v>
       </c>
-      <c r="H42">
-        <f>G42/4</f>
+      <c r="K42">
+        <f>J42/4</f>
         <v>0.2</v>
       </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="D43">
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43">
         <v>1</v>
       </c>
       <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>10</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
         <v>1.2</v>
       </c>
-      <c r="H43">
-        <f t="shared" ref="H43:H44" si="10">G43/4</f>
+      <c r="K43">
+        <f t="shared" ref="K43:K44" si="10">J43/4</f>
         <v>0.3</v>
       </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="D44">
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44">
         <v>1</v>
       </c>
       <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
         <v>20</v>
       </c>
-      <c r="F44">
-        <v>0.5</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
+      <c r="I44">
+        <v>0.5</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="I44">
-        <v>8</v>
-      </c>
-      <c r="J44">
-        <v>8</v>
-      </c>
-      <c r="K44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>8</v>
+      </c>
+      <c r="M44">
+        <v>8</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="D45">
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45">
         <v>1</v>
       </c>
       <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
         <v>30</v>
       </c>
-      <c r="F45">
-        <v>0.5</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45">
-        <f>G45/1</f>
-        <v>2</v>
-      </c>
       <c r="I45">
+        <v>0.5</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <f>J45/1</f>
+        <v>2</v>
+      </c>
+      <c r="L45">
         <v>4</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>4</v>
       </c>
-      <c r="K45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="D46">
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46">
         <v>1</v>
       </c>
       <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>15</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <f>G46/1</f>
-        <v>1</v>
-      </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>2</v>
-      </c>
-      <c r="K46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <f>J46/1</f>
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47">
+        <v>3.5</v>
+      </c>
+      <c r="H47">
+        <v>7.5</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0.5</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
         <v>0.8</v>
       </c>
-      <c r="H47">
-        <f>G47/2</f>
+      <c r="K48">
+        <f>J48/2</f>
         <v>0.4</v>
       </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>18</v>
       </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
         <v>10</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
         <v>1.2</v>
       </c>
-      <c r="H48">
-        <f t="shared" ref="H48:H50" si="11">G48/4</f>
+      <c r="K49">
+        <f t="shared" ref="K49:K51" si="11">J49/4</f>
         <v>0.3</v>
       </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>20</v>
       </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
         <v>20</v>
       </c>
-      <c r="F49">
-        <v>0.5</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
+      <c r="I50">
+        <v>0.5</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="I49">
-        <v>8</v>
-      </c>
-      <c r="J49">
-        <v>8</v>
-      </c>
-      <c r="K49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50">
+        <v>8</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>21</v>
       </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
         <v>30</v>
       </c>
-      <c r="F50">
-        <v>0.5</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
+      <c r="I51">
+        <v>0.5</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="I50">
-        <v>8</v>
-      </c>
-      <c r="J50">
-        <v>8</v>
-      </c>
-      <c r="K50" t="b">
+      <c r="L51">
+        <v>8</v>
+      </c>
+      <c r="M51">
+        <v>8</v>
+      </c>
+      <c r="N51" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357642A5-105F-4B4C-863A-8B5D1AA6E2D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E75312D-B718-44D7-BA60-C2CBC000111D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -358,6 +358,107 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{5777719E-0833-4945-BC65-8B5A3B31F2F5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">100 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이상이면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>골드
+미만이면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다이아
+수치로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검증까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1537,7 +1638,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1652,6 +1753,26 @@
   </si>
   <si>
     <t>maxPeriod|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndwRe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndwFr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeatRewardGold값연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstReward값연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2043,21 +2164,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="24.125" customWidth="1"/>
     <col min="8" max="8" width="31.625" customWidth="1"/>
+    <col min="9" max="12" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9" collapsed="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2082,8 +2207,23 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2105,8 +2245,30 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="str">
+        <f>K2</f>
+        <v>"1":1000</v>
+      </c>
+      <c r="J2" t="str">
+        <f>L2</f>
+        <v>"1":500</v>
+      </c>
+      <c r="K2" t="str">
+        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B2),C2,B2)</f>
+        <v>"1":1000</v>
+      </c>
+      <c r="L2" t="str">
+        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;D2</f>
+        <v>"1":500</v>
+      </c>
+      <c r="N2" t="str">
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(I1,COUNTA(I:I)-1,0),1)=",",SUBSTITUTE(OFFSET(I1,COUNTA(I:I)-1,0),",","",1),OFFSET(I1,COUNTA(I:I)-1,0))
+&amp;"}"</f>
+        <v>{"1":1000,"2":1100,"3":1200,"4":1300,"5":30,"6":1400,"7":1500}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2127,8 +2289,24 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="str">
+        <f>I2&amp;","&amp;K3</f>
+        <v>"1":1000,"2":1100</v>
+      </c>
+      <c r="J3" t="str">
+        <f>J2&amp;","&amp;L3</f>
+        <v>"1":500,"2":600</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K8" si="1">""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B3),C3,B3)</f>
+        <v>"2":1100</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L8" si="2">""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;D3</f>
+        <v>"2":600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2149,8 +2327,27 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I8" si="3">I3&amp;","&amp;K4</f>
+        <v>"1":1000,"2":1100,"3":1200</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J8" si="4">J3&amp;","&amp;L4</f>
+        <v>"1":500,"2":600,"3":700</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>"3":1200</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="2"/>
+        <v>"3":700</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2171,8 +2368,30 @@
       <c r="G5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>"1":1000,"2":1100,"3":1200,"4":1300</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="4"/>
+        <v>"1":500,"2":600,"3":700,"4":800</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>"4":1300</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>"4":800</v>
+      </c>
+      <c r="N5" t="str">
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(J1,COUNTA(J:J)-1,0),1)=",",SUBSTITUTE(OFFSET(J1,COUNTA(J:J)-1,0),",","",1),OFFSET(J1,COUNTA(J:J)-1,0))
+&amp;"}"</f>
+        <v>{"1":500,"2":600,"3":700,"4":800,"5":900,"6":1000,"7":1100}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2193,8 +2412,24 @@
       <c r="G6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>"1":1000,"2":1100,"3":1200,"4":1300,"5":30</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="4"/>
+        <v>"1":500,"2":600,"3":700,"4":800,"5":900</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>"5":30</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>"5":900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2215,8 +2450,24 @@
       <c r="G7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>"1":1000,"2":1100,"3":1200,"4":1300,"5":30,"6":1400</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="4"/>
+        <v>"1":500,"2":600,"3":700,"4":800,"5":900,"6":1000</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>"6":1400</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>"6":1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2236,6 +2487,22 @@
       </c>
       <c r="G8" t="s">
         <v>18</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>"1":1000,"2":1100,"3":1200,"4":1300,"5":30,"6":1400,"7":1500</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="4"/>
+        <v>"1":500,"2":600,"3":700,"4":800,"5":900,"6":1000,"7":1100</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>"7":1500</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>"7":1100</v>
       </c>
     </row>
   </sheetData>
@@ -2250,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E75312D-B718-44D7-BA60-C2CBC000111D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5821D98-E589-4C12-A1F6-E6B4692AC9C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -2166,9 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2517,7 +2515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226A629D-D7EC-46CE-B0B7-F766CAE9BD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE55328-14E1-407D-998D-507834DE8794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -470,7 +470,7 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D941AADD-B766-4E3A-8859-D0EE0E103C1D}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D941AADD-B766-4E3A-8859-D0EE0E103C1D}">
       <text>
         <r>
           <rPr>
@@ -659,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{7AF4A5FD-119A-46B8-83D3-1CFAA15BD842}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{7AF4A5FD-119A-46B8-83D3-1CFAA15BD842}">
       <text>
         <r>
           <rPr>
@@ -731,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{D252F468-1C2F-4CB9-B2C4-16EE634F27AE}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{D252F468-1C2F-4CB9-B2C4-16EE634F27AE}">
       <text>
         <r>
           <rPr>
@@ -878,7 +878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{A74EAF7B-4BE6-46BE-B6C5-72D751BE2FE1}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A74EAF7B-4BE6-46BE-B6C5-72D751BE2FE1}">
       <text>
         <r>
           <rPr>
@@ -1752,7 +1752,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1855,10 +1855,6 @@
   </si>
   <si>
     <t>Trap_NodeWar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trap|Bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2332,19 +2328,19 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -2468,7 +2464,7 @@
         <v>"3":700</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -2639,7 +2635,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2651,1215 +2647,1101 @@
     <col min="1" max="1" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="b">
-        <v>0</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
-      </c>
-      <c r="I2">
         <v>0.05</v>
       </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="b">
-        <v>0</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
-      </c>
-      <c r="I3">
         <v>0.1</v>
       </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="b">
-        <v>0</v>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H4">
-        <v>0.6</v>
-      </c>
-      <c r="I4">
         <v>0.1</v>
       </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="b">
-        <v>0</v>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5" t="b">
+      <c r="K5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="b">
-        <v>0</v>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H6">
-        <v>0.6</v>
-      </c>
-      <c r="I6">
         <v>0.1</v>
       </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="b">
-        <v>0</v>
+      <c r="C7">
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H7">
-        <v>0.9</v>
-      </c>
-      <c r="I7">
         <v>0.2</v>
       </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="b">
-        <v>0</v>
+      <c r="C8">
+        <v>3</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>0.5</v>
-      </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8" t="b">
+      <c r="K8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="b">
-        <v>0</v>
+      <c r="C9">
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H9">
-        <v>0.4</v>
-      </c>
-      <c r="I9">
         <v>0.1</v>
       </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="b">
-        <v>0</v>
+      <c r="C10">
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H10">
-        <v>0.7</v>
-      </c>
-      <c r="I10">
         <v>0.2</v>
       </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="b">
-        <v>0</v>
+      <c r="C11">
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H11">
-        <v>0.4</v>
-      </c>
-      <c r="I11">
         <v>0.1</v>
       </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="b">
-        <v>0</v>
+      <c r="C12">
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H12">
-        <v>0.7</v>
-      </c>
-      <c r="I12">
         <v>0.2</v>
       </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="b">
-        <v>0</v>
+      <c r="C13">
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J13">
         <v>8</v>
       </c>
-      <c r="K13">
-        <v>8</v>
-      </c>
-      <c r="L13" t="b">
+      <c r="K13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="b">
-        <v>0</v>
+      <c r="C14">
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
-        <v>0.6</v>
-      </c>
-      <c r="I14">
         <v>0.1</v>
       </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="b">
-        <v>0</v>
+      <c r="C15">
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H15">
-        <v>0.9</v>
-      </c>
-      <c r="I15">
         <v>0.2</v>
       </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="b">
-        <v>0</v>
+      <c r="C16">
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H16">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>2</v>
       </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16" t="b">
+      <c r="K16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="b">
-        <v>0</v>
+      <c r="C17">
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H17">
-        <v>0.6</v>
-      </c>
-      <c r="I17">
         <v>0.1</v>
       </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="b">
-        <v>0</v>
+      <c r="C18">
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H18">
-        <v>0.9</v>
-      </c>
-      <c r="I18">
         <v>0.2</v>
       </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="b">
-        <v>0</v>
+      <c r="C19">
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J19">
         <v>6</v>
       </c>
-      <c r="K19">
-        <v>6</v>
-      </c>
-      <c r="L19" t="b">
+      <c r="K19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="b">
-        <v>0</v>
+      <c r="C20">
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F20">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H20">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20" t="b">
+      <c r="K20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" t="b">
-        <v>0</v>
+      <c r="C21">
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H21">
-        <v>0.6</v>
-      </c>
-      <c r="I21">
         <v>0.1</v>
       </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" t="b">
-        <v>0</v>
+      <c r="C22">
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H22">
-        <v>0.9</v>
-      </c>
-      <c r="I22">
         <v>0.2</v>
       </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="b">
-        <v>0</v>
+      <c r="C23">
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J23">
         <v>6</v>
       </c>
-      <c r="K23">
-        <v>6</v>
-      </c>
-      <c r="L23" t="b">
+      <c r="K23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="b">
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>20</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" t="b">
-        <v>0</v>
+      <c r="C25">
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H25">
-        <v>0.4</v>
-      </c>
-      <c r="I25">
         <v>0.1</v>
       </c>
-      <c r="L25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B26" t="b">
-        <v>0</v>
+      <c r="C26">
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H26">
-        <v>0.7</v>
-      </c>
-      <c r="I26">
         <v>0.2</v>
       </c>
-      <c r="L26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" t="b">
-        <v>0</v>
+      <c r="C27">
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F27">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="G27">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J27">
         <v>8</v>
       </c>
-      <c r="K27">
-        <v>8</v>
-      </c>
-      <c r="L27" t="b">
+      <c r="K27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="b">
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>20</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B29" t="b">
+      <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H29">
-        <v>0.4</v>
-      </c>
-      <c r="I29">
         <v>0.1</v>
       </c>
-      <c r="L29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="B30" t="b">
+      <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H30">
-        <v>0.7</v>
-      </c>
-      <c r="I30">
         <v>0.2</v>
       </c>
-      <c r="L30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
-      <c r="B31" t="b">
+      <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="G31">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J31">
         <v>8</v>
       </c>
-      <c r="K31">
-        <v>8</v>
-      </c>
-      <c r="L31" t="b">
+      <c r="K31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" t="b">
+      <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="G32">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>2</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32" t="b">
+      <c r="K32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="b">
+      <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>20</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B34" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34">
+      <c r="B34">
         <v>17</v>
       </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
       <c r="E34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H34">
-        <v>0.8</v>
-      </c>
-      <c r="I34">
-        <f>H34/4</f>
+        <f>G34/4</f>
         <v>0.2</v>
       </c>
-      <c r="L34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
-      <c r="B35" t="b">
-        <v>0</v>
-      </c>
-      <c r="C35">
+      <c r="B35">
         <v>17</v>
       </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="E35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H35">
-        <v>1.2</v>
-      </c>
-      <c r="I35">
-        <f t="shared" ref="I35:I36" si="0">H35/4</f>
+        <f t="shared" ref="H35:H36" si="0">G35/4</f>
         <v>0.3</v>
       </c>
-      <c r="L35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36">
+      <c r="B36">
         <v>17</v>
       </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
       <c r="E36">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F36">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="G36">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="I36">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
       <c r="J36">
         <v>8</v>
       </c>
-      <c r="K36">
-        <v>8</v>
-      </c>
-      <c r="L36" t="b">
+      <c r="K36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
-      <c r="B37" t="b">
-        <v>0</v>
-      </c>
-      <c r="C37">
+      <c r="B37">
         <v>17</v>
       </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
       <c r="E37">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F37">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="G37">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H37">
+        <f>G37/1</f>
         <v>2</v>
       </c>
       <c r="I37">
-        <f>H37/1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J37">
         <v>4</v>
       </c>
-      <c r="K37">
-        <v>4</v>
-      </c>
-      <c r="L37" t="b">
+      <c r="K37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
-      <c r="B38" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38">
+      <c r="B38">
         <v>17</v>
       </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
       <c r="E38">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
+        <f>G38/1</f>
         <v>1</v>
       </c>
       <c r="I38">
-        <f>H38/1</f>
         <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
         <v>2</v>
       </c>
-      <c r="L38" t="b">
+      <c r="K38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3884,7 +3766,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -3896,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE55328-14E1-407D-998D-507834DE8794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F21EC12-AB3E-4689-91B6-F647800F79AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -659,6 +659,134 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0B506936-2007-4ECF-85FF-2F25DF9F9D66}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몬스터는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>각</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스텝</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>앞에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이만큼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기다렸다가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나온다</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H1" authorId="0" shapeId="0" xr:uid="{7AF4A5FD-119A-46B8-83D3-1CFAA15BD842}">
       <text>
         <r>
@@ -959,6 +1087,249 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{40A85A95-55E6-4079-9910-3D6DD34B8FB8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>트랩은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>처음에서만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이만큼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기다렸다가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">나온다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단계</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>돌입해도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이거</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>돌고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시작된다</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4DAF03D9-555D-4F5B-886A-9CA9981F89DD}">
       <text>
         <r>
@@ -2638,8 +3009,8 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3757,7 +4128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CF6387-5136-4565-9CA6-4645A4F33399}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F21EC12-AB3E-4689-91B6-F647800F79AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD97E15-021D-4BCF-8EC9-CC7721182C1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -2659,7 +2659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2725,7 +2727,8 @@
         <v>500</v>
       </c>
       <c r="E2" s="2">
-        <v>405</v>
+        <f>405*2.75</f>
+        <v>1113.75</v>
       </c>
       <c r="F2" s="2">
         <v>168.75</v>
@@ -2771,7 +2774,7 @@
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:F8" si="0">E2*1.2</f>
-        <v>486</v>
+        <v>1336.5</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
@@ -2809,7 +2812,7 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>583.19999999999993</v>
+        <v>1603.8</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
@@ -2850,7 +2853,7 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>699.83999999999992</v>
+        <v>1924.56</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
@@ -2894,7 +2897,7 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>839.80799999999988</v>
+        <v>2309.4719999999998</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
@@ -2932,7 +2935,7 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>1007.7695999999999</v>
+        <v>2771.3663999999994</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
@@ -2970,7 +2973,7 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1209.3235199999997</v>
+        <v>3325.6396799999993</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
@@ -3008,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3070,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
         <v>0.05</v>
@@ -3096,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H3">
         <v>0.1</v>
@@ -4128,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CF6387-5136-4565-9CA6-4645A4F33399}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4171,10 +4174,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4185,10 +4188,10 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H3">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4199,10 +4202,10 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H4">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4222,10 +4225,10 @@
         <v>6.5</v>
       </c>
       <c r="G5">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H5">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4245,10 +4248,10 @@
         <v>6.5</v>
       </c>
       <c r="G6">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H6">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4259,10 +4262,10 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H7">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4273,10 +4276,10 @@
         <v>7</v>
       </c>
       <c r="G8">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H8">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4287,10 +4290,10 @@
         <v>8</v>
       </c>
       <c r="G9">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H9">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4310,10 +4313,10 @@
         <v>6.5</v>
       </c>
       <c r="G10">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H10">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -4333,10 +4336,10 @@
         <v>6.5</v>
       </c>
       <c r="G11">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H11">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -4356,10 +4359,10 @@
         <v>7.5</v>
       </c>
       <c r="G12">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H12">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD97E15-021D-4BCF-8EC9-CC7721182C1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB292A79-CCC0-430C-8177-14CD1962086A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -3011,9 +3011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3073,10 +3073,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -3099,10 +3099,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H4">
         <v>0.1</v>
@@ -3145,13 +3145,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -4131,9 +4131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CF6387-5136-4565-9CA6-4645A4F33399}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4174,10 +4172,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4188,10 +4186,10 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4202,10 +4200,10 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4216,13 +4214,13 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F5">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G5">
         <v>0.2</v>
@@ -4239,13 +4237,13 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F6">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G6">
         <v>0.2</v>
@@ -4262,10 +4260,10 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4276,10 +4274,10 @@
         <v>7</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4290,10 +4288,10 @@
         <v>8</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4304,13 +4302,13 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F10">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G10">
         <v>0.2</v>
@@ -4327,13 +4325,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F11">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G11">
         <v>0.2</v>
@@ -4349,20 +4347,11 @@
       <c r="B12">
         <v>17</v>
       </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>3.5</v>
-      </c>
-      <c r="F12">
-        <v>7.5</v>
-      </c>
       <c r="G12">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB292A79-CCC0-430C-8177-14CD1962086A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3437CB6C-217D-48C7-A2C8-2D586E27DA17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -2659,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2669,9 +2669,9 @@
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="24.125" customWidth="1"/>
     <col min="8" max="8" width="31.625" customWidth="1"/>
-    <col min="9" max="12" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="9" collapsed="1"/>
-    <col min="14" max="14" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="9" collapsed="1"/>
   </cols>
   <sheetData>
@@ -2721,10 +2721,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="E2" s="2">
         <f>405*2.75</f>
@@ -2741,25 +2741,25 @@
       </c>
       <c r="I2" t="str">
         <f>K2</f>
-        <v>"1":1000</v>
+        <v>"1":5000</v>
       </c>
       <c r="J2" t="str">
         <f>L2</f>
-        <v>"1":500</v>
+        <v>"1":1200</v>
       </c>
       <c r="K2" t="str">
         <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B2),C2,B2)</f>
-        <v>"1":1000</v>
+        <v>"1":5000</v>
       </c>
       <c r="L2" t="str">
         <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;D2</f>
-        <v>"1":500</v>
+        <v>"1":1200</v>
       </c>
       <c r="N2" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(I1,COUNTA(I:I)-1,0),1)=",",SUBSTITUTE(OFFSET(I1,COUNTA(I:I)-1,0),",","",1),OFFSET(I1,COUNTA(I:I)-1,0))
 &amp;"}"</f>
-        <v>{"1":1000,"2":1100,"3":1200,"4":1300,"5":30,"6":1400,"7":1500}</v>
+        <v>{"1":5000,"2":5200,"3":5400,"4":6000,"5":30,"6":6200,"7":6400}</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -2767,10 +2767,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1100</v>
+        <v>5200</v>
       </c>
       <c r="D3">
-        <v>600</v>
+        <v>1250</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:F8" si="0">E2*1.2</f>
@@ -2785,19 +2785,19 @@
       </c>
       <c r="I3" t="str">
         <f>I2&amp;","&amp;K3</f>
-        <v>"1":1000,"2":1100</v>
+        <v>"1":5000,"2":5200</v>
       </c>
       <c r="J3" t="str">
         <f>J2&amp;","&amp;L3</f>
-        <v>"1":500,"2":600</v>
+        <v>"1":1200,"2":1250</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K8" si="1">""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B3),C3,B3)</f>
-        <v>"2":1100</v>
+        <v>"2":5200</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L8" si="2">""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;D3</f>
-        <v>"2":600</v>
+        <v>"2":1250</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -2805,10 +2805,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1200</v>
+        <v>5400</v>
       </c>
       <c r="D4">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
@@ -2823,19 +2823,19 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" ref="I4:I8" si="3">I3&amp;","&amp;K4</f>
-        <v>"1":1000,"2":1100,"3":1200</v>
+        <v>"1":5000,"2":5200,"3":5400</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" ref="J4:J8" si="4">J3&amp;","&amp;L4</f>
-        <v>"1":500,"2":600,"3":700</v>
+        <v>"1":1200,"2":1250,"3":1300</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="1"/>
-        <v>"3":1200</v>
+        <v>"3":5400</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="2"/>
-        <v>"3":700</v>
+        <v>"3":1300</v>
       </c>
       <c r="N4" t="s">
         <v>27</v>
@@ -2846,10 +2846,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="D5">
-        <v>800</v>
+        <v>1350</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
@@ -2864,25 +2864,25 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="3"/>
-        <v>"1":1000,"2":1100,"3":1200,"4":1300</v>
+        <v>"1":5000,"2":5200,"3":5400,"4":6000</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="4"/>
-        <v>"1":500,"2":600,"3":700,"4":800</v>
+        <v>"1":1200,"2":1250,"3":1300,"4":1350</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="1"/>
-        <v>"4":1300</v>
+        <v>"4":6000</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="2"/>
-        <v>"4":800</v>
+        <v>"4":1350</v>
       </c>
       <c r="N5" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(J1,COUNTA(J:J)-1,0),1)=",",SUBSTITUTE(OFFSET(J1,COUNTA(J:J)-1,0),",","",1),OFFSET(J1,COUNTA(J:J)-1,0))
 &amp;"}"</f>
-        <v>{"1":500,"2":600,"3":700,"4":800,"5":900,"6":1000,"7":1100}</v>
+        <v>{"1":1200,"2":1250,"3":1300,"4":1350,"5":1500,"6":1550,"7":1600}</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2893,7 +2893,7 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
@@ -2908,11 +2908,11 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="3"/>
-        <v>"1":1000,"2":1100,"3":1200,"4":1300,"5":30</v>
+        <v>"1":5000,"2":5200,"3":5400,"4":6000,"5":30</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="4"/>
-        <v>"1":500,"2":600,"3":700,"4":800,"5":900</v>
+        <v>"1":1200,"2":1250,"3":1300,"4":1350,"5":1500</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="1"/>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="2"/>
-        <v>"5":900</v>
+        <v>"5":1500</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -2928,10 +2928,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1400</v>
+        <v>6200</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
@@ -2946,19 +2946,19 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="3"/>
-        <v>"1":1000,"2":1100,"3":1200,"4":1300,"5":30,"6":1400</v>
+        <v>"1":5000,"2":5200,"3":5400,"4":6000,"5":30,"6":6200</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="4"/>
-        <v>"1":500,"2":600,"3":700,"4":800,"5":900,"6":1000</v>
+        <v>"1":1200,"2":1250,"3":1300,"4":1350,"5":1500,"6":1550</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
-        <v>"6":1400</v>
+        <v>"6":6200</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="2"/>
-        <v>"6":1000</v>
+        <v>"6":1550</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -2966,10 +2966,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1500</v>
+        <v>6400</v>
       </c>
       <c r="D8">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
@@ -2984,19 +2984,19 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="3"/>
-        <v>"1":1000,"2":1100,"3":1200,"4":1300,"5":30,"6":1400,"7":1500</v>
+        <v>"1":5000,"2":5200,"3":5400,"4":6000,"5":30,"6":6200,"7":6400</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="4"/>
-        <v>"1":500,"2":600,"3":700,"4":800,"5":900,"6":1000,"7":1100</v>
+        <v>"1":1200,"2":1250,"3":1300,"4":1350,"5":1500,"6":1550,"7":1600</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
-        <v>"7":1500</v>
+        <v>"7":6400</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="2"/>
-        <v>"7":1100</v>
+        <v>"7":1600</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85FDA7E-944E-4188-81BE-F270B0FB73E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DABB0D7-2ACB-41D0-9893-EB375E407BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -2126,7 +2126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="49">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2311,6 +2311,10 @@
   </si>
   <si>
     <t>업데이트순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trapNoSpawnRange|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2704,7 +2708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:Y151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -15467,16 +15471,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CF6387-5136-4565-9CA6-4645A4F33399}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -15501,8 +15507,11 @@
       <c r="H1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -15515,8 +15524,11 @@
       <c r="H2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -15529,8 +15541,11 @@
       <c r="H3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -15543,8 +15558,11 @@
       <c r="H4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -15566,8 +15584,11 @@
       <c r="H5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -15589,8 +15610,11 @@
       <c r="H6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -15603,8 +15627,11 @@
       <c r="H7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -15617,8 +15644,11 @@
       <c r="H8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -15631,8 +15661,11 @@
       <c r="H9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -15654,8 +15687,11 @@
       <c r="H10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -15677,8 +15713,11 @@
       <c r="H11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -15690,6 +15729,9 @@
       </c>
       <c r="H12">
         <v>1.5</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DABB0D7-2ACB-41D0-9893-EB375E407BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF14D70-3640-4CF9-BE49-B3DFFB918566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -14353,9 +14353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14713,16 +14713,16 @@
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -14765,7 +14765,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -14791,7 +14791,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>0.5</v>
@@ -14803,10 +14803,10 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -14875,7 +14875,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>0.5</v>
@@ -14887,10 +14887,10 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -14919,10 +14919,10 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -15473,8 +15473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CF6387-5136-4565-9CA6-4645A4F33399}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF14D70-3640-4CF9-BE49-B3DFFB918566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E5BFB0-8B3B-4222-9DF4-0FC70791A06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -14353,9 +14353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15267,10 +15267,10 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>8</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -15325,11 +15325,10 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H34">
-        <f>G34/4</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -15340,7 +15339,7 @@
         <v>17</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -15352,11 +15351,10 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H36" si="0">G35/4</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -15367,7 +15365,7 @@
         <v>19</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -15382,7 +15380,7 @@
         <v>2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H35:H36" si="0">G36/4</f>
         <v>0.5</v>
       </c>
       <c r="I36">
@@ -15400,7 +15398,7 @@
         <v>20</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -15433,7 +15431,7 @@
         <v>25</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -15473,8 +15471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CF6387-5136-4565-9CA6-4645A4F33399}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15722,13 +15720,22 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>4.5</v>
       </c>
       <c r="G12">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H12">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I12">
         <v>12</v>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E5BFB0-8B3B-4222-9DF4-0FC70791A06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA7616B-9B84-4C5E-A8BB-0CA0D3A7B938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -2706,28 +2706,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
-  <dimension ref="A1:Y151"/>
+  <dimension ref="A1:Z151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" outlineLevel="1"/>
-    <col min="7" max="8" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="12" width="14.125" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="17" width="8.625" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" collapsed="1"/>
+    <col min="6" max="8" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="12" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="17" width="8.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="24.125" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="31.625" customWidth="1"/>
-    <col min="20" max="23" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="9" collapsed="1"/>
+    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2809,10 +2812,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5345</v>
+        <v>535</v>
       </c>
       <c r="D2">
-        <v>5345</v>
+        <v>535</v>
       </c>
       <c r="E2">
         <v>1475</v>
@@ -2862,7 +2865,7 @@
       </c>
       <c r="T2" t="str">
         <f>V2</f>
-        <v>"1":5345</v>
+        <v>"1":535</v>
       </c>
       <c r="U2" t="str">
         <f>W2</f>
@@ -2870,7 +2873,7 @@
       </c>
       <c r="V2" t="str">
         <f t="shared" ref="V2:V33" si="1">""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B2),C2,B2)</f>
-        <v>"1":5345</v>
+        <v>"1":535</v>
       </c>
       <c r="W2" t="str">
         <f t="shared" ref="W2:W33" si="2">""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;E2</f>
@@ -2880,7 +2883,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(T1,COUNTA(T:T)-1,0),1)=",",SUBSTITUTE(OFFSET(T1,COUNTA(T:T)-1,0),",","",1),OFFSET(T1,COUNTA(T:T)-1,0))
 &amp;"}"</f>
-        <v>{"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551,"138":13562,"139":13573,"140":20,"141":14123,"142":14134,"143":14145,"144":14156,"145":10,"146":14167,"147":14178,"148":14189,"149":14200,"150":25}</v>
+        <v>{"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346,"145":10,"146":16357,"147":16368,"148":16379,"149":16390,"150":25}</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2888,14 +2891,14 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5356</v>
+        <v>546</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D34" si="3">IF(NOT(ISBLANK(B3)),"삭",
-IF(MOD(A2,10)=0,D1+550,
+IF(MOD(A2,10)=0,D1+1050,
 IF(MOD(A2,10)=5,D1+11,
 D2+11)))</f>
-        <v>5356</v>
+        <v>546</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E34" si="4">E2+3</f>
@@ -2946,7 +2949,7 @@
       </c>
       <c r="T3" t="str">
         <f>T2&amp;","&amp;V3</f>
-        <v>"1":5345,"2":5356</v>
+        <v>"1":535,"2":546</v>
       </c>
       <c r="U3" t="str">
         <f>U2&amp;","&amp;W3</f>
@@ -2954,7 +2957,7 @@
       </c>
       <c r="V3" t="str">
         <f t="shared" si="1"/>
-        <v>"2":5356</v>
+        <v>"2":546</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" si="2"/>
@@ -2966,11 +2969,11 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5367</v>
+        <v>557</v>
       </c>
       <c r="D4">
         <f t="shared" si="3"/>
-        <v>5367</v>
+        <v>557</v>
       </c>
       <c r="E4">
         <f t="shared" si="4"/>
@@ -3022,7 +3025,7 @@
       </c>
       <c r="T4" t="str">
         <f t="shared" ref="T4:T8" si="11">T3&amp;","&amp;V4</f>
-        <v>"1":5345,"2":5356,"3":5367</v>
+        <v>"1":535,"2":546,"3":557</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" ref="U4:U8" si="12">U3&amp;","&amp;W4</f>
@@ -3030,7 +3033,7 @@
       </c>
       <c r="V4" t="str">
         <f t="shared" si="1"/>
-        <v>"3":5367</v>
+        <v>"3":557</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="2"/>
@@ -3045,11 +3048,11 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5378</v>
+        <v>568</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
-        <v>5378</v>
+        <v>568</v>
       </c>
       <c r="E5">
         <f t="shared" si="4"/>
@@ -3101,7 +3104,7 @@
       </c>
       <c r="T5" t="str">
         <f t="shared" si="11"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378</v>
+        <v>"1":535,"2":546,"3":557,"4":568</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" si="12"/>
@@ -3109,7 +3112,7 @@
       </c>
       <c r="V5" t="str">
         <f t="shared" si="1"/>
-        <v>"4":5378</v>
+        <v>"4":568</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="2"/>
@@ -3183,7 +3186,7 @@
       </c>
       <c r="T6" t="str">
         <f t="shared" si="11"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="12"/>
@@ -3203,11 +3206,11 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5389</v>
+        <v>579</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>5389</v>
+        <v>579</v>
       </c>
       <c r="E7">
         <f t="shared" si="4"/>
@@ -3259,7 +3262,7 @@
       </c>
       <c r="T7" t="str">
         <f t="shared" si="11"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="12"/>
@@ -3267,7 +3270,7 @@
       </c>
       <c r="V7" t="str">
         <f t="shared" si="1"/>
-        <v>"6":5389</v>
+        <v>"6":579</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="2"/>
@@ -3279,11 +3282,11 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>5400</v>
+        <v>590</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>5400</v>
+        <v>590</v>
       </c>
       <c r="E8">
         <f t="shared" si="4"/>
@@ -3335,7 +3338,7 @@
       </c>
       <c r="T8" t="str">
         <f t="shared" si="11"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="12"/>
@@ -3343,7 +3346,7 @@
       </c>
       <c r="V8" t="str">
         <f t="shared" si="1"/>
-        <v>"7":5400</v>
+        <v>"7":590</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="2"/>
@@ -3355,11 +3358,11 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>5411</v>
+        <v>601</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
-        <v>5411</v>
+        <v>601</v>
       </c>
       <c r="E9">
         <f t="shared" si="4"/>
@@ -3411,7 +3414,7 @@
       </c>
       <c r="T9" t="str">
         <f t="shared" ref="T9:T72" si="15">T8&amp;","&amp;V9</f>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" ref="U9:U72" si="16">U8&amp;","&amp;W9</f>
@@ -3419,7 +3422,7 @@
       </c>
       <c r="V9" t="str">
         <f t="shared" si="1"/>
-        <v>"8":5411</v>
+        <v>"8":601</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="2"/>
@@ -3431,11 +3434,11 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>5422</v>
+        <v>612</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>5422</v>
+        <v>612</v>
       </c>
       <c r="E10">
         <f t="shared" si="4"/>
@@ -3487,7 +3490,7 @@
       </c>
       <c r="T10" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="16"/>
@@ -3495,7 +3498,7 @@
       </c>
       <c r="V10" t="str">
         <f t="shared" si="1"/>
-        <v>"9":5422</v>
+        <v>"9":612</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="2"/>
@@ -3563,7 +3566,7 @@
       </c>
       <c r="T11" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="16"/>
@@ -3583,11 +3586,11 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>5972</v>
+        <v>1662</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>5972</v>
+        <v>1662</v>
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
@@ -3639,7 +3642,7 @@
       </c>
       <c r="T12" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="16"/>
@@ -3647,7 +3650,7 @@
       </c>
       <c r="V12" t="str">
         <f t="shared" si="1"/>
-        <v>"11":5972</v>
+        <v>"11":1662</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="2"/>
@@ -3659,11 +3662,11 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>5983</v>
+        <v>1673</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>5983</v>
+        <v>1673</v>
       </c>
       <c r="E13">
         <f t="shared" si="4"/>
@@ -3715,7 +3718,7 @@
       </c>
       <c r="T13" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="16"/>
@@ -3723,7 +3726,7 @@
       </c>
       <c r="V13" t="str">
         <f t="shared" si="1"/>
-        <v>"12":5983</v>
+        <v>"12":1673</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="2"/>
@@ -3735,11 +3738,11 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>5994</v>
+        <v>1684</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>5994</v>
+        <v>1684</v>
       </c>
       <c r="E14">
         <f t="shared" si="4"/>
@@ -3791,7 +3794,7 @@
       </c>
       <c r="T14" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="16"/>
@@ -3799,7 +3802,7 @@
       </c>
       <c r="V14" t="str">
         <f t="shared" si="1"/>
-        <v>"13":5994</v>
+        <v>"13":1684</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="2"/>
@@ -3811,11 +3814,11 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>6005</v>
+        <v>1695</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>6005</v>
+        <v>1695</v>
       </c>
       <c r="E15">
         <f t="shared" si="4"/>
@@ -3867,7 +3870,7 @@
       </c>
       <c r="T15" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="16"/>
@@ -3875,7 +3878,7 @@
       </c>
       <c r="V15" t="str">
         <f t="shared" si="1"/>
-        <v>"14":6005</v>
+        <v>"14":1695</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="2"/>
@@ -3943,7 +3946,7 @@
       </c>
       <c r="T16" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="16"/>
@@ -3963,11 +3966,11 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>6016</v>
+        <v>1706</v>
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>6016</v>
+        <v>1706</v>
       </c>
       <c r="E17">
         <f t="shared" si="4"/>
@@ -4019,7 +4022,7 @@
       </c>
       <c r="T17" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="16"/>
@@ -4027,7 +4030,7 @@
       </c>
       <c r="V17" t="str">
         <f t="shared" si="1"/>
-        <v>"16":6016</v>
+        <v>"16":1706</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="2"/>
@@ -4039,11 +4042,11 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>6027</v>
+        <v>1717</v>
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>6027</v>
+        <v>1717</v>
       </c>
       <c r="E18">
         <f t="shared" si="4"/>
@@ -4095,7 +4098,7 @@
       </c>
       <c r="T18" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="16"/>
@@ -4103,7 +4106,7 @@
       </c>
       <c r="V18" t="str">
         <f t="shared" si="1"/>
-        <v>"17":6027</v>
+        <v>"17":1717</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="2"/>
@@ -4115,11 +4118,11 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>6038</v>
+        <v>1728</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>6038</v>
+        <v>1728</v>
       </c>
       <c r="E19">
         <f t="shared" si="4"/>
@@ -4171,7 +4174,7 @@
       </c>
       <c r="T19" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="16"/>
@@ -4179,7 +4182,7 @@
       </c>
       <c r="V19" t="str">
         <f t="shared" si="1"/>
-        <v>"18":6038</v>
+        <v>"18":1728</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="2"/>
@@ -4191,11 +4194,11 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>6049</v>
+        <v>1739</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>6049</v>
+        <v>1739</v>
       </c>
       <c r="E20">
         <f t="shared" si="4"/>
@@ -4247,7 +4250,7 @@
       </c>
       <c r="T20" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="16"/>
@@ -4255,7 +4258,7 @@
       </c>
       <c r="V20" t="str">
         <f t="shared" si="1"/>
-        <v>"19":6049</v>
+        <v>"19":1739</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="2"/>
@@ -4323,7 +4326,7 @@
       </c>
       <c r="T21" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="16"/>
@@ -4343,11 +4346,11 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>6599</v>
+        <v>2789</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>6599</v>
+        <v>2789</v>
       </c>
       <c r="E22">
         <f t="shared" si="4"/>
@@ -4399,7 +4402,7 @@
       </c>
       <c r="T22" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="16"/>
@@ -4407,7 +4410,7 @@
       </c>
       <c r="V22" t="str">
         <f t="shared" si="1"/>
-        <v>"21":6599</v>
+        <v>"21":2789</v>
       </c>
       <c r="W22" t="str">
         <f t="shared" si="2"/>
@@ -4419,11 +4422,11 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>6610</v>
+        <v>2800</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>6610</v>
+        <v>2800</v>
       </c>
       <c r="E23">
         <f t="shared" si="4"/>
@@ -4475,7 +4478,7 @@
       </c>
       <c r="T23" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800</v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="16"/>
@@ -4483,7 +4486,7 @@
       </c>
       <c r="V23" t="str">
         <f t="shared" si="1"/>
-        <v>"22":6610</v>
+        <v>"22":2800</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="2"/>
@@ -4495,11 +4498,11 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>6621</v>
+        <v>2811</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>6621</v>
+        <v>2811</v>
       </c>
       <c r="E24">
         <f t="shared" si="4"/>
@@ -4551,7 +4554,7 @@
       </c>
       <c r="T24" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="16"/>
@@ -4559,7 +4562,7 @@
       </c>
       <c r="V24" t="str">
         <f t="shared" si="1"/>
-        <v>"23":6621</v>
+        <v>"23":2811</v>
       </c>
       <c r="W24" t="str">
         <f t="shared" si="2"/>
@@ -4571,11 +4574,11 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>6632</v>
+        <v>2822</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>6632</v>
+        <v>2822</v>
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
@@ -4627,7 +4630,7 @@
       </c>
       <c r="T25" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="16"/>
@@ -4635,7 +4638,7 @@
       </c>
       <c r="V25" t="str">
         <f t="shared" si="1"/>
-        <v>"24":6632</v>
+        <v>"24":2822</v>
       </c>
       <c r="W25" t="str">
         <f t="shared" si="2"/>
@@ -4703,7 +4706,7 @@
       </c>
       <c r="T26" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="16"/>
@@ -4723,11 +4726,11 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>6643</v>
+        <v>2833</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>6643</v>
+        <v>2833</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
@@ -4779,7 +4782,7 @@
       </c>
       <c r="T27" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833</v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="16"/>
@@ -4787,7 +4790,7 @@
       </c>
       <c r="V27" t="str">
         <f t="shared" si="1"/>
-        <v>"26":6643</v>
+        <v>"26":2833</v>
       </c>
       <c r="W27" t="str">
         <f t="shared" si="2"/>
@@ -4799,11 +4802,11 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>6654</v>
+        <v>2844</v>
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
-        <v>6654</v>
+        <v>2844</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
@@ -4855,7 +4858,7 @@
       </c>
       <c r="T28" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="16"/>
@@ -4863,7 +4866,7 @@
       </c>
       <c r="V28" t="str">
         <f t="shared" si="1"/>
-        <v>"27":6654</v>
+        <v>"27":2844</v>
       </c>
       <c r="W28" t="str">
         <f t="shared" si="2"/>
@@ -4875,11 +4878,11 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>6665</v>
+        <v>2855</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>6665</v>
+        <v>2855</v>
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
@@ -4931,7 +4934,7 @@
       </c>
       <c r="T29" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="16"/>
@@ -4939,7 +4942,7 @@
       </c>
       <c r="V29" t="str">
         <f t="shared" si="1"/>
-        <v>"28":6665</v>
+        <v>"28":2855</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="2"/>
@@ -4951,11 +4954,11 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>6676</v>
+        <v>2866</v>
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>6676</v>
+        <v>2866</v>
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
@@ -5007,7 +5010,7 @@
       </c>
       <c r="T30" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="16"/>
@@ -5015,7 +5018,7 @@
       </c>
       <c r="V30" t="str">
         <f t="shared" si="1"/>
-        <v>"29":6676</v>
+        <v>"29":2866</v>
       </c>
       <c r="W30" t="str">
         <f t="shared" si="2"/>
@@ -5083,7 +5086,7 @@
       </c>
       <c r="T31" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="16"/>
@@ -5103,11 +5106,11 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>7226</v>
+        <v>3916</v>
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>7226</v>
+        <v>3916</v>
       </c>
       <c r="E32">
         <f t="shared" si="4"/>
@@ -5159,7 +5162,7 @@
       </c>
       <c r="T32" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="16"/>
@@ -5167,7 +5170,7 @@
       </c>
       <c r="V32" t="str">
         <f t="shared" si="1"/>
-        <v>"31":7226</v>
+        <v>"31":3916</v>
       </c>
       <c r="W32" t="str">
         <f t="shared" si="2"/>
@@ -5179,11 +5182,11 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>7237</v>
+        <v>3927</v>
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>7237</v>
+        <v>3927</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
@@ -5235,7 +5238,7 @@
       </c>
       <c r="T33" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="16"/>
@@ -5243,7 +5246,7 @@
       </c>
       <c r="V33" t="str">
         <f t="shared" si="1"/>
-        <v>"32":7237</v>
+        <v>"32":3927</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="2"/>
@@ -5255,11 +5258,11 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>7248</v>
+        <v>3938</v>
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>7248</v>
+        <v>3938</v>
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
@@ -5321,7 +5324,7 @@
       </c>
       <c r="T34" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" si="16"/>
@@ -5329,7 +5332,7 @@
       </c>
       <c r="V34" t="str">
         <f t="shared" ref="V34:V65" si="18">""""&amp;$A34&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B34),C34,B34)</f>
-        <v>"33":7248</v>
+        <v>"33":3938</v>
       </c>
       <c r="W34" t="str">
         <f t="shared" ref="W34:W65" si="19">""""&amp;$A34&amp;""""&amp;""&amp;":"&amp;E34</f>
@@ -5341,14 +5344,14 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>7259</v>
+        <v>3949</v>
       </c>
       <c r="D35">
         <f t="shared" ref="D35:D66" si="20">IF(NOT(ISBLANK(B35)),"삭",
-IF(MOD(A34,10)=0,D33+550,
+IF(MOD(A34,10)=0,D33+1050,
 IF(MOD(A34,10)=5,D33+11,
 D34+11)))</f>
-        <v>7259</v>
+        <v>3949</v>
       </c>
       <c r="E35">
         <f t="shared" ref="E35:E66" si="21">E34+3</f>
@@ -5400,7 +5403,7 @@
       </c>
       <c r="T35" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="16"/>
@@ -5408,7 +5411,7 @@
       </c>
       <c r="V35" t="str">
         <f t="shared" si="18"/>
-        <v>"34":7259</v>
+        <v>"34":3949</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="19"/>
@@ -5476,7 +5479,7 @@
       </c>
       <c r="T36" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="16"/>
@@ -5496,11 +5499,11 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>7270</v>
+        <v>3960</v>
       </c>
       <c r="D37">
         <f t="shared" si="20"/>
-        <v>7270</v>
+        <v>3960</v>
       </c>
       <c r="E37">
         <f t="shared" si="21"/>
@@ -5552,7 +5555,7 @@
       </c>
       <c r="T37" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="16"/>
@@ -5560,7 +5563,7 @@
       </c>
       <c r="V37" t="str">
         <f t="shared" si="18"/>
-        <v>"36":7270</v>
+        <v>"36":3960</v>
       </c>
       <c r="W37" t="str">
         <f t="shared" si="19"/>
@@ -5572,11 +5575,11 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>7281</v>
+        <v>3971</v>
       </c>
       <c r="D38">
         <f t="shared" si="20"/>
-        <v>7281</v>
+        <v>3971</v>
       </c>
       <c r="E38">
         <f t="shared" si="21"/>
@@ -5628,7 +5631,7 @@
       </c>
       <c r="T38" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="16"/>
@@ -5636,7 +5639,7 @@
       </c>
       <c r="V38" t="str">
         <f t="shared" si="18"/>
-        <v>"37":7281</v>
+        <v>"37":3971</v>
       </c>
       <c r="W38" t="str">
         <f t="shared" si="19"/>
@@ -5648,11 +5651,11 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>7292</v>
+        <v>3982</v>
       </c>
       <c r="D39">
         <f t="shared" si="20"/>
-        <v>7292</v>
+        <v>3982</v>
       </c>
       <c r="E39">
         <f t="shared" si="21"/>
@@ -5704,7 +5707,7 @@
       </c>
       <c r="T39" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" si="16"/>
@@ -5712,7 +5715,7 @@
       </c>
       <c r="V39" t="str">
         <f t="shared" si="18"/>
-        <v>"38":7292</v>
+        <v>"38":3982</v>
       </c>
       <c r="W39" t="str">
         <f t="shared" si="19"/>
@@ -5724,11 +5727,11 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>7303</v>
+        <v>3993</v>
       </c>
       <c r="D40">
         <f t="shared" si="20"/>
-        <v>7303</v>
+        <v>3993</v>
       </c>
       <c r="E40">
         <f t="shared" si="21"/>
@@ -5780,7 +5783,7 @@
       </c>
       <c r="T40" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" si="16"/>
@@ -5788,7 +5791,7 @@
       </c>
       <c r="V40" t="str">
         <f t="shared" si="18"/>
-        <v>"39":7303</v>
+        <v>"39":3993</v>
       </c>
       <c r="W40" t="str">
         <f t="shared" si="19"/>
@@ -5856,7 +5859,7 @@
       </c>
       <c r="T41" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="16"/>
@@ -5876,11 +5879,11 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>7853</v>
+        <v>5043</v>
       </c>
       <c r="D42">
         <f t="shared" si="20"/>
-        <v>7853</v>
+        <v>5043</v>
       </c>
       <c r="E42">
         <f t="shared" si="21"/>
@@ -5932,7 +5935,7 @@
       </c>
       <c r="T42" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" si="16"/>
@@ -5940,7 +5943,7 @@
       </c>
       <c r="V42" t="str">
         <f t="shared" si="18"/>
-        <v>"41":7853</v>
+        <v>"41":5043</v>
       </c>
       <c r="W42" t="str">
         <f t="shared" si="19"/>
@@ -5952,11 +5955,11 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>7864</v>
+        <v>5054</v>
       </c>
       <c r="D43">
         <f t="shared" si="20"/>
-        <v>7864</v>
+        <v>5054</v>
       </c>
       <c r="E43">
         <f t="shared" si="21"/>
@@ -6008,7 +6011,7 @@
       </c>
       <c r="T43" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="16"/>
@@ -6016,7 +6019,7 @@
       </c>
       <c r="V43" t="str">
         <f t="shared" si="18"/>
-        <v>"42":7864</v>
+        <v>"42":5054</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="19"/>
@@ -6028,11 +6031,11 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>7875</v>
+        <v>5065</v>
       </c>
       <c r="D44">
         <f t="shared" si="20"/>
-        <v>7875</v>
+        <v>5065</v>
       </c>
       <c r="E44">
         <f t="shared" si="21"/>
@@ -6084,7 +6087,7 @@
       </c>
       <c r="T44" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" si="16"/>
@@ -6092,7 +6095,7 @@
       </c>
       <c r="V44" t="str">
         <f t="shared" si="18"/>
-        <v>"43":7875</v>
+        <v>"43":5065</v>
       </c>
       <c r="W44" t="str">
         <f t="shared" si="19"/>
@@ -6104,11 +6107,11 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>7886</v>
+        <v>5076</v>
       </c>
       <c r="D45">
         <f t="shared" si="20"/>
-        <v>7886</v>
+        <v>5076</v>
       </c>
       <c r="E45">
         <f t="shared" si="21"/>
@@ -6160,7 +6163,7 @@
       </c>
       <c r="T45" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076</v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="16"/>
@@ -6168,7 +6171,7 @@
       </c>
       <c r="V45" t="str">
         <f t="shared" si="18"/>
-        <v>"44":7886</v>
+        <v>"44":5076</v>
       </c>
       <c r="W45" t="str">
         <f t="shared" si="19"/>
@@ -6236,7 +6239,7 @@
       </c>
       <c r="T46" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5</v>
       </c>
       <c r="U46" t="str">
         <f t="shared" si="16"/>
@@ -6256,11 +6259,11 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>7897</v>
+        <v>5087</v>
       </c>
       <c r="D47">
         <f t="shared" si="20"/>
-        <v>7897</v>
+        <v>5087</v>
       </c>
       <c r="E47">
         <f t="shared" si="21"/>
@@ -6312,7 +6315,7 @@
       </c>
       <c r="T47" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="16"/>
@@ -6320,7 +6323,7 @@
       </c>
       <c r="V47" t="str">
         <f t="shared" si="18"/>
-        <v>"46":7897</v>
+        <v>"46":5087</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" si="19"/>
@@ -6332,11 +6335,11 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>7908</v>
+        <v>5098</v>
       </c>
       <c r="D48">
         <f t="shared" si="20"/>
-        <v>7908</v>
+        <v>5098</v>
       </c>
       <c r="E48">
         <f t="shared" si="21"/>
@@ -6388,7 +6391,7 @@
       </c>
       <c r="T48" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098</v>
       </c>
       <c r="U48" t="str">
         <f t="shared" si="16"/>
@@ -6396,7 +6399,7 @@
       </c>
       <c r="V48" t="str">
         <f t="shared" si="18"/>
-        <v>"47":7908</v>
+        <v>"47":5098</v>
       </c>
       <c r="W48" t="str">
         <f t="shared" si="19"/>
@@ -6408,11 +6411,11 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>7919</v>
+        <v>5109</v>
       </c>
       <c r="D49">
         <f t="shared" si="20"/>
-        <v>7919</v>
+        <v>5109</v>
       </c>
       <c r="E49">
         <f t="shared" si="21"/>
@@ -6464,7 +6467,7 @@
       </c>
       <c r="T49" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109</v>
       </c>
       <c r="U49" t="str">
         <f t="shared" si="16"/>
@@ -6472,7 +6475,7 @@
       </c>
       <c r="V49" t="str">
         <f t="shared" si="18"/>
-        <v>"48":7919</v>
+        <v>"48":5109</v>
       </c>
       <c r="W49" t="str">
         <f t="shared" si="19"/>
@@ -6484,11 +6487,11 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>7930</v>
+        <v>5120</v>
       </c>
       <c r="D50">
         <f t="shared" si="20"/>
-        <v>7930</v>
+        <v>5120</v>
       </c>
       <c r="E50">
         <f t="shared" si="21"/>
@@ -6540,7 +6543,7 @@
       </c>
       <c r="T50" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120</v>
       </c>
       <c r="U50" t="str">
         <f t="shared" si="16"/>
@@ -6548,7 +6551,7 @@
       </c>
       <c r="V50" t="str">
         <f t="shared" si="18"/>
-        <v>"49":7930</v>
+        <v>"49":5120</v>
       </c>
       <c r="W50" t="str">
         <f t="shared" si="19"/>
@@ -6616,7 +6619,7 @@
       </c>
       <c r="T51" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15</v>
       </c>
       <c r="U51" t="str">
         <f t="shared" si="16"/>
@@ -6636,11 +6639,11 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>8480</v>
+        <v>6170</v>
       </c>
       <c r="D52">
         <f t="shared" si="20"/>
-        <v>8480</v>
+        <v>6170</v>
       </c>
       <c r="E52">
         <f t="shared" si="21"/>
@@ -6692,7 +6695,7 @@
       </c>
       <c r="T52" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170</v>
       </c>
       <c r="U52" t="str">
         <f t="shared" si="16"/>
@@ -6700,7 +6703,7 @@
       </c>
       <c r="V52" t="str">
         <f t="shared" si="18"/>
-        <v>"51":8480</v>
+        <v>"51":6170</v>
       </c>
       <c r="W52" t="str">
         <f t="shared" si="19"/>
@@ -6712,11 +6715,11 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>8491</v>
+        <v>6181</v>
       </c>
       <c r="D53">
         <f t="shared" si="20"/>
-        <v>8491</v>
+        <v>6181</v>
       </c>
       <c r="E53">
         <f t="shared" si="21"/>
@@ -6768,7 +6771,7 @@
       </c>
       <c r="T53" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181</v>
       </c>
       <c r="U53" t="str">
         <f t="shared" si="16"/>
@@ -6776,7 +6779,7 @@
       </c>
       <c r="V53" t="str">
         <f t="shared" si="18"/>
-        <v>"52":8491</v>
+        <v>"52":6181</v>
       </c>
       <c r="W53" t="str">
         <f t="shared" si="19"/>
@@ -6788,11 +6791,11 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>8502</v>
+        <v>6192</v>
       </c>
       <c r="D54">
         <f t="shared" si="20"/>
-        <v>8502</v>
+        <v>6192</v>
       </c>
       <c r="E54">
         <f t="shared" si="21"/>
@@ -6844,7 +6847,7 @@
       </c>
       <c r="T54" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192</v>
       </c>
       <c r="U54" t="str">
         <f t="shared" si="16"/>
@@ -6852,7 +6855,7 @@
       </c>
       <c r="V54" t="str">
         <f t="shared" si="18"/>
-        <v>"53":8502</v>
+        <v>"53":6192</v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="19"/>
@@ -6864,11 +6867,11 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>8513</v>
+        <v>6203</v>
       </c>
       <c r="D55">
         <f t="shared" si="20"/>
-        <v>8513</v>
+        <v>6203</v>
       </c>
       <c r="E55">
         <f t="shared" si="21"/>
@@ -6920,7 +6923,7 @@
       </c>
       <c r="T55" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203</v>
       </c>
       <c r="U55" t="str">
         <f t="shared" si="16"/>
@@ -6928,7 +6931,7 @@
       </c>
       <c r="V55" t="str">
         <f t="shared" si="18"/>
-        <v>"54":8513</v>
+        <v>"54":6203</v>
       </c>
       <c r="W55" t="str">
         <f t="shared" si="19"/>
@@ -6996,7 +6999,7 @@
       </c>
       <c r="T56" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7</v>
       </c>
       <c r="U56" t="str">
         <f t="shared" si="16"/>
@@ -7016,11 +7019,11 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>8524</v>
+        <v>6214</v>
       </c>
       <c r="D57">
         <f t="shared" si="20"/>
-        <v>8524</v>
+        <v>6214</v>
       </c>
       <c r="E57">
         <f t="shared" si="21"/>
@@ -7072,7 +7075,7 @@
       </c>
       <c r="T57" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214</v>
       </c>
       <c r="U57" t="str">
         <f t="shared" si="16"/>
@@ -7080,7 +7083,7 @@
       </c>
       <c r="V57" t="str">
         <f t="shared" si="18"/>
-        <v>"56":8524</v>
+        <v>"56":6214</v>
       </c>
       <c r="W57" t="str">
         <f t="shared" si="19"/>
@@ -7092,11 +7095,11 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>8535</v>
+        <v>6225</v>
       </c>
       <c r="D58">
         <f t="shared" si="20"/>
-        <v>8535</v>
+        <v>6225</v>
       </c>
       <c r="E58">
         <f t="shared" si="21"/>
@@ -7148,7 +7151,7 @@
       </c>
       <c r="T58" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225</v>
       </c>
       <c r="U58" t="str">
         <f t="shared" si="16"/>
@@ -7156,7 +7159,7 @@
       </c>
       <c r="V58" t="str">
         <f t="shared" si="18"/>
-        <v>"57":8535</v>
+        <v>"57":6225</v>
       </c>
       <c r="W58" t="str">
         <f t="shared" si="19"/>
@@ -7168,11 +7171,11 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>8546</v>
+        <v>6236</v>
       </c>
       <c r="D59">
         <f t="shared" si="20"/>
-        <v>8546</v>
+        <v>6236</v>
       </c>
       <c r="E59">
         <f t="shared" si="21"/>
@@ -7224,7 +7227,7 @@
       </c>
       <c r="T59" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236</v>
       </c>
       <c r="U59" t="str">
         <f t="shared" si="16"/>
@@ -7232,7 +7235,7 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="18"/>
-        <v>"58":8546</v>
+        <v>"58":6236</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="19"/>
@@ -7244,11 +7247,11 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>8557</v>
+        <v>6247</v>
       </c>
       <c r="D60">
         <f t="shared" si="20"/>
-        <v>8557</v>
+        <v>6247</v>
       </c>
       <c r="E60">
         <f t="shared" si="21"/>
@@ -7300,7 +7303,7 @@
       </c>
       <c r="T60" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247</v>
       </c>
       <c r="U60" t="str">
         <f t="shared" si="16"/>
@@ -7308,7 +7311,7 @@
       </c>
       <c r="V60" t="str">
         <f t="shared" si="18"/>
-        <v>"59":8557</v>
+        <v>"59":6247</v>
       </c>
       <c r="W60" t="str">
         <f t="shared" si="19"/>
@@ -7376,7 +7379,7 @@
       </c>
       <c r="T61" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15</v>
       </c>
       <c r="U61" t="str">
         <f t="shared" si="16"/>
@@ -7396,11 +7399,11 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>9107</v>
+        <v>7297</v>
       </c>
       <c r="D62">
         <f t="shared" si="20"/>
-        <v>9107</v>
+        <v>7297</v>
       </c>
       <c r="E62">
         <f t="shared" si="21"/>
@@ -7452,7 +7455,7 @@
       </c>
       <c r="T62" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297</v>
       </c>
       <c r="U62" t="str">
         <f t="shared" si="16"/>
@@ -7460,7 +7463,7 @@
       </c>
       <c r="V62" t="str">
         <f t="shared" si="18"/>
-        <v>"61":9107</v>
+        <v>"61":7297</v>
       </c>
       <c r="W62" t="str">
         <f t="shared" si="19"/>
@@ -7472,11 +7475,11 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>9118</v>
+        <v>7308</v>
       </c>
       <c r="D63">
         <f t="shared" si="20"/>
-        <v>9118</v>
+        <v>7308</v>
       </c>
       <c r="E63">
         <f t="shared" si="21"/>
@@ -7528,7 +7531,7 @@
       </c>
       <c r="T63" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308</v>
       </c>
       <c r="U63" t="str">
         <f t="shared" si="16"/>
@@ -7536,7 +7539,7 @@
       </c>
       <c r="V63" t="str">
         <f t="shared" si="18"/>
-        <v>"62":9118</v>
+        <v>"62":7308</v>
       </c>
       <c r="W63" t="str">
         <f t="shared" si="19"/>
@@ -7548,11 +7551,11 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>9129</v>
+        <v>7319</v>
       </c>
       <c r="D64">
         <f t="shared" si="20"/>
-        <v>9129</v>
+        <v>7319</v>
       </c>
       <c r="E64">
         <f t="shared" si="21"/>
@@ -7604,7 +7607,7 @@
       </c>
       <c r="T64" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319</v>
       </c>
       <c r="U64" t="str">
         <f t="shared" si="16"/>
@@ -7612,7 +7615,7 @@
       </c>
       <c r="V64" t="str">
         <f t="shared" si="18"/>
-        <v>"63":9129</v>
+        <v>"63":7319</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="19"/>
@@ -7624,11 +7627,11 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>9140</v>
+        <v>7330</v>
       </c>
       <c r="D65">
         <f t="shared" si="20"/>
-        <v>9140</v>
+        <v>7330</v>
       </c>
       <c r="E65">
         <f t="shared" si="21"/>
@@ -7680,7 +7683,7 @@
       </c>
       <c r="T65" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330</v>
       </c>
       <c r="U65" t="str">
         <f t="shared" si="16"/>
@@ -7688,7 +7691,7 @@
       </c>
       <c r="V65" t="str">
         <f t="shared" si="18"/>
-        <v>"64":9140</v>
+        <v>"64":7330</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" si="19"/>
@@ -7766,7 +7769,7 @@
       </c>
       <c r="T66" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7</v>
       </c>
       <c r="U66" t="str">
         <f t="shared" si="16"/>
@@ -7786,14 +7789,14 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>9151</v>
+        <v>7341</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D98" si="25">IF(NOT(ISBLANK(B67)),"삭",
-IF(MOD(A66,10)=0,D65+550,
+IF(MOD(A66,10)=0,D65+1050,
 IF(MOD(A66,10)=5,D65+11,
 D66+11)))</f>
-        <v>9151</v>
+        <v>7341</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E98" si="26">E66+3</f>
@@ -7845,7 +7848,7 @@
       </c>
       <c r="T67" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341</v>
       </c>
       <c r="U67" t="str">
         <f t="shared" si="16"/>
@@ -7853,7 +7856,7 @@
       </c>
       <c r="V67" t="str">
         <f t="shared" si="23"/>
-        <v>"66":9151</v>
+        <v>"66":7341</v>
       </c>
       <c r="W67" t="str">
         <f t="shared" si="24"/>
@@ -7865,11 +7868,11 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>9162</v>
+        <v>7352</v>
       </c>
       <c r="D68">
         <f t="shared" si="25"/>
-        <v>9162</v>
+        <v>7352</v>
       </c>
       <c r="E68">
         <f t="shared" si="26"/>
@@ -7921,7 +7924,7 @@
       </c>
       <c r="T68" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352</v>
       </c>
       <c r="U68" t="str">
         <f t="shared" si="16"/>
@@ -7929,7 +7932,7 @@
       </c>
       <c r="V68" t="str">
         <f t="shared" si="23"/>
-        <v>"67":9162</v>
+        <v>"67":7352</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" si="24"/>
@@ -7941,11 +7944,11 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>9173</v>
+        <v>7363</v>
       </c>
       <c r="D69">
         <f t="shared" si="25"/>
-        <v>9173</v>
+        <v>7363</v>
       </c>
       <c r="E69">
         <f t="shared" si="26"/>
@@ -7997,7 +8000,7 @@
       </c>
       <c r="T69" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363</v>
       </c>
       <c r="U69" t="str">
         <f t="shared" si="16"/>
@@ -8005,7 +8008,7 @@
       </c>
       <c r="V69" t="str">
         <f t="shared" si="23"/>
-        <v>"68":9173</v>
+        <v>"68":7363</v>
       </c>
       <c r="W69" t="str">
         <f t="shared" si="24"/>
@@ -8017,11 +8020,11 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>9184</v>
+        <v>7374</v>
       </c>
       <c r="D70">
         <f t="shared" si="25"/>
-        <v>9184</v>
+        <v>7374</v>
       </c>
       <c r="E70">
         <f t="shared" si="26"/>
@@ -8073,7 +8076,7 @@
       </c>
       <c r="T70" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="16"/>
@@ -8081,7 +8084,7 @@
       </c>
       <c r="V70" t="str">
         <f t="shared" si="23"/>
-        <v>"69":9184</v>
+        <v>"69":7374</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="24"/>
@@ -8149,7 +8152,7 @@
       </c>
       <c r="T71" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15</v>
       </c>
       <c r="U71" t="str">
         <f t="shared" si="16"/>
@@ -8169,11 +8172,11 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>9734</v>
+        <v>8424</v>
       </c>
       <c r="D72">
         <f t="shared" si="25"/>
-        <v>9734</v>
+        <v>8424</v>
       </c>
       <c r="E72">
         <f t="shared" si="26"/>
@@ -8225,7 +8228,7 @@
       </c>
       <c r="T72" t="str">
         <f t="shared" si="15"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="16"/>
@@ -8233,7 +8236,7 @@
       </c>
       <c r="V72" t="str">
         <f t="shared" si="23"/>
-        <v>"71":9734</v>
+        <v>"71":8424</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="24"/>
@@ -8245,11 +8248,11 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>9745</v>
+        <v>8435</v>
       </c>
       <c r="D73">
         <f t="shared" si="25"/>
-        <v>9745</v>
+        <v>8435</v>
       </c>
       <c r="E73">
         <f t="shared" si="26"/>
@@ -8301,7 +8304,7 @@
       </c>
       <c r="T73" t="str">
         <f t="shared" ref="T73:T136" si="34">T72&amp;","&amp;V73</f>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435</v>
       </c>
       <c r="U73" t="str">
         <f t="shared" ref="U73:U136" si="35">U72&amp;","&amp;W73</f>
@@ -8309,7 +8312,7 @@
       </c>
       <c r="V73" t="str">
         <f t="shared" si="23"/>
-        <v>"72":9745</v>
+        <v>"72":8435</v>
       </c>
       <c r="W73" t="str">
         <f t="shared" si="24"/>
@@ -8321,11 +8324,11 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>9756</v>
+        <v>8446</v>
       </c>
       <c r="D74">
         <f t="shared" si="25"/>
-        <v>9756</v>
+        <v>8446</v>
       </c>
       <c r="E74">
         <f t="shared" si="26"/>
@@ -8377,7 +8380,7 @@
       </c>
       <c r="T74" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446</v>
       </c>
       <c r="U74" t="str">
         <f t="shared" si="35"/>
@@ -8385,7 +8388,7 @@
       </c>
       <c r="V74" t="str">
         <f t="shared" si="23"/>
-        <v>"73":9756</v>
+        <v>"73":8446</v>
       </c>
       <c r="W74" t="str">
         <f t="shared" si="24"/>
@@ -8397,11 +8400,11 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>9767</v>
+        <v>8457</v>
       </c>
       <c r="D75">
         <f t="shared" si="25"/>
-        <v>9767</v>
+        <v>8457</v>
       </c>
       <c r="E75">
         <f t="shared" si="26"/>
@@ -8453,7 +8456,7 @@
       </c>
       <c r="T75" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457</v>
       </c>
       <c r="U75" t="str">
         <f t="shared" si="35"/>
@@ -8461,7 +8464,7 @@
       </c>
       <c r="V75" t="str">
         <f t="shared" si="23"/>
-        <v>"74":9767</v>
+        <v>"74":8457</v>
       </c>
       <c r="W75" t="str">
         <f t="shared" si="24"/>
@@ -8529,7 +8532,7 @@
       </c>
       <c r="T76" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7</v>
       </c>
       <c r="U76" t="str">
         <f t="shared" si="35"/>
@@ -8549,11 +8552,11 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>9778</v>
+        <v>8468</v>
       </c>
       <c r="D77">
         <f t="shared" si="25"/>
-        <v>9778</v>
+        <v>8468</v>
       </c>
       <c r="E77">
         <f t="shared" si="26"/>
@@ -8605,7 +8608,7 @@
       </c>
       <c r="T77" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468</v>
       </c>
       <c r="U77" t="str">
         <f t="shared" si="35"/>
@@ -8613,7 +8616,7 @@
       </c>
       <c r="V77" t="str">
         <f t="shared" si="23"/>
-        <v>"76":9778</v>
+        <v>"76":8468</v>
       </c>
       <c r="W77" t="str">
         <f t="shared" si="24"/>
@@ -8625,11 +8628,11 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>9789</v>
+        <v>8479</v>
       </c>
       <c r="D78">
         <f t="shared" si="25"/>
-        <v>9789</v>
+        <v>8479</v>
       </c>
       <c r="E78">
         <f t="shared" si="26"/>
@@ -8681,7 +8684,7 @@
       </c>
       <c r="T78" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479</v>
       </c>
       <c r="U78" t="str">
         <f t="shared" si="35"/>
@@ -8689,7 +8692,7 @@
       </c>
       <c r="V78" t="str">
         <f t="shared" si="23"/>
-        <v>"77":9789</v>
+        <v>"77":8479</v>
       </c>
       <c r="W78" t="str">
         <f t="shared" si="24"/>
@@ -8701,11 +8704,11 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>9800</v>
+        <v>8490</v>
       </c>
       <c r="D79">
         <f t="shared" si="25"/>
-        <v>9800</v>
+        <v>8490</v>
       </c>
       <c r="E79">
         <f t="shared" si="26"/>
@@ -8757,7 +8760,7 @@
       </c>
       <c r="T79" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490</v>
       </c>
       <c r="U79" t="str">
         <f t="shared" si="35"/>
@@ -8765,7 +8768,7 @@
       </c>
       <c r="V79" t="str">
         <f t="shared" si="23"/>
-        <v>"78":9800</v>
+        <v>"78":8490</v>
       </c>
       <c r="W79" t="str">
         <f t="shared" si="24"/>
@@ -8777,11 +8780,11 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>9811</v>
+        <v>8501</v>
       </c>
       <c r="D80">
         <f t="shared" si="25"/>
-        <v>9811</v>
+        <v>8501</v>
       </c>
       <c r="E80">
         <f t="shared" si="26"/>
@@ -8833,7 +8836,7 @@
       </c>
       <c r="T80" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501</v>
       </c>
       <c r="U80" t="str">
         <f t="shared" si="35"/>
@@ -8841,7 +8844,7 @@
       </c>
       <c r="V80" t="str">
         <f t="shared" si="23"/>
-        <v>"79":9811</v>
+        <v>"79":8501</v>
       </c>
       <c r="W80" t="str">
         <f t="shared" si="24"/>
@@ -8909,7 +8912,7 @@
       </c>
       <c r="T81" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15</v>
       </c>
       <c r="U81" t="str">
         <f t="shared" si="35"/>
@@ -8929,11 +8932,11 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>10361</v>
+        <v>9551</v>
       </c>
       <c r="D82">
         <f t="shared" si="25"/>
-        <v>10361</v>
+        <v>9551</v>
       </c>
       <c r="E82">
         <f t="shared" si="26"/>
@@ -8986,7 +8989,7 @@
       </c>
       <c r="T82" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551</v>
       </c>
       <c r="U82" t="str">
         <f t="shared" si="35"/>
@@ -8994,7 +8997,7 @@
       </c>
       <c r="V82" t="str">
         <f t="shared" si="23"/>
-        <v>"81":10361</v>
+        <v>"81":9551</v>
       </c>
       <c r="W82" t="str">
         <f t="shared" si="24"/>
@@ -9006,11 +9009,11 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>10372</v>
+        <v>9562</v>
       </c>
       <c r="D83">
         <f t="shared" si="25"/>
-        <v>10372</v>
+        <v>9562</v>
       </c>
       <c r="E83">
         <f t="shared" si="26"/>
@@ -9063,7 +9066,7 @@
       </c>
       <c r="T83" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562</v>
       </c>
       <c r="U83" t="str">
         <f t="shared" si="35"/>
@@ -9071,7 +9074,7 @@
       </c>
       <c r="V83" t="str">
         <f t="shared" si="23"/>
-        <v>"82":10372</v>
+        <v>"82":9562</v>
       </c>
       <c r="W83" t="str">
         <f t="shared" si="24"/>
@@ -9083,11 +9086,11 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>10383</v>
+        <v>9573</v>
       </c>
       <c r="D84">
         <f t="shared" si="25"/>
-        <v>10383</v>
+        <v>9573</v>
       </c>
       <c r="E84">
         <f t="shared" si="26"/>
@@ -9140,7 +9143,7 @@
       </c>
       <c r="T84" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573</v>
       </c>
       <c r="U84" t="str">
         <f t="shared" si="35"/>
@@ -9148,7 +9151,7 @@
       </c>
       <c r="V84" t="str">
         <f t="shared" si="23"/>
-        <v>"83":10383</v>
+        <v>"83":9573</v>
       </c>
       <c r="W84" t="str">
         <f t="shared" si="24"/>
@@ -9160,11 +9163,11 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>10394</v>
+        <v>9584</v>
       </c>
       <c r="D85">
         <f t="shared" si="25"/>
-        <v>10394</v>
+        <v>9584</v>
       </c>
       <c r="E85">
         <f t="shared" si="26"/>
@@ -9217,7 +9220,7 @@
       </c>
       <c r="T85" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584</v>
       </c>
       <c r="U85" t="str">
         <f t="shared" si="35"/>
@@ -9225,7 +9228,7 @@
       </c>
       <c r="V85" t="str">
         <f t="shared" si="23"/>
-        <v>"84":10394</v>
+        <v>"84":9584</v>
       </c>
       <c r="W85" t="str">
         <f t="shared" si="24"/>
@@ -9294,7 +9297,7 @@
       </c>
       <c r="T86" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7</v>
       </c>
       <c r="U86" t="str">
         <f t="shared" si="35"/>
@@ -9314,11 +9317,11 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>10405</v>
+        <v>9595</v>
       </c>
       <c r="D87">
         <f t="shared" si="25"/>
-        <v>10405</v>
+        <v>9595</v>
       </c>
       <c r="E87">
         <f t="shared" si="26"/>
@@ -9371,7 +9374,7 @@
       </c>
       <c r="T87" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595</v>
       </c>
       <c r="U87" t="str">
         <f t="shared" si="35"/>
@@ -9379,7 +9382,7 @@
       </c>
       <c r="V87" t="str">
         <f t="shared" si="23"/>
-        <v>"86":10405</v>
+        <v>"86":9595</v>
       </c>
       <c r="W87" t="str">
         <f t="shared" si="24"/>
@@ -9391,11 +9394,11 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>10416</v>
+        <v>9606</v>
       </c>
       <c r="D88">
         <f t="shared" si="25"/>
-        <v>10416</v>
+        <v>9606</v>
       </c>
       <c r="E88">
         <f t="shared" si="26"/>
@@ -9448,7 +9451,7 @@
       </c>
       <c r="T88" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606</v>
       </c>
       <c r="U88" t="str">
         <f t="shared" si="35"/>
@@ -9456,7 +9459,7 @@
       </c>
       <c r="V88" t="str">
         <f t="shared" si="23"/>
-        <v>"87":10416</v>
+        <v>"87":9606</v>
       </c>
       <c r="W88" t="str">
         <f t="shared" si="24"/>
@@ -9468,11 +9471,11 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>10427</v>
+        <v>9617</v>
       </c>
       <c r="D89">
         <f t="shared" si="25"/>
-        <v>10427</v>
+        <v>9617</v>
       </c>
       <c r="E89">
         <f t="shared" si="26"/>
@@ -9525,7 +9528,7 @@
       </c>
       <c r="T89" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617</v>
       </c>
       <c r="U89" t="str">
         <f t="shared" si="35"/>
@@ -9533,7 +9536,7 @@
       </c>
       <c r="V89" t="str">
         <f t="shared" si="23"/>
-        <v>"88":10427</v>
+        <v>"88":9617</v>
       </c>
       <c r="W89" t="str">
         <f t="shared" si="24"/>
@@ -9545,11 +9548,11 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>10438</v>
+        <v>9628</v>
       </c>
       <c r="D90">
         <f t="shared" si="25"/>
-        <v>10438</v>
+        <v>9628</v>
       </c>
       <c r="E90">
         <f t="shared" si="26"/>
@@ -9602,7 +9605,7 @@
       </c>
       <c r="T90" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628</v>
       </c>
       <c r="U90" t="str">
         <f t="shared" si="35"/>
@@ -9610,7 +9613,7 @@
       </c>
       <c r="V90" t="str">
         <f t="shared" si="23"/>
-        <v>"89":10438</v>
+        <v>"89":9628</v>
       </c>
       <c r="W90" t="str">
         <f t="shared" si="24"/>
@@ -9679,7 +9682,7 @@
       </c>
       <c r="T91" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15</v>
       </c>
       <c r="U91" t="str">
         <f t="shared" si="35"/>
@@ -9699,11 +9702,11 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>10988</v>
+        <v>10678</v>
       </c>
       <c r="D92">
         <f t="shared" si="25"/>
-        <v>10988</v>
+        <v>10678</v>
       </c>
       <c r="E92">
         <f t="shared" si="26"/>
@@ -9756,7 +9759,7 @@
       </c>
       <c r="T92" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678</v>
       </c>
       <c r="U92" t="str">
         <f t="shared" si="35"/>
@@ -9764,7 +9767,7 @@
       </c>
       <c r="V92" t="str">
         <f t="shared" si="23"/>
-        <v>"91":10988</v>
+        <v>"91":10678</v>
       </c>
       <c r="W92" t="str">
         <f t="shared" si="24"/>
@@ -9776,11 +9779,11 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>10999</v>
+        <v>10689</v>
       </c>
       <c r="D93">
         <f t="shared" si="25"/>
-        <v>10999</v>
+        <v>10689</v>
       </c>
       <c r="E93">
         <f t="shared" si="26"/>
@@ -9833,7 +9836,7 @@
       </c>
       <c r="T93" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689</v>
       </c>
       <c r="U93" t="str">
         <f t="shared" si="35"/>
@@ -9841,7 +9844,7 @@
       </c>
       <c r="V93" t="str">
         <f t="shared" si="23"/>
-        <v>"92":10999</v>
+        <v>"92":10689</v>
       </c>
       <c r="W93" t="str">
         <f t="shared" si="24"/>
@@ -9853,11 +9856,11 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>11010</v>
+        <v>10700</v>
       </c>
       <c r="D94">
         <f t="shared" si="25"/>
-        <v>11010</v>
+        <v>10700</v>
       </c>
       <c r="E94">
         <f t="shared" si="26"/>
@@ -9910,7 +9913,7 @@
       </c>
       <c r="T94" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700</v>
       </c>
       <c r="U94" t="str">
         <f t="shared" si="35"/>
@@ -9918,7 +9921,7 @@
       </c>
       <c r="V94" t="str">
         <f t="shared" si="23"/>
-        <v>"93":11010</v>
+        <v>"93":10700</v>
       </c>
       <c r="W94" t="str">
         <f t="shared" si="24"/>
@@ -9930,11 +9933,11 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>11021</v>
+        <v>10711</v>
       </c>
       <c r="D95">
         <f t="shared" si="25"/>
-        <v>11021</v>
+        <v>10711</v>
       </c>
       <c r="E95">
         <f t="shared" si="26"/>
@@ -9987,7 +9990,7 @@
       </c>
       <c r="T95" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711</v>
       </c>
       <c r="U95" t="str">
         <f t="shared" si="35"/>
@@ -9995,7 +9998,7 @@
       </c>
       <c r="V95" t="str">
         <f t="shared" si="23"/>
-        <v>"94":11021</v>
+        <v>"94":10711</v>
       </c>
       <c r="W95" t="str">
         <f t="shared" si="24"/>
@@ -10064,7 +10067,7 @@
       </c>
       <c r="T96" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7</v>
       </c>
       <c r="U96" t="str">
         <f t="shared" si="35"/>
@@ -10084,11 +10087,11 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>11032</v>
+        <v>10722</v>
       </c>
       <c r="D97">
         <f t="shared" si="25"/>
-        <v>11032</v>
+        <v>10722</v>
       </c>
       <c r="E97">
         <f t="shared" si="26"/>
@@ -10141,7 +10144,7 @@
       </c>
       <c r="T97" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722</v>
       </c>
       <c r="U97" t="str">
         <f t="shared" si="35"/>
@@ -10149,7 +10152,7 @@
       </c>
       <c r="V97" t="str">
         <f t="shared" si="23"/>
-        <v>"96":11032</v>
+        <v>"96":10722</v>
       </c>
       <c r="W97" t="str">
         <f t="shared" si="24"/>
@@ -10161,11 +10164,11 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>11043</v>
+        <v>10733</v>
       </c>
       <c r="D98">
         <f t="shared" si="25"/>
-        <v>11043</v>
+        <v>10733</v>
       </c>
       <c r="E98">
         <f t="shared" si="26"/>
@@ -10228,7 +10231,7 @@
       </c>
       <c r="T98" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733</v>
       </c>
       <c r="U98" t="str">
         <f t="shared" si="35"/>
@@ -10236,7 +10239,7 @@
       </c>
       <c r="V98" t="str">
         <f t="shared" ref="V98:V129" si="38">""""&amp;$A98&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B98),C98,B98)</f>
-        <v>"97":11043</v>
+        <v>"97":10733</v>
       </c>
       <c r="W98" t="str">
         <f t="shared" ref="W98:W129" si="39">""""&amp;$A98&amp;""""&amp;""&amp;":"&amp;E98</f>
@@ -10248,14 +10251,14 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>11054</v>
+        <v>10744</v>
       </c>
       <c r="D99">
         <f t="shared" ref="D99:D130" si="40">IF(NOT(ISBLANK(B99)),"삭",
-IF(MOD(A98,10)=0,D97+550,
+IF(MOD(A98,10)=0,D97+1050,
 IF(MOD(A98,10)=5,D97+11,
 D98+11)))</f>
-        <v>11054</v>
+        <v>10744</v>
       </c>
       <c r="E99">
         <f t="shared" ref="E99:E130" si="41">E98+3</f>
@@ -10308,7 +10311,7 @@
       </c>
       <c r="T99" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744</v>
       </c>
       <c r="U99" t="str">
         <f t="shared" si="35"/>
@@ -10316,7 +10319,7 @@
       </c>
       <c r="V99" t="str">
         <f t="shared" si="38"/>
-        <v>"98":11054</v>
+        <v>"98":10744</v>
       </c>
       <c r="W99" t="str">
         <f t="shared" si="39"/>
@@ -10328,11 +10331,11 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>11065</v>
+        <v>10755</v>
       </c>
       <c r="D100">
         <f t="shared" si="40"/>
-        <v>11065</v>
+        <v>10755</v>
       </c>
       <c r="E100">
         <f t="shared" si="41"/>
@@ -10385,7 +10388,7 @@
       </c>
       <c r="T100" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755</v>
       </c>
       <c r="U100" t="str">
         <f t="shared" si="35"/>
@@ -10393,7 +10396,7 @@
       </c>
       <c r="V100" t="str">
         <f t="shared" si="38"/>
-        <v>"99":11065</v>
+        <v>"99":10755</v>
       </c>
       <c r="W100" t="str">
         <f t="shared" si="39"/>
@@ -10462,7 +10465,7 @@
       </c>
       <c r="T101" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20</v>
       </c>
       <c r="U101" t="str">
         <f t="shared" si="35"/>
@@ -10482,11 +10485,11 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>11615</v>
+        <v>11805</v>
       </c>
       <c r="D102">
         <f t="shared" si="40"/>
-        <v>11615</v>
+        <v>11805</v>
       </c>
       <c r="E102">
         <f t="shared" si="41"/>
@@ -10539,7 +10542,7 @@
       </c>
       <c r="T102" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805</v>
       </c>
       <c r="U102" t="str">
         <f t="shared" si="35"/>
@@ -10547,7 +10550,7 @@
       </c>
       <c r="V102" t="str">
         <f t="shared" si="38"/>
-        <v>"101":11615</v>
+        <v>"101":11805</v>
       </c>
       <c r="W102" t="str">
         <f t="shared" si="39"/>
@@ -10559,11 +10562,11 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>11626</v>
+        <v>11816</v>
       </c>
       <c r="D103">
         <f t="shared" si="40"/>
-        <v>11626</v>
+        <v>11816</v>
       </c>
       <c r="E103">
         <f t="shared" si="41"/>
@@ -10616,7 +10619,7 @@
       </c>
       <c r="T103" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816</v>
       </c>
       <c r="U103" t="str">
         <f t="shared" si="35"/>
@@ -10624,7 +10627,7 @@
       </c>
       <c r="V103" t="str">
         <f t="shared" si="38"/>
-        <v>"102":11626</v>
+        <v>"102":11816</v>
       </c>
       <c r="W103" t="str">
         <f t="shared" si="39"/>
@@ -10636,11 +10639,11 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>11637</v>
+        <v>11827</v>
       </c>
       <c r="D104">
         <f t="shared" si="40"/>
-        <v>11637</v>
+        <v>11827</v>
       </c>
       <c r="E104">
         <f t="shared" si="41"/>
@@ -10693,7 +10696,7 @@
       </c>
       <c r="T104" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827</v>
       </c>
       <c r="U104" t="str">
         <f t="shared" si="35"/>
@@ -10701,7 +10704,7 @@
       </c>
       <c r="V104" t="str">
         <f t="shared" si="38"/>
-        <v>"103":11637</v>
+        <v>"103":11827</v>
       </c>
       <c r="W104" t="str">
         <f t="shared" si="39"/>
@@ -10713,11 +10716,11 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>11648</v>
+        <v>11838</v>
       </c>
       <c r="D105">
         <f t="shared" si="40"/>
-        <v>11648</v>
+        <v>11838</v>
       </c>
       <c r="E105">
         <f t="shared" si="41"/>
@@ -10770,7 +10773,7 @@
       </c>
       <c r="T105" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838</v>
       </c>
       <c r="U105" t="str">
         <f t="shared" si="35"/>
@@ -10778,7 +10781,7 @@
       </c>
       <c r="V105" t="str">
         <f t="shared" si="38"/>
-        <v>"104":11648</v>
+        <v>"104":11838</v>
       </c>
       <c r="W105" t="str">
         <f t="shared" si="39"/>
@@ -10847,7 +10850,7 @@
       </c>
       <c r="T106" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10</v>
       </c>
       <c r="U106" t="str">
         <f t="shared" si="35"/>
@@ -10867,11 +10870,11 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <v>11659</v>
+        <v>11849</v>
       </c>
       <c r="D107">
         <f t="shared" si="40"/>
-        <v>11659</v>
+        <v>11849</v>
       </c>
       <c r="E107">
         <f t="shared" si="41"/>
@@ -10924,7 +10927,7 @@
       </c>
       <c r="T107" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849</v>
       </c>
       <c r="U107" t="str">
         <f t="shared" si="35"/>
@@ -10932,7 +10935,7 @@
       </c>
       <c r="V107" t="str">
         <f t="shared" si="38"/>
-        <v>"106":11659</v>
+        <v>"106":11849</v>
       </c>
       <c r="W107" t="str">
         <f t="shared" si="39"/>
@@ -10944,11 +10947,11 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <v>11670</v>
+        <v>11860</v>
       </c>
       <c r="D108">
         <f t="shared" si="40"/>
-        <v>11670</v>
+        <v>11860</v>
       </c>
       <c r="E108">
         <f t="shared" si="41"/>
@@ -11001,7 +11004,7 @@
       </c>
       <c r="T108" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860</v>
       </c>
       <c r="U108" t="str">
         <f t="shared" si="35"/>
@@ -11009,7 +11012,7 @@
       </c>
       <c r="V108" t="str">
         <f t="shared" si="38"/>
-        <v>"107":11670</v>
+        <v>"107":11860</v>
       </c>
       <c r="W108" t="str">
         <f t="shared" si="39"/>
@@ -11021,11 +11024,11 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>11681</v>
+        <v>11871</v>
       </c>
       <c r="D109">
         <f t="shared" si="40"/>
-        <v>11681</v>
+        <v>11871</v>
       </c>
       <c r="E109">
         <f t="shared" si="41"/>
@@ -11078,7 +11081,7 @@
       </c>
       <c r="T109" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871</v>
       </c>
       <c r="U109" t="str">
         <f t="shared" si="35"/>
@@ -11086,7 +11089,7 @@
       </c>
       <c r="V109" t="str">
         <f t="shared" si="38"/>
-        <v>"108":11681</v>
+        <v>"108":11871</v>
       </c>
       <c r="W109" t="str">
         <f t="shared" si="39"/>
@@ -11098,11 +11101,11 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>11692</v>
+        <v>11882</v>
       </c>
       <c r="D110">
         <f t="shared" si="40"/>
-        <v>11692</v>
+        <v>11882</v>
       </c>
       <c r="E110">
         <f t="shared" si="41"/>
@@ -11155,7 +11158,7 @@
       </c>
       <c r="T110" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882</v>
       </c>
       <c r="U110" t="str">
         <f t="shared" si="35"/>
@@ -11163,7 +11166,7 @@
       </c>
       <c r="V110" t="str">
         <f t="shared" si="38"/>
-        <v>"109":11692</v>
+        <v>"109":11882</v>
       </c>
       <c r="W110" t="str">
         <f t="shared" si="39"/>
@@ -11232,7 +11235,7 @@
       </c>
       <c r="T111" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20</v>
       </c>
       <c r="U111" t="str">
         <f t="shared" si="35"/>
@@ -11252,11 +11255,11 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>12242</v>
+        <v>12932</v>
       </c>
       <c r="D112">
         <f t="shared" si="40"/>
-        <v>12242</v>
+        <v>12932</v>
       </c>
       <c r="E112">
         <f t="shared" si="41"/>
@@ -11309,7 +11312,7 @@
       </c>
       <c r="T112" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932</v>
       </c>
       <c r="U112" t="str">
         <f t="shared" si="35"/>
@@ -11317,7 +11320,7 @@
       </c>
       <c r="V112" t="str">
         <f t="shared" si="38"/>
-        <v>"111":12242</v>
+        <v>"111":12932</v>
       </c>
       <c r="W112" t="str">
         <f t="shared" si="39"/>
@@ -11329,11 +11332,11 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>12253</v>
+        <v>12943</v>
       </c>
       <c r="D113">
         <f t="shared" si="40"/>
-        <v>12253</v>
+        <v>12943</v>
       </c>
       <c r="E113">
         <f t="shared" si="41"/>
@@ -11386,7 +11389,7 @@
       </c>
       <c r="T113" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943</v>
       </c>
       <c r="U113" t="str">
         <f t="shared" si="35"/>
@@ -11394,7 +11397,7 @@
       </c>
       <c r="V113" t="str">
         <f t="shared" si="38"/>
-        <v>"112":12253</v>
+        <v>"112":12943</v>
       </c>
       <c r="W113" t="str">
         <f t="shared" si="39"/>
@@ -11406,11 +11409,11 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <v>12264</v>
+        <v>12954</v>
       </c>
       <c r="D114">
         <f t="shared" si="40"/>
-        <v>12264</v>
+        <v>12954</v>
       </c>
       <c r="E114">
         <f t="shared" si="41"/>
@@ -11463,7 +11466,7 @@
       </c>
       <c r="T114" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954</v>
       </c>
       <c r="U114" t="str">
         <f t="shared" si="35"/>
@@ -11471,7 +11474,7 @@
       </c>
       <c r="V114" t="str">
         <f t="shared" si="38"/>
-        <v>"113":12264</v>
+        <v>"113":12954</v>
       </c>
       <c r="W114" t="str">
         <f t="shared" si="39"/>
@@ -11483,11 +11486,11 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>12275</v>
+        <v>12965</v>
       </c>
       <c r="D115">
         <f t="shared" si="40"/>
-        <v>12275</v>
+        <v>12965</v>
       </c>
       <c r="E115">
         <f t="shared" si="41"/>
@@ -11540,7 +11543,7 @@
       </c>
       <c r="T115" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965</v>
       </c>
       <c r="U115" t="str">
         <f t="shared" si="35"/>
@@ -11548,7 +11551,7 @@
       </c>
       <c r="V115" t="str">
         <f t="shared" si="38"/>
-        <v>"114":12275</v>
+        <v>"114":12965</v>
       </c>
       <c r="W115" t="str">
         <f t="shared" si="39"/>
@@ -11617,7 +11620,7 @@
       </c>
       <c r="T116" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10</v>
       </c>
       <c r="U116" t="str">
         <f t="shared" si="35"/>
@@ -11637,11 +11640,11 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>12286</v>
+        <v>12976</v>
       </c>
       <c r="D117">
         <f t="shared" si="40"/>
-        <v>12286</v>
+        <v>12976</v>
       </c>
       <c r="E117">
         <f t="shared" si="41"/>
@@ -11694,7 +11697,7 @@
       </c>
       <c r="T117" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976</v>
       </c>
       <c r="U117" t="str">
         <f t="shared" si="35"/>
@@ -11702,7 +11705,7 @@
       </c>
       <c r="V117" t="str">
         <f t="shared" si="38"/>
-        <v>"116":12286</v>
+        <v>"116":12976</v>
       </c>
       <c r="W117" t="str">
         <f t="shared" si="39"/>
@@ -11714,11 +11717,11 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>12297</v>
+        <v>12987</v>
       </c>
       <c r="D118">
         <f t="shared" si="40"/>
-        <v>12297</v>
+        <v>12987</v>
       </c>
       <c r="E118">
         <f t="shared" si="41"/>
@@ -11771,7 +11774,7 @@
       </c>
       <c r="T118" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987</v>
       </c>
       <c r="U118" t="str">
         <f t="shared" si="35"/>
@@ -11779,7 +11782,7 @@
       </c>
       <c r="V118" t="str">
         <f t="shared" si="38"/>
-        <v>"117":12297</v>
+        <v>"117":12987</v>
       </c>
       <c r="W118" t="str">
         <f t="shared" si="39"/>
@@ -11791,11 +11794,11 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>12308</v>
+        <v>12998</v>
       </c>
       <c r="D119">
         <f t="shared" si="40"/>
-        <v>12308</v>
+        <v>12998</v>
       </c>
       <c r="E119">
         <f t="shared" si="41"/>
@@ -11848,7 +11851,7 @@
       </c>
       <c r="T119" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998</v>
       </c>
       <c r="U119" t="str">
         <f t="shared" si="35"/>
@@ -11856,7 +11859,7 @@
       </c>
       <c r="V119" t="str">
         <f t="shared" si="38"/>
-        <v>"118":12308</v>
+        <v>"118":12998</v>
       </c>
       <c r="W119" t="str">
         <f t="shared" si="39"/>
@@ -11868,11 +11871,11 @@
         <v>119</v>
       </c>
       <c r="C120">
-        <v>12319</v>
+        <v>13009</v>
       </c>
       <c r="D120">
         <f t="shared" si="40"/>
-        <v>12319</v>
+        <v>13009</v>
       </c>
       <c r="E120">
         <f t="shared" si="41"/>
@@ -11925,7 +11928,7 @@
       </c>
       <c r="T120" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009</v>
       </c>
       <c r="U120" t="str">
         <f t="shared" si="35"/>
@@ -11933,7 +11936,7 @@
       </c>
       <c r="V120" t="str">
         <f t="shared" si="38"/>
-        <v>"119":12319</v>
+        <v>"119":13009</v>
       </c>
       <c r="W120" t="str">
         <f t="shared" si="39"/>
@@ -12002,7 +12005,7 @@
       </c>
       <c r="T121" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20</v>
       </c>
       <c r="U121" t="str">
         <f t="shared" si="35"/>
@@ -12022,11 +12025,11 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <v>12869</v>
+        <v>14059</v>
       </c>
       <c r="D122">
         <f t="shared" si="40"/>
-        <v>12869</v>
+        <v>14059</v>
       </c>
       <c r="E122">
         <f t="shared" si="41"/>
@@ -12079,7 +12082,7 @@
       </c>
       <c r="T122" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059</v>
       </c>
       <c r="U122" t="str">
         <f t="shared" si="35"/>
@@ -12087,7 +12090,7 @@
       </c>
       <c r="V122" t="str">
         <f t="shared" si="38"/>
-        <v>"121":12869</v>
+        <v>"121":14059</v>
       </c>
       <c r="W122" t="str">
         <f t="shared" si="39"/>
@@ -12099,11 +12102,11 @@
         <v>122</v>
       </c>
       <c r="C123">
-        <v>12880</v>
+        <v>14070</v>
       </c>
       <c r="D123">
         <f t="shared" si="40"/>
-        <v>12880</v>
+        <v>14070</v>
       </c>
       <c r="E123">
         <f t="shared" si="41"/>
@@ -12156,7 +12159,7 @@
       </c>
       <c r="T123" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070</v>
       </c>
       <c r="U123" t="str">
         <f t="shared" si="35"/>
@@ -12164,7 +12167,7 @@
       </c>
       <c r="V123" t="str">
         <f t="shared" si="38"/>
-        <v>"122":12880</v>
+        <v>"122":14070</v>
       </c>
       <c r="W123" t="str">
         <f t="shared" si="39"/>
@@ -12176,11 +12179,11 @@
         <v>123</v>
       </c>
       <c r="C124">
-        <v>12891</v>
+        <v>14081</v>
       </c>
       <c r="D124">
         <f t="shared" si="40"/>
-        <v>12891</v>
+        <v>14081</v>
       </c>
       <c r="E124">
         <f t="shared" si="41"/>
@@ -12233,7 +12236,7 @@
       </c>
       <c r="T124" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081</v>
       </c>
       <c r="U124" t="str">
         <f t="shared" si="35"/>
@@ -12241,7 +12244,7 @@
       </c>
       <c r="V124" t="str">
         <f t="shared" si="38"/>
-        <v>"123":12891</v>
+        <v>"123":14081</v>
       </c>
       <c r="W124" t="str">
         <f t="shared" si="39"/>
@@ -12253,11 +12256,11 @@
         <v>124</v>
       </c>
       <c r="C125">
-        <v>12902</v>
+        <v>14092</v>
       </c>
       <c r="D125">
         <f t="shared" si="40"/>
-        <v>12902</v>
+        <v>14092</v>
       </c>
       <c r="E125">
         <f t="shared" si="41"/>
@@ -12310,7 +12313,7 @@
       </c>
       <c r="T125" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092</v>
       </c>
       <c r="U125" t="str">
         <f t="shared" si="35"/>
@@ -12318,7 +12321,7 @@
       </c>
       <c r="V125" t="str">
         <f t="shared" si="38"/>
-        <v>"124":12902</v>
+        <v>"124":14092</v>
       </c>
       <c r="W125" t="str">
         <f t="shared" si="39"/>
@@ -12387,7 +12390,7 @@
       </c>
       <c r="T126" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10</v>
       </c>
       <c r="U126" t="str">
         <f t="shared" si="35"/>
@@ -12407,11 +12410,11 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <v>12913</v>
+        <v>14103</v>
       </c>
       <c r="D127">
         <f t="shared" si="40"/>
-        <v>12913</v>
+        <v>14103</v>
       </c>
       <c r="E127">
         <f t="shared" si="41"/>
@@ -12464,7 +12467,7 @@
       </c>
       <c r="T127" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103</v>
       </c>
       <c r="U127" t="str">
         <f t="shared" si="35"/>
@@ -12472,7 +12475,7 @@
       </c>
       <c r="V127" t="str">
         <f t="shared" si="38"/>
-        <v>"126":12913</v>
+        <v>"126":14103</v>
       </c>
       <c r="W127" t="str">
         <f t="shared" si="39"/>
@@ -12484,11 +12487,11 @@
         <v>127</v>
       </c>
       <c r="C128">
-        <v>12924</v>
+        <v>14114</v>
       </c>
       <c r="D128">
         <f t="shared" si="40"/>
-        <v>12924</v>
+        <v>14114</v>
       </c>
       <c r="E128">
         <f t="shared" si="41"/>
@@ -12541,7 +12544,7 @@
       </c>
       <c r="T128" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114</v>
       </c>
       <c r="U128" t="str">
         <f t="shared" si="35"/>
@@ -12549,7 +12552,7 @@
       </c>
       <c r="V128" t="str">
         <f t="shared" si="38"/>
-        <v>"127":12924</v>
+        <v>"127":14114</v>
       </c>
       <c r="W128" t="str">
         <f t="shared" si="39"/>
@@ -12561,11 +12564,11 @@
         <v>128</v>
       </c>
       <c r="C129">
-        <v>12935</v>
+        <v>14125</v>
       </c>
       <c r="D129">
         <f t="shared" si="40"/>
-        <v>12935</v>
+        <v>14125</v>
       </c>
       <c r="E129">
         <f t="shared" si="41"/>
@@ -12618,7 +12621,7 @@
       </c>
       <c r="T129" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125</v>
       </c>
       <c r="U129" t="str">
         <f t="shared" si="35"/>
@@ -12626,7 +12629,7 @@
       </c>
       <c r="V129" t="str">
         <f t="shared" si="38"/>
-        <v>"128":12935</v>
+        <v>"128":14125</v>
       </c>
       <c r="W129" t="str">
         <f t="shared" si="39"/>
@@ -12638,11 +12641,11 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <v>12946</v>
+        <v>14136</v>
       </c>
       <c r="D130">
         <f t="shared" si="40"/>
-        <v>12946</v>
+        <v>14136</v>
       </c>
       <c r="E130">
         <f t="shared" si="41"/>
@@ -12705,7 +12708,7 @@
       </c>
       <c r="T130" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136</v>
       </c>
       <c r="U130" t="str">
         <f t="shared" si="35"/>
@@ -12713,7 +12716,7 @@
       </c>
       <c r="V130" t="str">
         <f t="shared" ref="V130:V151" si="43">""""&amp;$A130&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B130),C130,B130)</f>
-        <v>"129":12946</v>
+        <v>"129":14136</v>
       </c>
       <c r="W130" t="str">
         <f t="shared" ref="W130:W151" si="44">""""&amp;$A130&amp;""""&amp;""&amp;":"&amp;E130</f>
@@ -12728,8 +12731,8 @@
         <v>20</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D151" si="45">IF(NOT(ISBLANK(B131)),"삭",
-IF(MOD(A130,10)=0,D129+550,
+        <f t="shared" ref="D131:D162" si="45">IF(NOT(ISBLANK(B131)),"삭",
+IF(MOD(A130,10)=0,D129+1050,
 IF(MOD(A130,10)=5,D129+11,
 D130+11)))</f>
         <v>삭</v>
@@ -12785,7 +12788,7 @@
       </c>
       <c r="T131" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20</v>
       </c>
       <c r="U131" t="str">
         <f t="shared" si="35"/>
@@ -12805,11 +12808,11 @@
         <v>131</v>
       </c>
       <c r="C132">
-        <v>13496</v>
+        <v>15186</v>
       </c>
       <c r="D132">
         <f t="shared" si="45"/>
-        <v>13496</v>
+        <v>15186</v>
       </c>
       <c r="E132">
         <f t="shared" si="46"/>
@@ -12862,7 +12865,7 @@
       </c>
       <c r="T132" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186</v>
       </c>
       <c r="U132" t="str">
         <f t="shared" si="35"/>
@@ -12870,7 +12873,7 @@
       </c>
       <c r="V132" t="str">
         <f t="shared" si="43"/>
-        <v>"131":13496</v>
+        <v>"131":15186</v>
       </c>
       <c r="W132" t="str">
         <f t="shared" si="44"/>
@@ -12882,11 +12885,11 @@
         <v>132</v>
       </c>
       <c r="C133">
-        <v>13507</v>
+        <v>15197</v>
       </c>
       <c r="D133">
         <f t="shared" si="45"/>
-        <v>13507</v>
+        <v>15197</v>
       </c>
       <c r="E133">
         <f t="shared" si="46"/>
@@ -12939,7 +12942,7 @@
       </c>
       <c r="T133" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197</v>
       </c>
       <c r="U133" t="str">
         <f t="shared" si="35"/>
@@ -12947,7 +12950,7 @@
       </c>
       <c r="V133" t="str">
         <f t="shared" si="43"/>
-        <v>"132":13507</v>
+        <v>"132":15197</v>
       </c>
       <c r="W133" t="str">
         <f t="shared" si="44"/>
@@ -12959,11 +12962,11 @@
         <v>133</v>
       </c>
       <c r="C134">
-        <v>13518</v>
+        <v>15208</v>
       </c>
       <c r="D134">
         <f t="shared" si="45"/>
-        <v>13518</v>
+        <v>15208</v>
       </c>
       <c r="E134">
         <f t="shared" si="46"/>
@@ -13016,7 +13019,7 @@
       </c>
       <c r="T134" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208</v>
       </c>
       <c r="U134" t="str">
         <f t="shared" si="35"/>
@@ -13024,7 +13027,7 @@
       </c>
       <c r="V134" t="str">
         <f t="shared" si="43"/>
-        <v>"133":13518</v>
+        <v>"133":15208</v>
       </c>
       <c r="W134" t="str">
         <f t="shared" si="44"/>
@@ -13036,11 +13039,11 @@
         <v>134</v>
       </c>
       <c r="C135">
-        <v>13529</v>
+        <v>15219</v>
       </c>
       <c r="D135">
         <f t="shared" si="45"/>
-        <v>13529</v>
+        <v>15219</v>
       </c>
       <c r="E135">
         <f t="shared" si="46"/>
@@ -13093,7 +13096,7 @@
       </c>
       <c r="T135" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219</v>
       </c>
       <c r="U135" t="str">
         <f t="shared" si="35"/>
@@ -13101,7 +13104,7 @@
       </c>
       <c r="V135" t="str">
         <f t="shared" si="43"/>
-        <v>"134":13529</v>
+        <v>"134":15219</v>
       </c>
       <c r="W135" t="str">
         <f t="shared" si="44"/>
@@ -13170,7 +13173,7 @@
       </c>
       <c r="T136" t="str">
         <f t="shared" si="34"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10</v>
       </c>
       <c r="U136" t="str">
         <f t="shared" si="35"/>
@@ -13190,11 +13193,11 @@
         <v>136</v>
       </c>
       <c r="C137">
-        <v>13540</v>
+        <v>15230</v>
       </c>
       <c r="D137">
         <f t="shared" si="45"/>
-        <v>13540</v>
+        <v>15230</v>
       </c>
       <c r="E137">
         <f t="shared" si="46"/>
@@ -13247,7 +13250,7 @@
       </c>
       <c r="T137" t="str">
         <f t="shared" ref="T137:T151" si="54">T136&amp;","&amp;V137</f>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230</v>
       </c>
       <c r="U137" t="str">
         <f t="shared" ref="U137:U151" si="55">U136&amp;","&amp;W137</f>
@@ -13255,7 +13258,7 @@
       </c>
       <c r="V137" t="str">
         <f t="shared" si="43"/>
-        <v>"136":13540</v>
+        <v>"136":15230</v>
       </c>
       <c r="W137" t="str">
         <f t="shared" si="44"/>
@@ -13267,11 +13270,11 @@
         <v>137</v>
       </c>
       <c r="C138">
-        <v>13551</v>
+        <v>15241</v>
       </c>
       <c r="D138">
         <f t="shared" si="45"/>
-        <v>13551</v>
+        <v>15241</v>
       </c>
       <c r="E138">
         <f t="shared" si="46"/>
@@ -13324,7 +13327,7 @@
       </c>
       <c r="T138" t="str">
         <f t="shared" si="54"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241</v>
       </c>
       <c r="U138" t="str">
         <f t="shared" si="55"/>
@@ -13332,7 +13335,7 @@
       </c>
       <c r="V138" t="str">
         <f t="shared" si="43"/>
-        <v>"137":13551</v>
+        <v>"137":15241</v>
       </c>
       <c r="W138" t="str">
         <f t="shared" si="44"/>
@@ -13344,11 +13347,11 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <v>13562</v>
+        <v>15252</v>
       </c>
       <c r="D139">
         <f t="shared" si="45"/>
-        <v>13562</v>
+        <v>15252</v>
       </c>
       <c r="E139">
         <f t="shared" si="46"/>
@@ -13401,7 +13404,7 @@
       </c>
       <c r="T139" t="str">
         <f t="shared" si="54"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551,"138":13562</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252</v>
       </c>
       <c r="U139" t="str">
         <f t="shared" si="55"/>
@@ -13409,7 +13412,7 @@
       </c>
       <c r="V139" t="str">
         <f t="shared" si="43"/>
-        <v>"138":13562</v>
+        <v>"138":15252</v>
       </c>
       <c r="W139" t="str">
         <f t="shared" si="44"/>
@@ -13421,11 +13424,11 @@
         <v>139</v>
       </c>
       <c r="C140">
-        <v>13573</v>
+        <v>15263</v>
       </c>
       <c r="D140">
         <f t="shared" si="45"/>
-        <v>13573</v>
+        <v>15263</v>
       </c>
       <c r="E140">
         <f t="shared" si="46"/>
@@ -13478,7 +13481,7 @@
       </c>
       <c r="T140" t="str">
         <f t="shared" si="54"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551,"138":13562,"139":13573</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263</v>
       </c>
       <c r="U140" t="str">
         <f t="shared" si="55"/>
@@ -13486,7 +13489,7 @@
       </c>
       <c r="V140" t="str">
         <f t="shared" si="43"/>
-        <v>"139":13573</v>
+        <v>"139":15263</v>
       </c>
       <c r="W140" t="str">
         <f t="shared" si="44"/>
@@ -13555,7 +13558,7 @@
       </c>
       <c r="T141" t="str">
         <f t="shared" si="54"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551,"138":13562,"139":13573,"140":20</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20</v>
       </c>
       <c r="U141" t="str">
         <f t="shared" si="55"/>
@@ -13575,11 +13578,11 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <v>14123</v>
+        <v>16313</v>
       </c>
       <c r="D142">
         <f t="shared" si="45"/>
-        <v>14123</v>
+        <v>16313</v>
       </c>
       <c r="E142">
         <f t="shared" si="46"/>
@@ -13632,7 +13635,7 @@
       </c>
       <c r="T142" t="str">
         <f t="shared" si="54"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551,"138":13562,"139":13573,"140":20,"141":14123</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313</v>
       </c>
       <c r="U142" t="str">
         <f t="shared" si="55"/>
@@ -13640,7 +13643,7 @@
       </c>
       <c r="V142" t="str">
         <f t="shared" si="43"/>
-        <v>"141":14123</v>
+        <v>"141":16313</v>
       </c>
       <c r="W142" t="str">
         <f t="shared" si="44"/>
@@ -13652,11 +13655,11 @@
         <v>142</v>
       </c>
       <c r="C143">
-        <v>14134</v>
+        <v>16324</v>
       </c>
       <c r="D143">
         <f t="shared" si="45"/>
-        <v>14134</v>
+        <v>16324</v>
       </c>
       <c r="E143">
         <f t="shared" si="46"/>
@@ -13709,7 +13712,7 @@
       </c>
       <c r="T143" t="str">
         <f t="shared" si="54"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551,"138":13562,"139":13573,"140":20,"141":14123,"142":14134</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324</v>
       </c>
       <c r="U143" t="str">
         <f t="shared" si="55"/>
@@ -13717,7 +13720,7 @@
       </c>
       <c r="V143" t="str">
         <f t="shared" si="43"/>
-        <v>"142":14134</v>
+        <v>"142":16324</v>
       </c>
       <c r="W143" t="str">
         <f t="shared" si="44"/>
@@ -13729,11 +13732,11 @@
         <v>143</v>
       </c>
       <c r="C144">
-        <v>14145</v>
+        <v>16335</v>
       </c>
       <c r="D144">
         <f t="shared" si="45"/>
-        <v>14145</v>
+        <v>16335</v>
       </c>
       <c r="E144">
         <f t="shared" si="46"/>
@@ -13786,7 +13789,7 @@
       </c>
       <c r="T144" t="str">
         <f t="shared" si="54"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551,"138":13562,"139":13573,"140":20,"141":14123,"142":14134,"143":14145</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335</v>
       </c>
       <c r="U144" t="str">
         <f t="shared" si="55"/>
@@ -13794,7 +13797,7 @@
       </c>
       <c r="V144" t="str">
         <f t="shared" si="43"/>
-        <v>"143":14145</v>
+        <v>"143":16335</v>
       </c>
       <c r="W144" t="str">
         <f t="shared" si="44"/>
@@ -13806,11 +13809,11 @@
         <v>144</v>
       </c>
       <c r="C145">
-        <v>14156</v>
+        <v>16346</v>
       </c>
       <c r="D145">
         <f t="shared" si="45"/>
-        <v>14156</v>
+        <v>16346</v>
       </c>
       <c r="E145">
         <f t="shared" si="46"/>
@@ -13863,7 +13866,7 @@
       </c>
       <c r="T145" t="str">
         <f t="shared" si="54"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551,"138":13562,"139":13573,"140":20,"141":14123,"142":14134,"143":14145,"144":14156</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346</v>
       </c>
       <c r="U145" t="str">
         <f t="shared" si="55"/>
@@ -13871,7 +13874,7 @@
       </c>
       <c r="V145" t="str">
         <f t="shared" si="43"/>
-        <v>"144":14156</v>
+        <v>"144":16346</v>
       </c>
       <c r="W145" t="str">
         <f t="shared" si="44"/>
@@ -13940,7 +13943,7 @@
       </c>
       <c r="T146" t="str">
         <f t="shared" si="54"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551,"138":13562,"139":13573,"140":20,"141":14123,"142":14134,"143":14145,"144":14156,"145":10</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346,"145":10</v>
       </c>
       <c r="U146" t="str">
         <f t="shared" si="55"/>
@@ -13960,11 +13963,11 @@
         <v>146</v>
       </c>
       <c r="C147">
-        <v>14167</v>
+        <v>16357</v>
       </c>
       <c r="D147">
         <f t="shared" si="45"/>
-        <v>14167</v>
+        <v>16357</v>
       </c>
       <c r="E147">
         <f t="shared" si="46"/>
@@ -14017,7 +14020,7 @@
       </c>
       <c r="T147" t="str">
         <f t="shared" si="54"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551,"138":13562,"139":13573,"140":20,"141":14123,"142":14134,"143":14145,"144":14156,"145":10,"146":14167</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346,"145":10,"146":16357</v>
       </c>
       <c r="U147" t="str">
         <f t="shared" si="55"/>
@@ -14025,7 +14028,7 @@
       </c>
       <c r="V147" t="str">
         <f t="shared" si="43"/>
-        <v>"146":14167</v>
+        <v>"146":16357</v>
       </c>
       <c r="W147" t="str">
         <f t="shared" si="44"/>
@@ -14037,11 +14040,11 @@
         <v>147</v>
       </c>
       <c r="C148">
-        <v>14178</v>
+        <v>16368</v>
       </c>
       <c r="D148">
         <f t="shared" si="45"/>
-        <v>14178</v>
+        <v>16368</v>
       </c>
       <c r="E148">
         <f t="shared" si="46"/>
@@ -14094,7 +14097,7 @@
       </c>
       <c r="T148" t="str">
         <f t="shared" si="54"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551,"138":13562,"139":13573,"140":20,"141":14123,"142":14134,"143":14145,"144":14156,"145":10,"146":14167,"147":14178</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346,"145":10,"146":16357,"147":16368</v>
       </c>
       <c r="U148" t="str">
         <f t="shared" si="55"/>
@@ -14102,7 +14105,7 @@
       </c>
       <c r="V148" t="str">
         <f t="shared" si="43"/>
-        <v>"147":14178</v>
+        <v>"147":16368</v>
       </c>
       <c r="W148" t="str">
         <f t="shared" si="44"/>
@@ -14114,11 +14117,11 @@
         <v>148</v>
       </c>
       <c r="C149">
-        <v>14189</v>
+        <v>16379</v>
       </c>
       <c r="D149">
         <f t="shared" si="45"/>
-        <v>14189</v>
+        <v>16379</v>
       </c>
       <c r="E149">
         <f t="shared" si="46"/>
@@ -14171,7 +14174,7 @@
       </c>
       <c r="T149" t="str">
         <f t="shared" si="54"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551,"138":13562,"139":13573,"140":20,"141":14123,"142":14134,"143":14145,"144":14156,"145":10,"146":14167,"147":14178,"148":14189</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346,"145":10,"146":16357,"147":16368,"148":16379</v>
       </c>
       <c r="U149" t="str">
         <f t="shared" si="55"/>
@@ -14179,7 +14182,7 @@
       </c>
       <c r="V149" t="str">
         <f t="shared" si="43"/>
-        <v>"148":14189</v>
+        <v>"148":16379</v>
       </c>
       <c r="W149" t="str">
         <f t="shared" si="44"/>
@@ -14191,11 +14194,11 @@
         <v>149</v>
       </c>
       <c r="C150">
-        <v>14200</v>
+        <v>16390</v>
       </c>
       <c r="D150">
         <f t="shared" si="45"/>
-        <v>14200</v>
+        <v>16390</v>
       </c>
       <c r="E150">
         <f t="shared" si="46"/>
@@ -14248,7 +14251,7 @@
       </c>
       <c r="T150" t="str">
         <f t="shared" si="54"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551,"138":13562,"139":13573,"140":20,"141":14123,"142":14134,"143":14145,"144":14156,"145":10,"146":14167,"147":14178,"148":14189,"149":14200</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346,"145":10,"146":16357,"147":16368,"148":16379,"149":16390</v>
       </c>
       <c r="U150" t="str">
         <f t="shared" si="55"/>
@@ -14256,7 +14259,7 @@
       </c>
       <c r="V150" t="str">
         <f t="shared" si="43"/>
-        <v>"149":14200</v>
+        <v>"149":16390</v>
       </c>
       <c r="W150" t="str">
         <f t="shared" si="44"/>
@@ -14325,7 +14328,7 @@
       </c>
       <c r="T151" t="str">
         <f t="shared" si="54"/>
-        <v>"1":5345,"2":5356,"3":5367,"4":5378,"5":5,"6":5389,"7":5400,"8":5411,"9":5422,"10":10,"11":5972,"12":5983,"13":5994,"14":6005,"15":5,"16":6016,"17":6027,"18":6038,"19":6049,"20":10,"21":6599,"22":6610,"23":6621,"24":6632,"25":5,"26":6643,"27":6654,"28":6665,"29":6676,"30":10,"31":7226,"32":7237,"33":7248,"34":7259,"35":5,"36":7270,"37":7281,"38":7292,"39":7303,"40":10,"41":7853,"42":7864,"43":7875,"44":7886,"45":5,"46":7897,"47":7908,"48":7919,"49":7930,"50":15,"51":8480,"52":8491,"53":8502,"54":8513,"55":7,"56":8524,"57":8535,"58":8546,"59":8557,"60":15,"61":9107,"62":9118,"63":9129,"64":9140,"65":7,"66":9151,"67":9162,"68":9173,"69":9184,"70":15,"71":9734,"72":9745,"73":9756,"74":9767,"75":7,"76":9778,"77":9789,"78":9800,"79":9811,"80":15,"81":10361,"82":10372,"83":10383,"84":10394,"85":7,"86":10405,"87":10416,"88":10427,"89":10438,"90":15,"91":10988,"92":10999,"93":11010,"94":11021,"95":7,"96":11032,"97":11043,"98":11054,"99":11065,"100":20,"101":11615,"102":11626,"103":11637,"104":11648,"105":10,"106":11659,"107":11670,"108":11681,"109":11692,"110":20,"111":12242,"112":12253,"113":12264,"114":12275,"115":10,"116":12286,"117":12297,"118":12308,"119":12319,"120":20,"121":12869,"122":12880,"123":12891,"124":12902,"125":10,"126":12913,"127":12924,"128":12935,"129":12946,"130":20,"131":13496,"132":13507,"133":13518,"134":13529,"135":10,"136":13540,"137":13551,"138":13562,"139":13573,"140":20,"141":14123,"142":14134,"143":14145,"144":14156,"145":10,"146":14167,"147":14178,"148":14189,"149":14200,"150":25</v>
+        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346,"145":10,"146":16357,"147":16368,"148":16379,"149":16390,"150":25</v>
       </c>
       <c r="U151" t="str">
         <f t="shared" si="55"/>
@@ -15380,7 +15383,7 @@
         <v>2</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H35:H36" si="0">G36/4</f>
+        <f t="shared" ref="H36" si="0">G36/4</f>
         <v>0.5</v>
       </c>
       <c r="I36">
@@ -15471,7 +15474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CF6387-5136-4565-9CA6-4645A4F33399}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA7616B-9B84-4C5E-A8BB-0CA0D3A7B938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E84FEC6-C391-4394-9563-432C3E34EE71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -2709,10 +2709,10 @@
   <dimension ref="A1:Z151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2812,10 +2812,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>535</v>
+        <v>1535</v>
       </c>
       <c r="D2">
-        <v>535</v>
+        <v>1535</v>
       </c>
       <c r="E2">
         <v>1475</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="T2" t="str">
         <f>V2</f>
-        <v>"1":535</v>
+        <v>"1":1535</v>
       </c>
       <c r="U2" t="str">
         <f>W2</f>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="V2" t="str">
         <f t="shared" ref="V2:V33" si="1">""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B2),C2,B2)</f>
-        <v>"1":535</v>
+        <v>"1":1535</v>
       </c>
       <c r="W2" t="str">
         <f t="shared" ref="W2:W33" si="2">""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;E2</f>
@@ -2883,7 +2883,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(T1,COUNTA(T:T)-1,0),1)=",",SUBSTITUTE(OFFSET(T1,COUNTA(T:T)-1,0),",","",1),OFFSET(T1,COUNTA(T:T)-1,0))
 &amp;"}"</f>
-        <v>{"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346,"145":10,"146":16357,"147":16368,"148":16379,"149":16390,"150":25}</v>
+        <v>{"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346,"145":10,"146":17357,"147":17368,"148":17379,"149":17390,"150":25}</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2891,14 +2891,14 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>546</v>
+        <v>1546</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D34" si="3">IF(NOT(ISBLANK(B3)),"삭",
 IF(MOD(A2,10)=0,D1+1050,
 IF(MOD(A2,10)=5,D1+11,
 D2+11)))</f>
-        <v>546</v>
+        <v>1546</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E34" si="4">E2+3</f>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="T3" t="str">
         <f>T2&amp;","&amp;V3</f>
-        <v>"1":535,"2":546</v>
+        <v>"1":1535,"2":1546</v>
       </c>
       <c r="U3" t="str">
         <f>U2&amp;","&amp;W3</f>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="V3" t="str">
         <f t="shared" si="1"/>
-        <v>"2":546</v>
+        <v>"2":1546</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" si="2"/>
@@ -2969,11 +2969,11 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>557</v>
+        <v>1557</v>
       </c>
       <c r="D4">
         <f t="shared" si="3"/>
-        <v>557</v>
+        <v>1557</v>
       </c>
       <c r="E4">
         <f t="shared" si="4"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="T4" t="str">
         <f t="shared" ref="T4:T8" si="11">T3&amp;","&amp;V4</f>
-        <v>"1":535,"2":546,"3":557</v>
+        <v>"1":1535,"2":1546,"3":1557</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" ref="U4:U8" si="12">U3&amp;","&amp;W4</f>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="V4" t="str">
         <f t="shared" si="1"/>
-        <v>"3":557</v>
+        <v>"3":1557</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="2"/>
@@ -3048,11 +3048,11 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>568</v>
+        <v>1568</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
-        <v>568</v>
+        <v>1568</v>
       </c>
       <c r="E5">
         <f t="shared" si="4"/>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="T5" t="str">
         <f t="shared" si="11"/>
-        <v>"1":535,"2":546,"3":557,"4":568</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" si="12"/>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="V5" t="str">
         <f t="shared" si="1"/>
-        <v>"4":568</v>
+        <v>"4":1568</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="2"/>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="T6" t="str">
         <f t="shared" si="11"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="12"/>
@@ -3206,11 +3206,11 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>579</v>
+        <v>1579</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>579</v>
+        <v>1579</v>
       </c>
       <c r="E7">
         <f t="shared" si="4"/>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="T7" t="str">
         <f t="shared" si="11"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="12"/>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="V7" t="str">
         <f t="shared" si="1"/>
-        <v>"6":579</v>
+        <v>"6":1579</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="2"/>
@@ -3282,11 +3282,11 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>590</v>
+        <v>1590</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>590</v>
+        <v>1590</v>
       </c>
       <c r="E8">
         <f t="shared" si="4"/>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="T8" t="str">
         <f t="shared" si="11"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="12"/>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="V8" t="str">
         <f t="shared" si="1"/>
-        <v>"7":590</v>
+        <v>"7":1590</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="2"/>
@@ -3358,11 +3358,11 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>601</v>
+        <v>1601</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
-        <v>601</v>
+        <v>1601</v>
       </c>
       <c r="E9">
         <f t="shared" si="4"/>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="T9" t="str">
         <f t="shared" ref="T9:T72" si="15">T8&amp;","&amp;V9</f>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" ref="U9:U72" si="16">U8&amp;","&amp;W9</f>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="V9" t="str">
         <f t="shared" si="1"/>
-        <v>"8":601</v>
+        <v>"8":1601</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="2"/>
@@ -3434,11 +3434,11 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>612</v>
+        <v>1612</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>612</v>
+        <v>1612</v>
       </c>
       <c r="E10">
         <f t="shared" si="4"/>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="T10" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="16"/>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="V10" t="str">
         <f t="shared" si="1"/>
-        <v>"9":612</v>
+        <v>"9":1612</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="2"/>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="T11" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="16"/>
@@ -3586,11 +3586,11 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1662</v>
+        <v>2662</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>1662</v>
+        <v>2662</v>
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="T12" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="16"/>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="V12" t="str">
         <f t="shared" si="1"/>
-        <v>"11":1662</v>
+        <v>"11":2662</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="2"/>
@@ -3662,11 +3662,11 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1673</v>
+        <v>2673</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>1673</v>
+        <v>2673</v>
       </c>
       <c r="E13">
         <f t="shared" si="4"/>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="T13" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="16"/>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="V13" t="str">
         <f t="shared" si="1"/>
-        <v>"12":1673</v>
+        <v>"12":2673</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="2"/>
@@ -3738,11 +3738,11 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>1684</v>
+        <v>2684</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>1684</v>
+        <v>2684</v>
       </c>
       <c r="E14">
         <f t="shared" si="4"/>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="T14" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="16"/>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="V14" t="str">
         <f t="shared" si="1"/>
-        <v>"13":1684</v>
+        <v>"13":2684</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="2"/>
@@ -3814,11 +3814,11 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>1695</v>
+        <v>2695</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>1695</v>
+        <v>2695</v>
       </c>
       <c r="E15">
         <f t="shared" si="4"/>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="T15" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="16"/>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="V15" t="str">
         <f t="shared" si="1"/>
-        <v>"14":1695</v>
+        <v>"14":2695</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="2"/>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="T16" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="16"/>
@@ -3966,11 +3966,11 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>1706</v>
+        <v>2706</v>
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>1706</v>
+        <v>2706</v>
       </c>
       <c r="E17">
         <f t="shared" si="4"/>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="T17" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="16"/>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="V17" t="str">
         <f t="shared" si="1"/>
-        <v>"16":1706</v>
+        <v>"16":2706</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="2"/>
@@ -4042,11 +4042,11 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>1717</v>
+        <v>2717</v>
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>1717</v>
+        <v>2717</v>
       </c>
       <c r="E18">
         <f t="shared" si="4"/>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="T18" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="16"/>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="V18" t="str">
         <f t="shared" si="1"/>
-        <v>"17":1717</v>
+        <v>"17":2717</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="2"/>
@@ -4118,11 +4118,11 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>1728</v>
+        <v>2728</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>1728</v>
+        <v>2728</v>
       </c>
       <c r="E19">
         <f t="shared" si="4"/>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="T19" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="16"/>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="V19" t="str">
         <f t="shared" si="1"/>
-        <v>"18":1728</v>
+        <v>"18":2728</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="2"/>
@@ -4194,11 +4194,11 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>1739</v>
+        <v>2739</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>1739</v>
+        <v>2739</v>
       </c>
       <c r="E20">
         <f t="shared" si="4"/>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="T20" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="16"/>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="V20" t="str">
         <f t="shared" si="1"/>
-        <v>"19":1739</v>
+        <v>"19":2739</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="2"/>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="T21" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="16"/>
@@ -4346,11 +4346,11 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>2789</v>
+        <v>3789</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>2789</v>
+        <v>3789</v>
       </c>
       <c r="E22">
         <f t="shared" si="4"/>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="T22" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="16"/>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="V22" t="str">
         <f t="shared" si="1"/>
-        <v>"21":2789</v>
+        <v>"21":3789</v>
       </c>
       <c r="W22" t="str">
         <f t="shared" si="2"/>
@@ -4422,11 +4422,11 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="E23">
         <f t="shared" si="4"/>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="T23" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800</v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="16"/>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="V23" t="str">
         <f t="shared" si="1"/>
-        <v>"22":2800</v>
+        <v>"22":3800</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="2"/>
@@ -4498,11 +4498,11 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>2811</v>
+        <v>3811</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>2811</v>
+        <v>3811</v>
       </c>
       <c r="E24">
         <f t="shared" si="4"/>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="T24" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="16"/>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="V24" t="str">
         <f t="shared" si="1"/>
-        <v>"23":2811</v>
+        <v>"23":3811</v>
       </c>
       <c r="W24" t="str">
         <f t="shared" si="2"/>
@@ -4574,11 +4574,11 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>2822</v>
+        <v>3822</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>2822</v>
+        <v>3822</v>
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="T25" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="16"/>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="V25" t="str">
         <f t="shared" si="1"/>
-        <v>"24":2822</v>
+        <v>"24":3822</v>
       </c>
       <c r="W25" t="str">
         <f t="shared" si="2"/>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="T26" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="16"/>
@@ -4726,11 +4726,11 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>2833</v>
+        <v>3833</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>2833</v>
+        <v>3833</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="T27" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833</v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="16"/>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="V27" t="str">
         <f t="shared" si="1"/>
-        <v>"26":2833</v>
+        <v>"26":3833</v>
       </c>
       <c r="W27" t="str">
         <f t="shared" si="2"/>
@@ -4802,11 +4802,11 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>2844</v>
+        <v>3844</v>
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
-        <v>2844</v>
+        <v>3844</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="T28" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="16"/>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="V28" t="str">
         <f t="shared" si="1"/>
-        <v>"27":2844</v>
+        <v>"27":3844</v>
       </c>
       <c r="W28" t="str">
         <f t="shared" si="2"/>
@@ -4878,11 +4878,11 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>2855</v>
+        <v>3855</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>2855</v>
+        <v>3855</v>
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="T29" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="16"/>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="V29" t="str">
         <f t="shared" si="1"/>
-        <v>"28":2855</v>
+        <v>"28":3855</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="2"/>
@@ -4954,11 +4954,11 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>2866</v>
+        <v>3866</v>
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>2866</v>
+        <v>3866</v>
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="T30" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="16"/>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="V30" t="str">
         <f t="shared" si="1"/>
-        <v>"29":2866</v>
+        <v>"29":3866</v>
       </c>
       <c r="W30" t="str">
         <f t="shared" si="2"/>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="T31" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="16"/>
@@ -5106,11 +5106,11 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>3916</v>
+        <v>4916</v>
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>3916</v>
+        <v>4916</v>
       </c>
       <c r="E32">
         <f t="shared" si="4"/>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="T32" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="16"/>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="V32" t="str">
         <f t="shared" si="1"/>
-        <v>"31":3916</v>
+        <v>"31":4916</v>
       </c>
       <c r="W32" t="str">
         <f t="shared" si="2"/>
@@ -5182,11 +5182,11 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>3927</v>
+        <v>4927</v>
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>3927</v>
+        <v>4927</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="T33" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="16"/>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="V33" t="str">
         <f t="shared" si="1"/>
-        <v>"32":3927</v>
+        <v>"32":4927</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="2"/>
@@ -5258,11 +5258,11 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>3938</v>
+        <v>4938</v>
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>3938</v>
+        <v>4938</v>
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="T34" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" si="16"/>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="V34" t="str">
         <f t="shared" ref="V34:V65" si="18">""""&amp;$A34&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B34),C34,B34)</f>
-        <v>"33":3938</v>
+        <v>"33":4938</v>
       </c>
       <c r="W34" t="str">
         <f t="shared" ref="W34:W65" si="19">""""&amp;$A34&amp;""""&amp;""&amp;":"&amp;E34</f>
@@ -5344,14 +5344,14 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>3949</v>
+        <v>4949</v>
       </c>
       <c r="D35">
         <f t="shared" ref="D35:D66" si="20">IF(NOT(ISBLANK(B35)),"삭",
 IF(MOD(A34,10)=0,D33+1050,
 IF(MOD(A34,10)=5,D33+11,
 D34+11)))</f>
-        <v>3949</v>
+        <v>4949</v>
       </c>
       <c r="E35">
         <f t="shared" ref="E35:E66" si="21">E34+3</f>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="T35" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="16"/>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="V35" t="str">
         <f t="shared" si="18"/>
-        <v>"34":3949</v>
+        <v>"34":4949</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="19"/>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="T36" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="16"/>
@@ -5499,11 +5499,11 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>3960</v>
+        <v>4960</v>
       </c>
       <c r="D37">
         <f t="shared" si="20"/>
-        <v>3960</v>
+        <v>4960</v>
       </c>
       <c r="E37">
         <f t="shared" si="21"/>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="T37" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="16"/>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="V37" t="str">
         <f t="shared" si="18"/>
-        <v>"36":3960</v>
+        <v>"36":4960</v>
       </c>
       <c r="W37" t="str">
         <f t="shared" si="19"/>
@@ -5575,11 +5575,11 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>3971</v>
+        <v>4971</v>
       </c>
       <c r="D38">
         <f t="shared" si="20"/>
-        <v>3971</v>
+        <v>4971</v>
       </c>
       <c r="E38">
         <f t="shared" si="21"/>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="T38" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="16"/>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="V38" t="str">
         <f t="shared" si="18"/>
-        <v>"37":3971</v>
+        <v>"37":4971</v>
       </c>
       <c r="W38" t="str">
         <f t="shared" si="19"/>
@@ -5651,11 +5651,11 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>3982</v>
+        <v>4982</v>
       </c>
       <c r="D39">
         <f t="shared" si="20"/>
-        <v>3982</v>
+        <v>4982</v>
       </c>
       <c r="E39">
         <f t="shared" si="21"/>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="T39" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" si="16"/>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="V39" t="str">
         <f t="shared" si="18"/>
-        <v>"38":3982</v>
+        <v>"38":4982</v>
       </c>
       <c r="W39" t="str">
         <f t="shared" si="19"/>
@@ -5727,11 +5727,11 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>3993</v>
+        <v>4993</v>
       </c>
       <c r="D40">
         <f t="shared" si="20"/>
-        <v>3993</v>
+        <v>4993</v>
       </c>
       <c r="E40">
         <f t="shared" si="21"/>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="T40" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" si="16"/>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="V40" t="str">
         <f t="shared" si="18"/>
-        <v>"39":3993</v>
+        <v>"39":4993</v>
       </c>
       <c r="W40" t="str">
         <f t="shared" si="19"/>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="T41" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="16"/>
@@ -5879,11 +5879,11 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>5043</v>
+        <v>6043</v>
       </c>
       <c r="D42">
         <f t="shared" si="20"/>
-        <v>5043</v>
+        <v>6043</v>
       </c>
       <c r="E42">
         <f t="shared" si="21"/>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="T42" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" si="16"/>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="V42" t="str">
         <f t="shared" si="18"/>
-        <v>"41":5043</v>
+        <v>"41":6043</v>
       </c>
       <c r="W42" t="str">
         <f t="shared" si="19"/>
@@ -5955,11 +5955,11 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>5054</v>
+        <v>6054</v>
       </c>
       <c r="D43">
         <f t="shared" si="20"/>
-        <v>5054</v>
+        <v>6054</v>
       </c>
       <c r="E43">
         <f t="shared" si="21"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="T43" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="16"/>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="V43" t="str">
         <f t="shared" si="18"/>
-        <v>"42":5054</v>
+        <v>"42":6054</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="19"/>
@@ -6031,11 +6031,11 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>5065</v>
+        <v>6065</v>
       </c>
       <c r="D44">
         <f t="shared" si="20"/>
-        <v>5065</v>
+        <v>6065</v>
       </c>
       <c r="E44">
         <f t="shared" si="21"/>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="T44" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" si="16"/>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="V44" t="str">
         <f t="shared" si="18"/>
-        <v>"43":5065</v>
+        <v>"43":6065</v>
       </c>
       <c r="W44" t="str">
         <f t="shared" si="19"/>
@@ -6107,11 +6107,11 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>5076</v>
+        <v>6076</v>
       </c>
       <c r="D45">
         <f t="shared" si="20"/>
-        <v>5076</v>
+        <v>6076</v>
       </c>
       <c r="E45">
         <f t="shared" si="21"/>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="T45" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076</v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="16"/>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="V45" t="str">
         <f t="shared" si="18"/>
-        <v>"44":5076</v>
+        <v>"44":6076</v>
       </c>
       <c r="W45" t="str">
         <f t="shared" si="19"/>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="T46" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5</v>
       </c>
       <c r="U46" t="str">
         <f t="shared" si="16"/>
@@ -6259,11 +6259,11 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>5087</v>
+        <v>6087</v>
       </c>
       <c r="D47">
         <f t="shared" si="20"/>
-        <v>5087</v>
+        <v>6087</v>
       </c>
       <c r="E47">
         <f t="shared" si="21"/>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="T47" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="16"/>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="V47" t="str">
         <f t="shared" si="18"/>
-        <v>"46":5087</v>
+        <v>"46":6087</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" si="19"/>
@@ -6335,11 +6335,11 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>5098</v>
+        <v>6098</v>
       </c>
       <c r="D48">
         <f t="shared" si="20"/>
-        <v>5098</v>
+        <v>6098</v>
       </c>
       <c r="E48">
         <f t="shared" si="21"/>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="T48" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098</v>
       </c>
       <c r="U48" t="str">
         <f t="shared" si="16"/>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="V48" t="str">
         <f t="shared" si="18"/>
-        <v>"47":5098</v>
+        <v>"47":6098</v>
       </c>
       <c r="W48" t="str">
         <f t="shared" si="19"/>
@@ -6411,11 +6411,11 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>5109</v>
+        <v>6109</v>
       </c>
       <c r="D49">
         <f t="shared" si="20"/>
-        <v>5109</v>
+        <v>6109</v>
       </c>
       <c r="E49">
         <f t="shared" si="21"/>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="T49" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109</v>
       </c>
       <c r="U49" t="str">
         <f t="shared" si="16"/>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="V49" t="str">
         <f t="shared" si="18"/>
-        <v>"48":5109</v>
+        <v>"48":6109</v>
       </c>
       <c r="W49" t="str">
         <f t="shared" si="19"/>
@@ -6487,11 +6487,11 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>5120</v>
+        <v>6120</v>
       </c>
       <c r="D50">
         <f t="shared" si="20"/>
-        <v>5120</v>
+        <v>6120</v>
       </c>
       <c r="E50">
         <f t="shared" si="21"/>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="T50" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120</v>
       </c>
       <c r="U50" t="str">
         <f t="shared" si="16"/>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="V50" t="str">
         <f t="shared" si="18"/>
-        <v>"49":5120</v>
+        <v>"49":6120</v>
       </c>
       <c r="W50" t="str">
         <f t="shared" si="19"/>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="T51" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15</v>
       </c>
       <c r="U51" t="str">
         <f t="shared" si="16"/>
@@ -6639,11 +6639,11 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>6170</v>
+        <v>7170</v>
       </c>
       <c r="D52">
         <f t="shared" si="20"/>
-        <v>6170</v>
+        <v>7170</v>
       </c>
       <c r="E52">
         <f t="shared" si="21"/>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="T52" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170</v>
       </c>
       <c r="U52" t="str">
         <f t="shared" si="16"/>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="V52" t="str">
         <f t="shared" si="18"/>
-        <v>"51":6170</v>
+        <v>"51":7170</v>
       </c>
       <c r="W52" t="str">
         <f t="shared" si="19"/>
@@ -6715,11 +6715,11 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>6181</v>
+        <v>7181</v>
       </c>
       <c r="D53">
         <f t="shared" si="20"/>
-        <v>6181</v>
+        <v>7181</v>
       </c>
       <c r="E53">
         <f t="shared" si="21"/>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="T53" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181</v>
       </c>
       <c r="U53" t="str">
         <f t="shared" si="16"/>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="V53" t="str">
         <f t="shared" si="18"/>
-        <v>"52":6181</v>
+        <v>"52":7181</v>
       </c>
       <c r="W53" t="str">
         <f t="shared" si="19"/>
@@ -6791,11 +6791,11 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>6192</v>
+        <v>7192</v>
       </c>
       <c r="D54">
         <f t="shared" si="20"/>
-        <v>6192</v>
+        <v>7192</v>
       </c>
       <c r="E54">
         <f t="shared" si="21"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="T54" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192</v>
       </c>
       <c r="U54" t="str">
         <f t="shared" si="16"/>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="V54" t="str">
         <f t="shared" si="18"/>
-        <v>"53":6192</v>
+        <v>"53":7192</v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="19"/>
@@ -6867,11 +6867,11 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>6203</v>
+        <v>7203</v>
       </c>
       <c r="D55">
         <f t="shared" si="20"/>
-        <v>6203</v>
+        <v>7203</v>
       </c>
       <c r="E55">
         <f t="shared" si="21"/>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="T55" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203</v>
       </c>
       <c r="U55" t="str">
         <f t="shared" si="16"/>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="V55" t="str">
         <f t="shared" si="18"/>
-        <v>"54":6203</v>
+        <v>"54":7203</v>
       </c>
       <c r="W55" t="str">
         <f t="shared" si="19"/>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="T56" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7</v>
       </c>
       <c r="U56" t="str">
         <f t="shared" si="16"/>
@@ -7019,11 +7019,11 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>6214</v>
+        <v>7214</v>
       </c>
       <c r="D57">
         <f t="shared" si="20"/>
-        <v>6214</v>
+        <v>7214</v>
       </c>
       <c r="E57">
         <f t="shared" si="21"/>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="T57" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214</v>
       </c>
       <c r="U57" t="str">
         <f t="shared" si="16"/>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="V57" t="str">
         <f t="shared" si="18"/>
-        <v>"56":6214</v>
+        <v>"56":7214</v>
       </c>
       <c r="W57" t="str">
         <f t="shared" si="19"/>
@@ -7095,11 +7095,11 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>6225</v>
+        <v>7225</v>
       </c>
       <c r="D58">
         <f t="shared" si="20"/>
-        <v>6225</v>
+        <v>7225</v>
       </c>
       <c r="E58">
         <f t="shared" si="21"/>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="T58" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225</v>
       </c>
       <c r="U58" t="str">
         <f t="shared" si="16"/>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="V58" t="str">
         <f t="shared" si="18"/>
-        <v>"57":6225</v>
+        <v>"57":7225</v>
       </c>
       <c r="W58" t="str">
         <f t="shared" si="19"/>
@@ -7171,11 +7171,11 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>6236</v>
+        <v>7236</v>
       </c>
       <c r="D59">
         <f t="shared" si="20"/>
-        <v>6236</v>
+        <v>7236</v>
       </c>
       <c r="E59">
         <f t="shared" si="21"/>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="T59" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236</v>
       </c>
       <c r="U59" t="str">
         <f t="shared" si="16"/>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="18"/>
-        <v>"58":6236</v>
+        <v>"58":7236</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="19"/>
@@ -7247,11 +7247,11 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>6247</v>
+        <v>7247</v>
       </c>
       <c r="D60">
         <f t="shared" si="20"/>
-        <v>6247</v>
+        <v>7247</v>
       </c>
       <c r="E60">
         <f t="shared" si="21"/>
@@ -7303,7 +7303,7 @@
       </c>
       <c r="T60" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247</v>
       </c>
       <c r="U60" t="str">
         <f t="shared" si="16"/>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="V60" t="str">
         <f t="shared" si="18"/>
-        <v>"59":6247</v>
+        <v>"59":7247</v>
       </c>
       <c r="W60" t="str">
         <f t="shared" si="19"/>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="T61" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15</v>
       </c>
       <c r="U61" t="str">
         <f t="shared" si="16"/>
@@ -7399,11 +7399,11 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>7297</v>
+        <v>8297</v>
       </c>
       <c r="D62">
         <f t="shared" si="20"/>
-        <v>7297</v>
+        <v>8297</v>
       </c>
       <c r="E62">
         <f t="shared" si="21"/>
@@ -7455,7 +7455,7 @@
       </c>
       <c r="T62" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297</v>
       </c>
       <c r="U62" t="str">
         <f t="shared" si="16"/>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="V62" t="str">
         <f t="shared" si="18"/>
-        <v>"61":7297</v>
+        <v>"61":8297</v>
       </c>
       <c r="W62" t="str">
         <f t="shared" si="19"/>
@@ -7475,11 +7475,11 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>7308</v>
+        <v>8308</v>
       </c>
       <c r="D63">
         <f t="shared" si="20"/>
-        <v>7308</v>
+        <v>8308</v>
       </c>
       <c r="E63">
         <f t="shared" si="21"/>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="T63" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308</v>
       </c>
       <c r="U63" t="str">
         <f t="shared" si="16"/>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="V63" t="str">
         <f t="shared" si="18"/>
-        <v>"62":7308</v>
+        <v>"62":8308</v>
       </c>
       <c r="W63" t="str">
         <f t="shared" si="19"/>
@@ -7551,11 +7551,11 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>7319</v>
+        <v>8319</v>
       </c>
       <c r="D64">
         <f t="shared" si="20"/>
-        <v>7319</v>
+        <v>8319</v>
       </c>
       <c r="E64">
         <f t="shared" si="21"/>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="T64" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319</v>
       </c>
       <c r="U64" t="str">
         <f t="shared" si="16"/>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="V64" t="str">
         <f t="shared" si="18"/>
-        <v>"63":7319</v>
+        <v>"63":8319</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="19"/>
@@ -7627,11 +7627,11 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>7330</v>
+        <v>8330</v>
       </c>
       <c r="D65">
         <f t="shared" si="20"/>
-        <v>7330</v>
+        <v>8330</v>
       </c>
       <c r="E65">
         <f t="shared" si="21"/>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="T65" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330</v>
       </c>
       <c r="U65" t="str">
         <f t="shared" si="16"/>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="V65" t="str">
         <f t="shared" si="18"/>
-        <v>"64":7330</v>
+        <v>"64":8330</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" si="19"/>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="T66" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7</v>
       </c>
       <c r="U66" t="str">
         <f t="shared" si="16"/>
@@ -7789,14 +7789,14 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>7341</v>
+        <v>8341</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D98" si="25">IF(NOT(ISBLANK(B67)),"삭",
 IF(MOD(A66,10)=0,D65+1050,
 IF(MOD(A66,10)=5,D65+11,
 D66+11)))</f>
-        <v>7341</v>
+        <v>8341</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E98" si="26">E66+3</f>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="T67" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341</v>
       </c>
       <c r="U67" t="str">
         <f t="shared" si="16"/>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="V67" t="str">
         <f t="shared" si="23"/>
-        <v>"66":7341</v>
+        <v>"66":8341</v>
       </c>
       <c r="W67" t="str">
         <f t="shared" si="24"/>
@@ -7868,11 +7868,11 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>7352</v>
+        <v>8352</v>
       </c>
       <c r="D68">
         <f t="shared" si="25"/>
-        <v>7352</v>
+        <v>8352</v>
       </c>
       <c r="E68">
         <f t="shared" si="26"/>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="T68" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352</v>
       </c>
       <c r="U68" t="str">
         <f t="shared" si="16"/>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="V68" t="str">
         <f t="shared" si="23"/>
-        <v>"67":7352</v>
+        <v>"67":8352</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" si="24"/>
@@ -7944,11 +7944,11 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>7363</v>
+        <v>8363</v>
       </c>
       <c r="D69">
         <f t="shared" si="25"/>
-        <v>7363</v>
+        <v>8363</v>
       </c>
       <c r="E69">
         <f t="shared" si="26"/>
@@ -8000,7 +8000,7 @@
       </c>
       <c r="T69" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363</v>
       </c>
       <c r="U69" t="str">
         <f t="shared" si="16"/>
@@ -8008,7 +8008,7 @@
       </c>
       <c r="V69" t="str">
         <f t="shared" si="23"/>
-        <v>"68":7363</v>
+        <v>"68":8363</v>
       </c>
       <c r="W69" t="str">
         <f t="shared" si="24"/>
@@ -8020,11 +8020,11 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>7374</v>
+        <v>8374</v>
       </c>
       <c r="D70">
         <f t="shared" si="25"/>
-        <v>7374</v>
+        <v>8374</v>
       </c>
       <c r="E70">
         <f t="shared" si="26"/>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="T70" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="16"/>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="V70" t="str">
         <f t="shared" si="23"/>
-        <v>"69":7374</v>
+        <v>"69":8374</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="24"/>
@@ -8152,7 +8152,7 @@
       </c>
       <c r="T71" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15</v>
       </c>
       <c r="U71" t="str">
         <f t="shared" si="16"/>
@@ -8172,11 +8172,11 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>8424</v>
+        <v>9424</v>
       </c>
       <c r="D72">
         <f t="shared" si="25"/>
-        <v>8424</v>
+        <v>9424</v>
       </c>
       <c r="E72">
         <f t="shared" si="26"/>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="T72" t="str">
         <f t="shared" si="15"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="16"/>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="V72" t="str">
         <f t="shared" si="23"/>
-        <v>"71":8424</v>
+        <v>"71":9424</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="24"/>
@@ -8248,11 +8248,11 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>8435</v>
+        <v>9435</v>
       </c>
       <c r="D73">
         <f t="shared" si="25"/>
-        <v>8435</v>
+        <v>9435</v>
       </c>
       <c r="E73">
         <f t="shared" si="26"/>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="T73" t="str">
         <f t="shared" ref="T73:T136" si="34">T72&amp;","&amp;V73</f>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435</v>
       </c>
       <c r="U73" t="str">
         <f t="shared" ref="U73:U136" si="35">U72&amp;","&amp;W73</f>
@@ -8312,7 +8312,7 @@
       </c>
       <c r="V73" t="str">
         <f t="shared" si="23"/>
-        <v>"72":8435</v>
+        <v>"72":9435</v>
       </c>
       <c r="W73" t="str">
         <f t="shared" si="24"/>
@@ -8324,11 +8324,11 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>8446</v>
+        <v>9446</v>
       </c>
       <c r="D74">
         <f t="shared" si="25"/>
-        <v>8446</v>
+        <v>9446</v>
       </c>
       <c r="E74">
         <f t="shared" si="26"/>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="T74" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446</v>
       </c>
       <c r="U74" t="str">
         <f t="shared" si="35"/>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="V74" t="str">
         <f t="shared" si="23"/>
-        <v>"73":8446</v>
+        <v>"73":9446</v>
       </c>
       <c r="W74" t="str">
         <f t="shared" si="24"/>
@@ -8400,11 +8400,11 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>8457</v>
+        <v>9457</v>
       </c>
       <c r="D75">
         <f t="shared" si="25"/>
-        <v>8457</v>
+        <v>9457</v>
       </c>
       <c r="E75">
         <f t="shared" si="26"/>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="T75" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457</v>
       </c>
       <c r="U75" t="str">
         <f t="shared" si="35"/>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="V75" t="str">
         <f t="shared" si="23"/>
-        <v>"74":8457</v>
+        <v>"74":9457</v>
       </c>
       <c r="W75" t="str">
         <f t="shared" si="24"/>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="T76" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7</v>
       </c>
       <c r="U76" t="str">
         <f t="shared" si="35"/>
@@ -8552,11 +8552,11 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>8468</v>
+        <v>9468</v>
       </c>
       <c r="D77">
         <f t="shared" si="25"/>
-        <v>8468</v>
+        <v>9468</v>
       </c>
       <c r="E77">
         <f t="shared" si="26"/>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="T77" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468</v>
       </c>
       <c r="U77" t="str">
         <f t="shared" si="35"/>
@@ -8616,7 +8616,7 @@
       </c>
       <c r="V77" t="str">
         <f t="shared" si="23"/>
-        <v>"76":8468</v>
+        <v>"76":9468</v>
       </c>
       <c r="W77" t="str">
         <f t="shared" si="24"/>
@@ -8628,11 +8628,11 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>8479</v>
+        <v>9479</v>
       </c>
       <c r="D78">
         <f t="shared" si="25"/>
-        <v>8479</v>
+        <v>9479</v>
       </c>
       <c r="E78">
         <f t="shared" si="26"/>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="T78" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479</v>
       </c>
       <c r="U78" t="str">
         <f t="shared" si="35"/>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="V78" t="str">
         <f t="shared" si="23"/>
-        <v>"77":8479</v>
+        <v>"77":9479</v>
       </c>
       <c r="W78" t="str">
         <f t="shared" si="24"/>
@@ -8704,11 +8704,11 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>8490</v>
+        <v>9490</v>
       </c>
       <c r="D79">
         <f t="shared" si="25"/>
-        <v>8490</v>
+        <v>9490</v>
       </c>
       <c r="E79">
         <f t="shared" si="26"/>
@@ -8760,7 +8760,7 @@
       </c>
       <c r="T79" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490</v>
       </c>
       <c r="U79" t="str">
         <f t="shared" si="35"/>
@@ -8768,7 +8768,7 @@
       </c>
       <c r="V79" t="str">
         <f t="shared" si="23"/>
-        <v>"78":8490</v>
+        <v>"78":9490</v>
       </c>
       <c r="W79" t="str">
         <f t="shared" si="24"/>
@@ -8780,11 +8780,11 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>8501</v>
+        <v>9501</v>
       </c>
       <c r="D80">
         <f t="shared" si="25"/>
-        <v>8501</v>
+        <v>9501</v>
       </c>
       <c r="E80">
         <f t="shared" si="26"/>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="T80" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501</v>
       </c>
       <c r="U80" t="str">
         <f t="shared" si="35"/>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="V80" t="str">
         <f t="shared" si="23"/>
-        <v>"79":8501</v>
+        <v>"79":9501</v>
       </c>
       <c r="W80" t="str">
         <f t="shared" si="24"/>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="T81" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15</v>
       </c>
       <c r="U81" t="str">
         <f t="shared" si="35"/>
@@ -8932,11 +8932,11 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>9551</v>
+        <v>10551</v>
       </c>
       <c r="D82">
         <f t="shared" si="25"/>
-        <v>9551</v>
+        <v>10551</v>
       </c>
       <c r="E82">
         <f t="shared" si="26"/>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="T82" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551</v>
       </c>
       <c r="U82" t="str">
         <f t="shared" si="35"/>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="V82" t="str">
         <f t="shared" si="23"/>
-        <v>"81":9551</v>
+        <v>"81":10551</v>
       </c>
       <c r="W82" t="str">
         <f t="shared" si="24"/>
@@ -9009,11 +9009,11 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>9562</v>
+        <v>10562</v>
       </c>
       <c r="D83">
         <f t="shared" si="25"/>
-        <v>9562</v>
+        <v>10562</v>
       </c>
       <c r="E83">
         <f t="shared" si="26"/>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="T83" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562</v>
       </c>
       <c r="U83" t="str">
         <f t="shared" si="35"/>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="V83" t="str">
         <f t="shared" si="23"/>
-        <v>"82":9562</v>
+        <v>"82":10562</v>
       </c>
       <c r="W83" t="str">
         <f t="shared" si="24"/>
@@ -9086,11 +9086,11 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>9573</v>
+        <v>10573</v>
       </c>
       <c r="D84">
         <f t="shared" si="25"/>
-        <v>9573</v>
+        <v>10573</v>
       </c>
       <c r="E84">
         <f t="shared" si="26"/>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="T84" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573</v>
       </c>
       <c r="U84" t="str">
         <f t="shared" si="35"/>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="V84" t="str">
         <f t="shared" si="23"/>
-        <v>"83":9573</v>
+        <v>"83":10573</v>
       </c>
       <c r="W84" t="str">
         <f t="shared" si="24"/>
@@ -9163,11 +9163,11 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>9584</v>
+        <v>10584</v>
       </c>
       <c r="D85">
         <f t="shared" si="25"/>
-        <v>9584</v>
+        <v>10584</v>
       </c>
       <c r="E85">
         <f t="shared" si="26"/>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="T85" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584</v>
       </c>
       <c r="U85" t="str">
         <f t="shared" si="35"/>
@@ -9228,7 +9228,7 @@
       </c>
       <c r="V85" t="str">
         <f t="shared" si="23"/>
-        <v>"84":9584</v>
+        <v>"84":10584</v>
       </c>
       <c r="W85" t="str">
         <f t="shared" si="24"/>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="T86" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7</v>
       </c>
       <c r="U86" t="str">
         <f t="shared" si="35"/>
@@ -9317,11 +9317,11 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>9595</v>
+        <v>10595</v>
       </c>
       <c r="D87">
         <f t="shared" si="25"/>
-        <v>9595</v>
+        <v>10595</v>
       </c>
       <c r="E87">
         <f t="shared" si="26"/>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="T87" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595</v>
       </c>
       <c r="U87" t="str">
         <f t="shared" si="35"/>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="V87" t="str">
         <f t="shared" si="23"/>
-        <v>"86":9595</v>
+        <v>"86":10595</v>
       </c>
       <c r="W87" t="str">
         <f t="shared" si="24"/>
@@ -9394,11 +9394,11 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>9606</v>
+        <v>10606</v>
       </c>
       <c r="D88">
         <f t="shared" si="25"/>
-        <v>9606</v>
+        <v>10606</v>
       </c>
       <c r="E88">
         <f t="shared" si="26"/>
@@ -9451,7 +9451,7 @@
       </c>
       <c r="T88" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606</v>
       </c>
       <c r="U88" t="str">
         <f t="shared" si="35"/>
@@ -9459,7 +9459,7 @@
       </c>
       <c r="V88" t="str">
         <f t="shared" si="23"/>
-        <v>"87":9606</v>
+        <v>"87":10606</v>
       </c>
       <c r="W88" t="str">
         <f t="shared" si="24"/>
@@ -9471,11 +9471,11 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>9617</v>
+        <v>10617</v>
       </c>
       <c r="D89">
         <f t="shared" si="25"/>
-        <v>9617</v>
+        <v>10617</v>
       </c>
       <c r="E89">
         <f t="shared" si="26"/>
@@ -9528,7 +9528,7 @@
       </c>
       <c r="T89" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617</v>
       </c>
       <c r="U89" t="str">
         <f t="shared" si="35"/>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="V89" t="str">
         <f t="shared" si="23"/>
-        <v>"88":9617</v>
+        <v>"88":10617</v>
       </c>
       <c r="W89" t="str">
         <f t="shared" si="24"/>
@@ -9548,11 +9548,11 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>9628</v>
+        <v>10628</v>
       </c>
       <c r="D90">
         <f t="shared" si="25"/>
-        <v>9628</v>
+        <v>10628</v>
       </c>
       <c r="E90">
         <f t="shared" si="26"/>
@@ -9605,7 +9605,7 @@
       </c>
       <c r="T90" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628</v>
       </c>
       <c r="U90" t="str">
         <f t="shared" si="35"/>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="V90" t="str">
         <f t="shared" si="23"/>
-        <v>"89":9628</v>
+        <v>"89":10628</v>
       </c>
       <c r="W90" t="str">
         <f t="shared" si="24"/>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="T91" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15</v>
       </c>
       <c r="U91" t="str">
         <f t="shared" si="35"/>
@@ -9702,11 +9702,11 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>10678</v>
+        <v>11678</v>
       </c>
       <c r="D92">
         <f t="shared" si="25"/>
-        <v>10678</v>
+        <v>11678</v>
       </c>
       <c r="E92">
         <f t="shared" si="26"/>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="T92" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678</v>
       </c>
       <c r="U92" t="str">
         <f t="shared" si="35"/>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="V92" t="str">
         <f t="shared" si="23"/>
-        <v>"91":10678</v>
+        <v>"91":11678</v>
       </c>
       <c r="W92" t="str">
         <f t="shared" si="24"/>
@@ -9779,11 +9779,11 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>10689</v>
+        <v>11689</v>
       </c>
       <c r="D93">
         <f t="shared" si="25"/>
-        <v>10689</v>
+        <v>11689</v>
       </c>
       <c r="E93">
         <f t="shared" si="26"/>
@@ -9836,7 +9836,7 @@
       </c>
       <c r="T93" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689</v>
       </c>
       <c r="U93" t="str">
         <f t="shared" si="35"/>
@@ -9844,7 +9844,7 @@
       </c>
       <c r="V93" t="str">
         <f t="shared" si="23"/>
-        <v>"92":10689</v>
+        <v>"92":11689</v>
       </c>
       <c r="W93" t="str">
         <f t="shared" si="24"/>
@@ -9856,11 +9856,11 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>10700</v>
+        <v>11700</v>
       </c>
       <c r="D94">
         <f t="shared" si="25"/>
-        <v>10700</v>
+        <v>11700</v>
       </c>
       <c r="E94">
         <f t="shared" si="26"/>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="T94" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700</v>
       </c>
       <c r="U94" t="str">
         <f t="shared" si="35"/>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="V94" t="str">
         <f t="shared" si="23"/>
-        <v>"93":10700</v>
+        <v>"93":11700</v>
       </c>
       <c r="W94" t="str">
         <f t="shared" si="24"/>
@@ -9933,11 +9933,11 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>10711</v>
+        <v>11711</v>
       </c>
       <c r="D95">
         <f t="shared" si="25"/>
-        <v>10711</v>
+        <v>11711</v>
       </c>
       <c r="E95">
         <f t="shared" si="26"/>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="T95" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711</v>
       </c>
       <c r="U95" t="str">
         <f t="shared" si="35"/>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="V95" t="str">
         <f t="shared" si="23"/>
-        <v>"94":10711</v>
+        <v>"94":11711</v>
       </c>
       <c r="W95" t="str">
         <f t="shared" si="24"/>
@@ -10067,7 +10067,7 @@
       </c>
       <c r="T96" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7</v>
       </c>
       <c r="U96" t="str">
         <f t="shared" si="35"/>
@@ -10087,11 +10087,11 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>10722</v>
+        <v>11722</v>
       </c>
       <c r="D97">
         <f t="shared" si="25"/>
-        <v>10722</v>
+        <v>11722</v>
       </c>
       <c r="E97">
         <f t="shared" si="26"/>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="T97" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722</v>
       </c>
       <c r="U97" t="str">
         <f t="shared" si="35"/>
@@ -10152,7 +10152,7 @@
       </c>
       <c r="V97" t="str">
         <f t="shared" si="23"/>
-        <v>"96":10722</v>
+        <v>"96":11722</v>
       </c>
       <c r="W97" t="str">
         <f t="shared" si="24"/>
@@ -10164,11 +10164,11 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>10733</v>
+        <v>11733</v>
       </c>
       <c r="D98">
         <f t="shared" si="25"/>
-        <v>10733</v>
+        <v>11733</v>
       </c>
       <c r="E98">
         <f t="shared" si="26"/>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="T98" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733</v>
       </c>
       <c r="U98" t="str">
         <f t="shared" si="35"/>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="V98" t="str">
         <f t="shared" ref="V98:V129" si="38">""""&amp;$A98&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B98),C98,B98)</f>
-        <v>"97":10733</v>
+        <v>"97":11733</v>
       </c>
       <c r="W98" t="str">
         <f t="shared" ref="W98:W129" si="39">""""&amp;$A98&amp;""""&amp;""&amp;":"&amp;E98</f>
@@ -10251,14 +10251,14 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>10744</v>
+        <v>11744</v>
       </c>
       <c r="D99">
         <f t="shared" ref="D99:D130" si="40">IF(NOT(ISBLANK(B99)),"삭",
 IF(MOD(A98,10)=0,D97+1050,
 IF(MOD(A98,10)=5,D97+11,
 D98+11)))</f>
-        <v>10744</v>
+        <v>11744</v>
       </c>
       <c r="E99">
         <f t="shared" ref="E99:E130" si="41">E98+3</f>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="T99" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744</v>
       </c>
       <c r="U99" t="str">
         <f t="shared" si="35"/>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="V99" t="str">
         <f t="shared" si="38"/>
-        <v>"98":10744</v>
+        <v>"98":11744</v>
       </c>
       <c r="W99" t="str">
         <f t="shared" si="39"/>
@@ -10331,11 +10331,11 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>10755</v>
+        <v>11755</v>
       </c>
       <c r="D100">
         <f t="shared" si="40"/>
-        <v>10755</v>
+        <v>11755</v>
       </c>
       <c r="E100">
         <f t="shared" si="41"/>
@@ -10388,7 +10388,7 @@
       </c>
       <c r="T100" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755</v>
       </c>
       <c r="U100" t="str">
         <f t="shared" si="35"/>
@@ -10396,7 +10396,7 @@
       </c>
       <c r="V100" t="str">
         <f t="shared" si="38"/>
-        <v>"99":10755</v>
+        <v>"99":11755</v>
       </c>
       <c r="W100" t="str">
         <f t="shared" si="39"/>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="T101" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20</v>
       </c>
       <c r="U101" t="str">
         <f t="shared" si="35"/>
@@ -10485,11 +10485,11 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>11805</v>
+        <v>12805</v>
       </c>
       <c r="D102">
         <f t="shared" si="40"/>
-        <v>11805</v>
+        <v>12805</v>
       </c>
       <c r="E102">
         <f t="shared" si="41"/>
@@ -10542,7 +10542,7 @@
       </c>
       <c r="T102" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805</v>
       </c>
       <c r="U102" t="str">
         <f t="shared" si="35"/>
@@ -10550,7 +10550,7 @@
       </c>
       <c r="V102" t="str">
         <f t="shared" si="38"/>
-        <v>"101":11805</v>
+        <v>"101":12805</v>
       </c>
       <c r="W102" t="str">
         <f t="shared" si="39"/>
@@ -10562,11 +10562,11 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>11816</v>
+        <v>12816</v>
       </c>
       <c r="D103">
         <f t="shared" si="40"/>
-        <v>11816</v>
+        <v>12816</v>
       </c>
       <c r="E103">
         <f t="shared" si="41"/>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="T103" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816</v>
       </c>
       <c r="U103" t="str">
         <f t="shared" si="35"/>
@@ -10627,7 +10627,7 @@
       </c>
       <c r="V103" t="str">
         <f t="shared" si="38"/>
-        <v>"102":11816</v>
+        <v>"102":12816</v>
       </c>
       <c r="W103" t="str">
         <f t="shared" si="39"/>
@@ -10639,11 +10639,11 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>11827</v>
+        <v>12827</v>
       </c>
       <c r="D104">
         <f t="shared" si="40"/>
-        <v>11827</v>
+        <v>12827</v>
       </c>
       <c r="E104">
         <f t="shared" si="41"/>
@@ -10696,7 +10696,7 @@
       </c>
       <c r="T104" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827</v>
       </c>
       <c r="U104" t="str">
         <f t="shared" si="35"/>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="V104" t="str">
         <f t="shared" si="38"/>
-        <v>"103":11827</v>
+        <v>"103":12827</v>
       </c>
       <c r="W104" t="str">
         <f t="shared" si="39"/>
@@ -10716,11 +10716,11 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>11838</v>
+        <v>12838</v>
       </c>
       <c r="D105">
         <f t="shared" si="40"/>
-        <v>11838</v>
+        <v>12838</v>
       </c>
       <c r="E105">
         <f t="shared" si="41"/>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="T105" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838</v>
       </c>
       <c r="U105" t="str">
         <f t="shared" si="35"/>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="V105" t="str">
         <f t="shared" si="38"/>
-        <v>"104":11838</v>
+        <v>"104":12838</v>
       </c>
       <c r="W105" t="str">
         <f t="shared" si="39"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="T106" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10</v>
       </c>
       <c r="U106" t="str">
         <f t="shared" si="35"/>
@@ -10870,11 +10870,11 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <v>11849</v>
+        <v>12849</v>
       </c>
       <c r="D107">
         <f t="shared" si="40"/>
-        <v>11849</v>
+        <v>12849</v>
       </c>
       <c r="E107">
         <f t="shared" si="41"/>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="T107" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849</v>
       </c>
       <c r="U107" t="str">
         <f t="shared" si="35"/>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="V107" t="str">
         <f t="shared" si="38"/>
-        <v>"106":11849</v>
+        <v>"106":12849</v>
       </c>
       <c r="W107" t="str">
         <f t="shared" si="39"/>
@@ -10947,11 +10947,11 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <v>11860</v>
+        <v>12860</v>
       </c>
       <c r="D108">
         <f t="shared" si="40"/>
-        <v>11860</v>
+        <v>12860</v>
       </c>
       <c r="E108">
         <f t="shared" si="41"/>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="T108" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860</v>
       </c>
       <c r="U108" t="str">
         <f t="shared" si="35"/>
@@ -11012,7 +11012,7 @@
       </c>
       <c r="V108" t="str">
         <f t="shared" si="38"/>
-        <v>"107":11860</v>
+        <v>"107":12860</v>
       </c>
       <c r="W108" t="str">
         <f t="shared" si="39"/>
@@ -11024,11 +11024,11 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>11871</v>
+        <v>12871</v>
       </c>
       <c r="D109">
         <f t="shared" si="40"/>
-        <v>11871</v>
+        <v>12871</v>
       </c>
       <c r="E109">
         <f t="shared" si="41"/>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="T109" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871</v>
       </c>
       <c r="U109" t="str">
         <f t="shared" si="35"/>
@@ -11089,7 +11089,7 @@
       </c>
       <c r="V109" t="str">
         <f t="shared" si="38"/>
-        <v>"108":11871</v>
+        <v>"108":12871</v>
       </c>
       <c r="W109" t="str">
         <f t="shared" si="39"/>
@@ -11101,11 +11101,11 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>11882</v>
+        <v>12882</v>
       </c>
       <c r="D110">
         <f t="shared" si="40"/>
-        <v>11882</v>
+        <v>12882</v>
       </c>
       <c r="E110">
         <f t="shared" si="41"/>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="T110" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882</v>
       </c>
       <c r="U110" t="str">
         <f t="shared" si="35"/>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="V110" t="str">
         <f t="shared" si="38"/>
-        <v>"109":11882</v>
+        <v>"109":12882</v>
       </c>
       <c r="W110" t="str">
         <f t="shared" si="39"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="T111" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20</v>
       </c>
       <c r="U111" t="str">
         <f t="shared" si="35"/>
@@ -11255,11 +11255,11 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>12932</v>
+        <v>13932</v>
       </c>
       <c r="D112">
         <f t="shared" si="40"/>
-        <v>12932</v>
+        <v>13932</v>
       </c>
       <c r="E112">
         <f t="shared" si="41"/>
@@ -11312,7 +11312,7 @@
       </c>
       <c r="T112" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932</v>
       </c>
       <c r="U112" t="str">
         <f t="shared" si="35"/>
@@ -11320,7 +11320,7 @@
       </c>
       <c r="V112" t="str">
         <f t="shared" si="38"/>
-        <v>"111":12932</v>
+        <v>"111":13932</v>
       </c>
       <c r="W112" t="str">
         <f t="shared" si="39"/>
@@ -11332,11 +11332,11 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>12943</v>
+        <v>13943</v>
       </c>
       <c r="D113">
         <f t="shared" si="40"/>
-        <v>12943</v>
+        <v>13943</v>
       </c>
       <c r="E113">
         <f t="shared" si="41"/>
@@ -11389,7 +11389,7 @@
       </c>
       <c r="T113" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943</v>
       </c>
       <c r="U113" t="str">
         <f t="shared" si="35"/>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="V113" t="str">
         <f t="shared" si="38"/>
-        <v>"112":12943</v>
+        <v>"112":13943</v>
       </c>
       <c r="W113" t="str">
         <f t="shared" si="39"/>
@@ -11409,11 +11409,11 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <v>12954</v>
+        <v>13954</v>
       </c>
       <c r="D114">
         <f t="shared" si="40"/>
-        <v>12954</v>
+        <v>13954</v>
       </c>
       <c r="E114">
         <f t="shared" si="41"/>
@@ -11466,7 +11466,7 @@
       </c>
       <c r="T114" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954</v>
       </c>
       <c r="U114" t="str">
         <f t="shared" si="35"/>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="V114" t="str">
         <f t="shared" si="38"/>
-        <v>"113":12954</v>
+        <v>"113":13954</v>
       </c>
       <c r="W114" t="str">
         <f t="shared" si="39"/>
@@ -11486,11 +11486,11 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>12965</v>
+        <v>13965</v>
       </c>
       <c r="D115">
         <f t="shared" si="40"/>
-        <v>12965</v>
+        <v>13965</v>
       </c>
       <c r="E115">
         <f t="shared" si="41"/>
@@ -11543,7 +11543,7 @@
       </c>
       <c r="T115" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965</v>
       </c>
       <c r="U115" t="str">
         <f t="shared" si="35"/>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="V115" t="str">
         <f t="shared" si="38"/>
-        <v>"114":12965</v>
+        <v>"114":13965</v>
       </c>
       <c r="W115" t="str">
         <f t="shared" si="39"/>
@@ -11620,7 +11620,7 @@
       </c>
       <c r="T116" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10</v>
       </c>
       <c r="U116" t="str">
         <f t="shared" si="35"/>
@@ -11640,11 +11640,11 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>12976</v>
+        <v>13976</v>
       </c>
       <c r="D117">
         <f t="shared" si="40"/>
-        <v>12976</v>
+        <v>13976</v>
       </c>
       <c r="E117">
         <f t="shared" si="41"/>
@@ -11697,7 +11697,7 @@
       </c>
       <c r="T117" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976</v>
       </c>
       <c r="U117" t="str">
         <f t="shared" si="35"/>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="V117" t="str">
         <f t="shared" si="38"/>
-        <v>"116":12976</v>
+        <v>"116":13976</v>
       </c>
       <c r="W117" t="str">
         <f t="shared" si="39"/>
@@ -11717,11 +11717,11 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>12987</v>
+        <v>13987</v>
       </c>
       <c r="D118">
         <f t="shared" si="40"/>
-        <v>12987</v>
+        <v>13987</v>
       </c>
       <c r="E118">
         <f t="shared" si="41"/>
@@ -11774,7 +11774,7 @@
       </c>
       <c r="T118" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987</v>
       </c>
       <c r="U118" t="str">
         <f t="shared" si="35"/>
@@ -11782,7 +11782,7 @@
       </c>
       <c r="V118" t="str">
         <f t="shared" si="38"/>
-        <v>"117":12987</v>
+        <v>"117":13987</v>
       </c>
       <c r="W118" t="str">
         <f t="shared" si="39"/>
@@ -11794,11 +11794,11 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>12998</v>
+        <v>13998</v>
       </c>
       <c r="D119">
         <f t="shared" si="40"/>
-        <v>12998</v>
+        <v>13998</v>
       </c>
       <c r="E119">
         <f t="shared" si="41"/>
@@ -11851,7 +11851,7 @@
       </c>
       <c r="T119" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998</v>
       </c>
       <c r="U119" t="str">
         <f t="shared" si="35"/>
@@ -11859,7 +11859,7 @@
       </c>
       <c r="V119" t="str">
         <f t="shared" si="38"/>
-        <v>"118":12998</v>
+        <v>"118":13998</v>
       </c>
       <c r="W119" t="str">
         <f t="shared" si="39"/>
@@ -11871,11 +11871,11 @@
         <v>119</v>
       </c>
       <c r="C120">
-        <v>13009</v>
+        <v>14009</v>
       </c>
       <c r="D120">
         <f t="shared" si="40"/>
-        <v>13009</v>
+        <v>14009</v>
       </c>
       <c r="E120">
         <f t="shared" si="41"/>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="T120" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009</v>
       </c>
       <c r="U120" t="str">
         <f t="shared" si="35"/>
@@ -11936,7 +11936,7 @@
       </c>
       <c r="V120" t="str">
         <f t="shared" si="38"/>
-        <v>"119":13009</v>
+        <v>"119":14009</v>
       </c>
       <c r="W120" t="str">
         <f t="shared" si="39"/>
@@ -12005,7 +12005,7 @@
       </c>
       <c r="T121" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20</v>
       </c>
       <c r="U121" t="str">
         <f t="shared" si="35"/>
@@ -12025,11 +12025,11 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <v>14059</v>
+        <v>15059</v>
       </c>
       <c r="D122">
         <f t="shared" si="40"/>
-        <v>14059</v>
+        <v>15059</v>
       </c>
       <c r="E122">
         <f t="shared" si="41"/>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="T122" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059</v>
       </c>
       <c r="U122" t="str">
         <f t="shared" si="35"/>
@@ -12090,7 +12090,7 @@
       </c>
       <c r="V122" t="str">
         <f t="shared" si="38"/>
-        <v>"121":14059</v>
+        <v>"121":15059</v>
       </c>
       <c r="W122" t="str">
         <f t="shared" si="39"/>
@@ -12102,11 +12102,11 @@
         <v>122</v>
       </c>
       <c r="C123">
-        <v>14070</v>
+        <v>15070</v>
       </c>
       <c r="D123">
         <f t="shared" si="40"/>
-        <v>14070</v>
+        <v>15070</v>
       </c>
       <c r="E123">
         <f t="shared" si="41"/>
@@ -12159,7 +12159,7 @@
       </c>
       <c r="T123" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070</v>
       </c>
       <c r="U123" t="str">
         <f t="shared" si="35"/>
@@ -12167,7 +12167,7 @@
       </c>
       <c r="V123" t="str">
         <f t="shared" si="38"/>
-        <v>"122":14070</v>
+        <v>"122":15070</v>
       </c>
       <c r="W123" t="str">
         <f t="shared" si="39"/>
@@ -12179,11 +12179,11 @@
         <v>123</v>
       </c>
       <c r="C124">
-        <v>14081</v>
+        <v>15081</v>
       </c>
       <c r="D124">
         <f t="shared" si="40"/>
-        <v>14081</v>
+        <v>15081</v>
       </c>
       <c r="E124">
         <f t="shared" si="41"/>
@@ -12236,7 +12236,7 @@
       </c>
       <c r="T124" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081</v>
       </c>
       <c r="U124" t="str">
         <f t="shared" si="35"/>
@@ -12244,7 +12244,7 @@
       </c>
       <c r="V124" t="str">
         <f t="shared" si="38"/>
-        <v>"123":14081</v>
+        <v>"123":15081</v>
       </c>
       <c r="W124" t="str">
         <f t="shared" si="39"/>
@@ -12256,11 +12256,11 @@
         <v>124</v>
       </c>
       <c r="C125">
-        <v>14092</v>
+        <v>15092</v>
       </c>
       <c r="D125">
         <f t="shared" si="40"/>
-        <v>14092</v>
+        <v>15092</v>
       </c>
       <c r="E125">
         <f t="shared" si="41"/>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="T125" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092</v>
       </c>
       <c r="U125" t="str">
         <f t="shared" si="35"/>
@@ -12321,7 +12321,7 @@
       </c>
       <c r="V125" t="str">
         <f t="shared" si="38"/>
-        <v>"124":14092</v>
+        <v>"124":15092</v>
       </c>
       <c r="W125" t="str">
         <f t="shared" si="39"/>
@@ -12390,7 +12390,7 @@
       </c>
       <c r="T126" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10</v>
       </c>
       <c r="U126" t="str">
         <f t="shared" si="35"/>
@@ -12410,11 +12410,11 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <v>14103</v>
+        <v>15103</v>
       </c>
       <c r="D127">
         <f t="shared" si="40"/>
-        <v>14103</v>
+        <v>15103</v>
       </c>
       <c r="E127">
         <f t="shared" si="41"/>
@@ -12467,7 +12467,7 @@
       </c>
       <c r="T127" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103</v>
       </c>
       <c r="U127" t="str">
         <f t="shared" si="35"/>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="V127" t="str">
         <f t="shared" si="38"/>
-        <v>"126":14103</v>
+        <v>"126":15103</v>
       </c>
       <c r="W127" t="str">
         <f t="shared" si="39"/>
@@ -12487,11 +12487,11 @@
         <v>127</v>
       </c>
       <c r="C128">
-        <v>14114</v>
+        <v>15114</v>
       </c>
       <c r="D128">
         <f t="shared" si="40"/>
-        <v>14114</v>
+        <v>15114</v>
       </c>
       <c r="E128">
         <f t="shared" si="41"/>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="T128" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114</v>
       </c>
       <c r="U128" t="str">
         <f t="shared" si="35"/>
@@ -12552,7 +12552,7 @@
       </c>
       <c r="V128" t="str">
         <f t="shared" si="38"/>
-        <v>"127":14114</v>
+        <v>"127":15114</v>
       </c>
       <c r="W128" t="str">
         <f t="shared" si="39"/>
@@ -12564,11 +12564,11 @@
         <v>128</v>
       </c>
       <c r="C129">
-        <v>14125</v>
+        <v>15125</v>
       </c>
       <c r="D129">
         <f t="shared" si="40"/>
-        <v>14125</v>
+        <v>15125</v>
       </c>
       <c r="E129">
         <f t="shared" si="41"/>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="T129" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125</v>
       </c>
       <c r="U129" t="str">
         <f t="shared" si="35"/>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="V129" t="str">
         <f t="shared" si="38"/>
-        <v>"128":14125</v>
+        <v>"128":15125</v>
       </c>
       <c r="W129" t="str">
         <f t="shared" si="39"/>
@@ -12641,11 +12641,11 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <v>14136</v>
+        <v>15136</v>
       </c>
       <c r="D130">
         <f t="shared" si="40"/>
-        <v>14136</v>
+        <v>15136</v>
       </c>
       <c r="E130">
         <f t="shared" si="41"/>
@@ -12708,7 +12708,7 @@
       </c>
       <c r="T130" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136</v>
       </c>
       <c r="U130" t="str">
         <f t="shared" si="35"/>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="V130" t="str">
         <f t="shared" ref="V130:V151" si="43">""""&amp;$A130&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B130),C130,B130)</f>
-        <v>"129":14136</v>
+        <v>"129":15136</v>
       </c>
       <c r="W130" t="str">
         <f t="shared" ref="W130:W151" si="44">""""&amp;$A130&amp;""""&amp;""&amp;":"&amp;E130</f>
@@ -12731,7 +12731,7 @@
         <v>20</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D162" si="45">IF(NOT(ISBLANK(B131)),"삭",
+        <f t="shared" ref="D131:D151" si="45">IF(NOT(ISBLANK(B131)),"삭",
 IF(MOD(A130,10)=0,D129+1050,
 IF(MOD(A130,10)=5,D129+11,
 D130+11)))</f>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="T131" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20</v>
       </c>
       <c r="U131" t="str">
         <f t="shared" si="35"/>
@@ -12808,11 +12808,11 @@
         <v>131</v>
       </c>
       <c r="C132">
-        <v>15186</v>
+        <v>16186</v>
       </c>
       <c r="D132">
         <f t="shared" si="45"/>
-        <v>15186</v>
+        <v>16186</v>
       </c>
       <c r="E132">
         <f t="shared" si="46"/>
@@ -12865,7 +12865,7 @@
       </c>
       <c r="T132" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186</v>
       </c>
       <c r="U132" t="str">
         <f t="shared" si="35"/>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="V132" t="str">
         <f t="shared" si="43"/>
-        <v>"131":15186</v>
+        <v>"131":16186</v>
       </c>
       <c r="W132" t="str">
         <f t="shared" si="44"/>
@@ -12885,11 +12885,11 @@
         <v>132</v>
       </c>
       <c r="C133">
-        <v>15197</v>
+        <v>16197</v>
       </c>
       <c r="D133">
         <f t="shared" si="45"/>
-        <v>15197</v>
+        <v>16197</v>
       </c>
       <c r="E133">
         <f t="shared" si="46"/>
@@ -12942,7 +12942,7 @@
       </c>
       <c r="T133" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197</v>
       </c>
       <c r="U133" t="str">
         <f t="shared" si="35"/>
@@ -12950,7 +12950,7 @@
       </c>
       <c r="V133" t="str">
         <f t="shared" si="43"/>
-        <v>"132":15197</v>
+        <v>"132":16197</v>
       </c>
       <c r="W133" t="str">
         <f t="shared" si="44"/>
@@ -12962,11 +12962,11 @@
         <v>133</v>
       </c>
       <c r="C134">
-        <v>15208</v>
+        <v>16208</v>
       </c>
       <c r="D134">
         <f t="shared" si="45"/>
-        <v>15208</v>
+        <v>16208</v>
       </c>
       <c r="E134">
         <f t="shared" si="46"/>
@@ -13019,7 +13019,7 @@
       </c>
       <c r="T134" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208</v>
       </c>
       <c r="U134" t="str">
         <f t="shared" si="35"/>
@@ -13027,7 +13027,7 @@
       </c>
       <c r="V134" t="str">
         <f t="shared" si="43"/>
-        <v>"133":15208</v>
+        <v>"133":16208</v>
       </c>
       <c r="W134" t="str">
         <f t="shared" si="44"/>
@@ -13039,11 +13039,11 @@
         <v>134</v>
       </c>
       <c r="C135">
-        <v>15219</v>
+        <v>16219</v>
       </c>
       <c r="D135">
         <f t="shared" si="45"/>
-        <v>15219</v>
+        <v>16219</v>
       </c>
       <c r="E135">
         <f t="shared" si="46"/>
@@ -13096,7 +13096,7 @@
       </c>
       <c r="T135" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219</v>
       </c>
       <c r="U135" t="str">
         <f t="shared" si="35"/>
@@ -13104,7 +13104,7 @@
       </c>
       <c r="V135" t="str">
         <f t="shared" si="43"/>
-        <v>"134":15219</v>
+        <v>"134":16219</v>
       </c>
       <c r="W135" t="str">
         <f t="shared" si="44"/>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="T136" t="str">
         <f t="shared" si="34"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10</v>
       </c>
       <c r="U136" t="str">
         <f t="shared" si="35"/>
@@ -13193,11 +13193,11 @@
         <v>136</v>
       </c>
       <c r="C137">
-        <v>15230</v>
+        <v>16230</v>
       </c>
       <c r="D137">
         <f t="shared" si="45"/>
-        <v>15230</v>
+        <v>16230</v>
       </c>
       <c r="E137">
         <f t="shared" si="46"/>
@@ -13250,7 +13250,7 @@
       </c>
       <c r="T137" t="str">
         <f t="shared" ref="T137:T151" si="54">T136&amp;","&amp;V137</f>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230</v>
       </c>
       <c r="U137" t="str">
         <f t="shared" ref="U137:U151" si="55">U136&amp;","&amp;W137</f>
@@ -13258,7 +13258,7 @@
       </c>
       <c r="V137" t="str">
         <f t="shared" si="43"/>
-        <v>"136":15230</v>
+        <v>"136":16230</v>
       </c>
       <c r="W137" t="str">
         <f t="shared" si="44"/>
@@ -13270,11 +13270,11 @@
         <v>137</v>
       </c>
       <c r="C138">
-        <v>15241</v>
+        <v>16241</v>
       </c>
       <c r="D138">
         <f t="shared" si="45"/>
-        <v>15241</v>
+        <v>16241</v>
       </c>
       <c r="E138">
         <f t="shared" si="46"/>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="T138" t="str">
         <f t="shared" si="54"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241</v>
       </c>
       <c r="U138" t="str">
         <f t="shared" si="55"/>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="V138" t="str">
         <f t="shared" si="43"/>
-        <v>"137":15241</v>
+        <v>"137":16241</v>
       </c>
       <c r="W138" t="str">
         <f t="shared" si="44"/>
@@ -13347,11 +13347,11 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <v>15252</v>
+        <v>16252</v>
       </c>
       <c r="D139">
         <f t="shared" si="45"/>
-        <v>15252</v>
+        <v>16252</v>
       </c>
       <c r="E139">
         <f t="shared" si="46"/>
@@ -13404,7 +13404,7 @@
       </c>
       <c r="T139" t="str">
         <f t="shared" si="54"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252</v>
       </c>
       <c r="U139" t="str">
         <f t="shared" si="55"/>
@@ -13412,7 +13412,7 @@
       </c>
       <c r="V139" t="str">
         <f t="shared" si="43"/>
-        <v>"138":15252</v>
+        <v>"138":16252</v>
       </c>
       <c r="W139" t="str">
         <f t="shared" si="44"/>
@@ -13424,11 +13424,11 @@
         <v>139</v>
       </c>
       <c r="C140">
-        <v>15263</v>
+        <v>16263</v>
       </c>
       <c r="D140">
         <f t="shared" si="45"/>
-        <v>15263</v>
+        <v>16263</v>
       </c>
       <c r="E140">
         <f t="shared" si="46"/>
@@ -13481,7 +13481,7 @@
       </c>
       <c r="T140" t="str">
         <f t="shared" si="54"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263</v>
       </c>
       <c r="U140" t="str">
         <f t="shared" si="55"/>
@@ -13489,7 +13489,7 @@
       </c>
       <c r="V140" t="str">
         <f t="shared" si="43"/>
-        <v>"139":15263</v>
+        <v>"139":16263</v>
       </c>
       <c r="W140" t="str">
         <f t="shared" si="44"/>
@@ -13558,7 +13558,7 @@
       </c>
       <c r="T141" t="str">
         <f t="shared" si="54"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20</v>
       </c>
       <c r="U141" t="str">
         <f t="shared" si="55"/>
@@ -13578,11 +13578,11 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <v>16313</v>
+        <v>17313</v>
       </c>
       <c r="D142">
         <f t="shared" si="45"/>
-        <v>16313</v>
+        <v>17313</v>
       </c>
       <c r="E142">
         <f t="shared" si="46"/>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="T142" t="str">
         <f t="shared" si="54"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313</v>
       </c>
       <c r="U142" t="str">
         <f t="shared" si="55"/>
@@ -13643,7 +13643,7 @@
       </c>
       <c r="V142" t="str">
         <f t="shared" si="43"/>
-        <v>"141":16313</v>
+        <v>"141":17313</v>
       </c>
       <c r="W142" t="str">
         <f t="shared" si="44"/>
@@ -13655,11 +13655,11 @@
         <v>142</v>
       </c>
       <c r="C143">
-        <v>16324</v>
+        <v>17324</v>
       </c>
       <c r="D143">
         <f t="shared" si="45"/>
-        <v>16324</v>
+        <v>17324</v>
       </c>
       <c r="E143">
         <f t="shared" si="46"/>
@@ -13712,7 +13712,7 @@
       </c>
       <c r="T143" t="str">
         <f t="shared" si="54"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324</v>
       </c>
       <c r="U143" t="str">
         <f t="shared" si="55"/>
@@ -13720,7 +13720,7 @@
       </c>
       <c r="V143" t="str">
         <f t="shared" si="43"/>
-        <v>"142":16324</v>
+        <v>"142":17324</v>
       </c>
       <c r="W143" t="str">
         <f t="shared" si="44"/>
@@ -13732,11 +13732,11 @@
         <v>143</v>
       </c>
       <c r="C144">
-        <v>16335</v>
+        <v>17335</v>
       </c>
       <c r="D144">
         <f t="shared" si="45"/>
-        <v>16335</v>
+        <v>17335</v>
       </c>
       <c r="E144">
         <f t="shared" si="46"/>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="T144" t="str">
         <f t="shared" si="54"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335</v>
       </c>
       <c r="U144" t="str">
         <f t="shared" si="55"/>
@@ -13797,7 +13797,7 @@
       </c>
       <c r="V144" t="str">
         <f t="shared" si="43"/>
-        <v>"143":16335</v>
+        <v>"143":17335</v>
       </c>
       <c r="W144" t="str">
         <f t="shared" si="44"/>
@@ -13809,11 +13809,11 @@
         <v>144</v>
       </c>
       <c r="C145">
-        <v>16346</v>
+        <v>17346</v>
       </c>
       <c r="D145">
         <f t="shared" si="45"/>
-        <v>16346</v>
+        <v>17346</v>
       </c>
       <c r="E145">
         <f t="shared" si="46"/>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="T145" t="str">
         <f t="shared" si="54"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346</v>
       </c>
       <c r="U145" t="str">
         <f t="shared" si="55"/>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="V145" t="str">
         <f t="shared" si="43"/>
-        <v>"144":16346</v>
+        <v>"144":17346</v>
       </c>
       <c r="W145" t="str">
         <f t="shared" si="44"/>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="T146" t="str">
         <f t="shared" si="54"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346,"145":10</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346,"145":10</v>
       </c>
       <c r="U146" t="str">
         <f t="shared" si="55"/>
@@ -13963,11 +13963,11 @@
         <v>146</v>
       </c>
       <c r="C147">
-        <v>16357</v>
+        <v>17357</v>
       </c>
       <c r="D147">
         <f t="shared" si="45"/>
-        <v>16357</v>
+        <v>17357</v>
       </c>
       <c r="E147">
         <f t="shared" si="46"/>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="T147" t="str">
         <f t="shared" si="54"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346,"145":10,"146":16357</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346,"145":10,"146":17357</v>
       </c>
       <c r="U147" t="str">
         <f t="shared" si="55"/>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="V147" t="str">
         <f t="shared" si="43"/>
-        <v>"146":16357</v>
+        <v>"146":17357</v>
       </c>
       <c r="W147" t="str">
         <f t="shared" si="44"/>
@@ -14040,11 +14040,11 @@
         <v>147</v>
       </c>
       <c r="C148">
-        <v>16368</v>
+        <v>17368</v>
       </c>
       <c r="D148">
         <f t="shared" si="45"/>
-        <v>16368</v>
+        <v>17368</v>
       </c>
       <c r="E148">
         <f t="shared" si="46"/>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="T148" t="str">
         <f t="shared" si="54"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346,"145":10,"146":16357,"147":16368</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346,"145":10,"146":17357,"147":17368</v>
       </c>
       <c r="U148" t="str">
         <f t="shared" si="55"/>
@@ -14105,7 +14105,7 @@
       </c>
       <c r="V148" t="str">
         <f t="shared" si="43"/>
-        <v>"147":16368</v>
+        <v>"147":17368</v>
       </c>
       <c r="W148" t="str">
         <f t="shared" si="44"/>
@@ -14117,11 +14117,11 @@
         <v>148</v>
       </c>
       <c r="C149">
-        <v>16379</v>
+        <v>17379</v>
       </c>
       <c r="D149">
         <f t="shared" si="45"/>
-        <v>16379</v>
+        <v>17379</v>
       </c>
       <c r="E149">
         <f t="shared" si="46"/>
@@ -14174,7 +14174,7 @@
       </c>
       <c r="T149" t="str">
         <f t="shared" si="54"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346,"145":10,"146":16357,"147":16368,"148":16379</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346,"145":10,"146":17357,"147":17368,"148":17379</v>
       </c>
       <c r="U149" t="str">
         <f t="shared" si="55"/>
@@ -14182,7 +14182,7 @@
       </c>
       <c r="V149" t="str">
         <f t="shared" si="43"/>
-        <v>"148":16379</v>
+        <v>"148":17379</v>
       </c>
       <c r="W149" t="str">
         <f t="shared" si="44"/>
@@ -14194,11 +14194,11 @@
         <v>149</v>
       </c>
       <c r="C150">
-        <v>16390</v>
+        <v>17390</v>
       </c>
       <c r="D150">
         <f t="shared" si="45"/>
-        <v>16390</v>
+        <v>17390</v>
       </c>
       <c r="E150">
         <f t="shared" si="46"/>
@@ -14251,7 +14251,7 @@
       </c>
       <c r="T150" t="str">
         <f t="shared" si="54"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346,"145":10,"146":16357,"147":16368,"148":16379,"149":16390</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346,"145":10,"146":17357,"147":17368,"148":17379,"149":17390</v>
       </c>
       <c r="U150" t="str">
         <f t="shared" si="55"/>
@@ -14259,7 +14259,7 @@
       </c>
       <c r="V150" t="str">
         <f t="shared" si="43"/>
-        <v>"149":16390</v>
+        <v>"149":17390</v>
       </c>
       <c r="W150" t="str">
         <f t="shared" si="44"/>
@@ -14328,7 +14328,7 @@
       </c>
       <c r="T151" t="str">
         <f t="shared" si="54"/>
-        <v>"1":535,"2":546,"3":557,"4":568,"5":5,"6":579,"7":590,"8":601,"9":612,"10":10,"11":1662,"12":1673,"13":1684,"14":1695,"15":5,"16":1706,"17":1717,"18":1728,"19":1739,"20":10,"21":2789,"22":2800,"23":2811,"24":2822,"25":5,"26":2833,"27":2844,"28":2855,"29":2866,"30":10,"31":3916,"32":3927,"33":3938,"34":3949,"35":5,"36":3960,"37":3971,"38":3982,"39":3993,"40":10,"41":5043,"42":5054,"43":5065,"44":5076,"45":5,"46":5087,"47":5098,"48":5109,"49":5120,"50":15,"51":6170,"52":6181,"53":6192,"54":6203,"55":7,"56":6214,"57":6225,"58":6236,"59":6247,"60":15,"61":7297,"62":7308,"63":7319,"64":7330,"65":7,"66":7341,"67":7352,"68":7363,"69":7374,"70":15,"71":8424,"72":8435,"73":8446,"74":8457,"75":7,"76":8468,"77":8479,"78":8490,"79":8501,"80":15,"81":9551,"82":9562,"83":9573,"84":9584,"85":7,"86":9595,"87":9606,"88":9617,"89":9628,"90":15,"91":10678,"92":10689,"93":10700,"94":10711,"95":7,"96":10722,"97":10733,"98":10744,"99":10755,"100":20,"101":11805,"102":11816,"103":11827,"104":11838,"105":10,"106":11849,"107":11860,"108":11871,"109":11882,"110":20,"111":12932,"112":12943,"113":12954,"114":12965,"115":10,"116":12976,"117":12987,"118":12998,"119":13009,"120":20,"121":14059,"122":14070,"123":14081,"124":14092,"125":10,"126":14103,"127":14114,"128":14125,"129":14136,"130":20,"131":15186,"132":15197,"133":15208,"134":15219,"135":10,"136":15230,"137":15241,"138":15252,"139":15263,"140":20,"141":16313,"142":16324,"143":16335,"144":16346,"145":10,"146":16357,"147":16368,"148":16379,"149":16390,"150":25</v>
+        <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346,"145":10,"146":17357,"147":17368,"148":17379,"149":17390,"150":25</v>
       </c>
       <c r="U151" t="str">
         <f t="shared" si="55"/>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A7C8A4-5DE6-4E22-B549-A9861B9B7014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CC6751-EF8D-4608-865D-F7B751499BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -2722,13 +2722,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3862,7 +3863,7 @@
         <v>1.0404</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I20" si="23">1.02^3</f>
+        <f t="shared" ref="I13:I14" si="23">1.02^3</f>
         <v>1.0612079999999999</v>
       </c>
       <c r="J13">
@@ -4782,7 +4783,7 @@
         <v>1.02</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I22:I26" si="26">1.02^2</f>
+        <f t="shared" ref="I23:I26" si="26">1.02^2</f>
         <v>1.0404</v>
       </c>
       <c r="J23">
@@ -7364,7 +7365,7 @@
         <v>"50":1622</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7380,7 +7381,7 @@
         <v>1625</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <f t="shared" si="28"/>
@@ -7448,7 +7449,7 @@
         <v>"51":1625</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7464,7 +7465,7 @@
         <v>1628</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <f t="shared" si="28"/>
@@ -7532,7 +7533,7 @@
         <v>"52":1628</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7548,7 +7549,7 @@
         <v>1631</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <f t="shared" si="28"/>
@@ -7616,7 +7617,7 @@
         <v>"53":1631</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7632,7 +7633,7 @@
         <v>1634</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <f t="shared" si="28"/>
@@ -7700,7 +7701,7 @@
         <v>"54":1634</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7716,7 +7717,7 @@
         <v>1637</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <f t="shared" si="28"/>
@@ -7784,7 +7785,7 @@
         <v>"55":1637</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>1640</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <f t="shared" si="28"/>
@@ -7868,7 +7869,7 @@
         <v>"56":1640</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7884,7 +7885,7 @@
         <v>1643</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <f t="shared" si="28"/>
@@ -7952,7 +7953,7 @@
         <v>"57":1643</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7968,7 +7969,7 @@
         <v>1646</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <f t="shared" si="28"/>
@@ -8036,7 +8037,7 @@
         <v>"58":1646</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8052,7 +8053,7 @@
         <v>1649</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <f t="shared" si="28"/>
@@ -8120,7 +8121,7 @@
         <v>"59":1649</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8136,7 +8137,7 @@
         <v>1652</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <f t="shared" si="28"/>
@@ -8204,7 +8205,7 @@
         <v>"60":1652</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8220,7 +8221,8 @@
         <v>1655</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <f>F52+1</f>
+        <v>2</v>
       </c>
       <c r="G62">
         <f t="shared" si="28"/>
@@ -8288,7 +8290,7 @@
         <v>"61":1655</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8304,7 +8306,8 @@
         <v>1658</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <f t="shared" ref="F63:F126" si="34">F53+1</f>
+        <v>2</v>
       </c>
       <c r="G63">
         <f t="shared" si="28"/>
@@ -8372,7 +8375,7 @@
         <v>"62":1658</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8388,7 +8391,8 @@
         <v>1661</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2</v>
       </c>
       <c r="G64">
         <f t="shared" si="28"/>
@@ -8456,7 +8460,7 @@
         <v>"63":1661</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8472,7 +8476,8 @@
         <v>1664</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2</v>
       </c>
       <c r="G65">
         <f t="shared" si="28"/>
@@ -8540,7 +8545,7 @@
         <v>"64":1664</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8556,10 +8561,11 @@
         <v>1667</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G97" si="34">IF(MOD(A66,10)=1,0.945,
+        <f t="shared" ref="G66:G97" si="35">IF(MOD(A66,10)=1,0.945,
 IF(MOD(A66,10)=2,1.05,
 IF(MOD(A66,10)=3,1.07,
 IF(MOD(A66,10)=4,1.04,
@@ -8626,15 +8632,15 @@
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667</v>
       </c>
       <c r="Z66" t="str">
-        <f t="shared" ref="Z66:Z97" si="35">""""&amp;$A66&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B66),C66,B66)</f>
+        <f t="shared" ref="Z66:Z97" si="36">""""&amp;$A66&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B66),C66,B66)</f>
         <v>"65":7</v>
       </c>
       <c r="AA66" t="str">
-        <f t="shared" ref="AA66:AA97" si="36">""""&amp;$A66&amp;""""&amp;""&amp;":"&amp;E66</f>
+        <f t="shared" ref="AA66:AA97" si="37">""""&amp;$A66&amp;""""&amp;""&amp;":"&amp;E66</f>
         <v>"65":1667</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8642,21 +8648,22 @@
         <v>8341</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D98" si="37">IF(NOT(ISBLANK(B67)),"삭",
+        <f t="shared" ref="D67:D98" si="38">IF(NOT(ISBLANK(B67)),"삭",
 IF(MOD(A66,10)=0,D65+1050,
 IF(MOD(A66,10)=5,D65+11,
 D66+11)))</f>
         <v>8341</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E98" si="38">E66+3</f>
+        <f t="shared" ref="E67:E98" si="39">E66+3</f>
         <v>1670</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2</v>
       </c>
       <c r="G67">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.07</v>
       </c>
       <c r="J67">
@@ -8674,19 +8681,19 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2">
-        <f t="shared" ref="O67:O130" si="39">IF(ISBLANK(M67),K67,M67)</f>
+        <f t="shared" ref="O67:O130" si="40">IF(ISBLANK(M67),K67,M67)</f>
         <v>103710.59868884739</v>
       </c>
       <c r="P67" s="2">
-        <f t="shared" ref="P67:P130" si="40">IF(ISBLANK(N67),L67,N67)</f>
+        <f t="shared" ref="P67:P130" si="41">IF(ISBLANK(N67),L67,N67)</f>
         <v>9964.7149521339343</v>
       </c>
       <c r="Q67" s="2">
-        <f t="shared" ref="Q67:Q130" si="41">O67/((1+1.485+0.25)*2)</f>
+        <f t="shared" ref="Q67:Q130" si="42">O67/((1+1.485+0.25)*2)</f>
         <v>18959.890071087269</v>
       </c>
       <c r="R67" s="2">
-        <f t="shared" ref="R67:R130" si="42">P67/(1+0.61875)</f>
+        <f t="shared" ref="R67:R130" si="43">P67/(1+0.61875)</f>
         <v>6155.8084646387242</v>
       </c>
       <c r="S67">
@@ -8698,7 +8705,7 @@
         <v>1.07</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67:U130" si="43">Q67/R67</f>
+        <f t="shared" ref="U67:U130" si="44">Q67/R67</f>
         <v>3.0799999999999996</v>
       </c>
       <c r="V67" t="s">
@@ -8713,15 +8720,15 @@
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"66":8341</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"66":1670</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8729,18 +8736,19 @@
         <v>8352</v>
       </c>
       <c r="D68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8352</v>
       </c>
       <c r="E68">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1673</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2</v>
       </c>
       <c r="G68">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="J68">
@@ -8748,41 +8756,41 @@
         <v>53.678649811649635</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" ref="K68:K131" si="44">O67*$G68*IF(ISBLANK($H68),1,$H68)</f>
+        <f t="shared" ref="K68:K131" si="45">O67*$G68*IF(ISBLANK($H68),1,$H68)</f>
         <v>113044.55257084366</v>
       </c>
       <c r="L68" s="2">
-        <f t="shared" ref="L68:L131" si="45">P67*$G68*IF(ISBLANK($I68),1,$I68)</f>
+        <f t="shared" ref="L68:L131" si="46">P67*$G68*IF(ISBLANK($I68),1,$I68)</f>
         <v>10861.53929782599</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>113044.55257084366</v>
       </c>
       <c r="P68" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>10861.53929782599</v>
       </c>
       <c r="Q68" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>20666.280177485129</v>
       </c>
       <c r="R68" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>6709.8312264562101</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S131" si="46">O68/O67</f>
+        <f t="shared" ref="S68:S131" si="47">O68/O67</f>
         <v>1.0900000000000001</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T131" si="47">P68/P67</f>
+        <f t="shared" ref="T68:T131" si="48">P68/P67</f>
         <v>1.0900000000000001</v>
       </c>
       <c r="U68">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.08</v>
       </c>
       <c r="V68" t="s">
@@ -8797,15 +8805,15 @@
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673</v>
       </c>
       <c r="Z68" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"67":8352</v>
       </c>
       <c r="AA68" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"67":1673</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8813,60 +8821,61 @@
         <v>8363</v>
       </c>
       <c r="D69">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8363</v>
       </c>
       <c r="E69">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1676</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2</v>
       </c>
       <c r="G69">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.03</v>
       </c>
       <c r="J69">
-        <f t="shared" ref="J69:J132" si="48">J68*G69*IF(ISBLANK($I69),1,$I69)</f>
+        <f t="shared" ref="J69:J132" si="49">J68*G69*IF(ISBLANK($I69),1,$I69)</f>
         <v>55.289009305999123</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>116435.88914796898</v>
       </c>
       <c r="L69" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>11187.38547676077</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>116435.88914796898</v>
       </c>
       <c r="P69" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>11187.38547676077</v>
       </c>
       <c r="Q69" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>21286.268582809684</v>
       </c>
       <c r="R69" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>6911.1261632498972</v>
       </c>
       <c r="S69">
-        <f t="shared" si="46"/>
-        <v>1.03</v>
-      </c>
-      <c r="T69">
         <f t="shared" si="47"/>
         <v>1.03</v>
       </c>
+      <c r="T69">
+        <f t="shared" si="48"/>
+        <v>1.03</v>
+      </c>
       <c r="U69">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.08</v>
       </c>
       <c r="V69" t="s">
@@ -8881,15 +8890,15 @@
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676</v>
       </c>
       <c r="Z69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"68":8363</v>
       </c>
       <c r="AA69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"68":1676</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8897,60 +8906,61 @@
         <v>8374</v>
       </c>
       <c r="D70">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8374</v>
       </c>
       <c r="E70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1679</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2</v>
       </c>
       <c r="G70">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.04</v>
       </c>
       <c r="J70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>57.500569678239088</v>
       </c>
       <c r="K70" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>121093.32471388773</v>
       </c>
       <c r="L70" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>11634.880895831202</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>121093.32471388773</v>
       </c>
       <c r="P70" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>11634.880895831202</v>
       </c>
       <c r="Q70" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>22137.719326122071</v>
       </c>
       <c r="R70" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>7187.5712097798933</v>
       </c>
       <c r="S70">
-        <f t="shared" si="46"/>
-        <v>1.04</v>
-      </c>
-      <c r="T70">
         <f t="shared" si="47"/>
         <v>1.04</v>
       </c>
+      <c r="T70">
+        <f t="shared" si="48"/>
+        <v>1.04</v>
+      </c>
       <c r="U70">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.08</v>
       </c>
       <c r="V70" t="s">
@@ -8965,15 +8975,15 @@
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679</v>
       </c>
       <c r="Z70" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"69":8374</v>
       </c>
       <c r="AA70" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"69":1679</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8981,60 +8991,61 @@
         <v>15</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>삭</v>
       </c>
       <c r="E71">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1682</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2</v>
       </c>
       <c r="G71">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.05</v>
       </c>
       <c r="J71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>60.375598162151043</v>
       </c>
       <c r="K71" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>127147.99094958212</v>
       </c>
       <c r="L71" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>12216.624940622763</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>127147.99094958212</v>
       </c>
       <c r="P71" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>12216.624940622763</v>
       </c>
       <c r="Q71" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>23244.605292428172</v>
       </c>
       <c r="R71" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>7546.9497702688886</v>
       </c>
       <c r="S71">
-        <f t="shared" si="46"/>
-        <v>1.05</v>
-      </c>
-      <c r="T71">
         <f t="shared" si="47"/>
         <v>1.05</v>
       </c>
+      <c r="T71">
+        <f t="shared" si="48"/>
+        <v>1.05</v>
+      </c>
       <c r="U71">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999992</v>
       </c>
       <c r="V71" t="s">
@@ -9049,15 +9060,15 @@
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682</v>
       </c>
       <c r="Z71" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"70":15</v>
       </c>
       <c r="AA71" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"70":1682</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9065,60 +9076,61 @@
         <v>9424</v>
       </c>
       <c r="D72">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>9424</v>
       </c>
       <c r="E72">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1685</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="G72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="J72">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>57.05494026323273</v>
       </c>
       <c r="K72" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>120154.85144735509</v>
       </c>
       <c r="L72" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>11544.710568888511</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>120154.85144735509</v>
       </c>
       <c r="P72" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>11544.710568888511</v>
       </c>
       <c r="Q72" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>21966.152001344621</v>
       </c>
       <c r="R72" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>7131.8675329040998</v>
       </c>
       <c r="S72">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.94499999999999984</v>
       </c>
       <c r="T72">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="U72">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999992</v>
       </c>
       <c r="V72" t="s">
@@ -9133,15 +9145,15 @@
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685</v>
       </c>
       <c r="Z72" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"71":9424</v>
       </c>
       <c r="AA72" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"71":1685</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9149,83 +9161,84 @@
         <v>9435</v>
       </c>
       <c r="D73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>9435</v>
       </c>
       <c r="E73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1688</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="G73">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.05</v>
       </c>
       <c r="J73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>59.90768727639437</v>
       </c>
       <c r="K73" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>126162.59401972285</v>
       </c>
       <c r="L73" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>12121.946097332937</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>126162.59401972285</v>
       </c>
       <c r="P73" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>12121.946097332937</v>
       </c>
       <c r="Q73" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>23064.459601411854</v>
       </c>
       <c r="R73" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>7488.4609095493051</v>
       </c>
       <c r="S73">
-        <f t="shared" si="46"/>
-        <v>1.05</v>
-      </c>
-      <c r="T73">
         <f t="shared" si="47"/>
         <v>1.05</v>
       </c>
+      <c r="T73">
+        <f t="shared" si="48"/>
+        <v>1.05</v>
+      </c>
       <c r="U73">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999992</v>
       </c>
       <c r="V73" t="s">
         <v>18</v>
       </c>
       <c r="X73" t="str">
-        <f t="shared" ref="X73:X136" si="49">X72&amp;","&amp;Z73</f>
+        <f t="shared" ref="X73:X136" si="50">X72&amp;","&amp;Z73</f>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435</v>
       </c>
       <c r="Y73" t="str">
-        <f t="shared" ref="Y73:Y136" si="50">Y72&amp;","&amp;AA73</f>
+        <f t="shared" ref="Y73:Y136" si="51">Y72&amp;","&amp;AA73</f>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688</v>
       </c>
       <c r="Z73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"72":9435</v>
       </c>
       <c r="AA73" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"72":1688</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9233,83 +9246,84 @@
         <v>9446</v>
       </c>
       <c r="D74">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>9446</v>
       </c>
       <c r="E74">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1691</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="G74">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.07</v>
       </c>
       <c r="J74">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>64.101225385741984</v>
       </c>
       <c r="K74" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>134993.97560110345</v>
       </c>
       <c r="L74" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>12970.482324146244</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>134993.97560110345</v>
       </c>
       <c r="P74" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>12970.482324146244</v>
       </c>
       <c r="Q74" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>24678.971773510682</v>
       </c>
       <c r="R74" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>8012.6531732177573</v>
       </c>
       <c r="S74">
-        <f t="shared" si="46"/>
-        <v>1.07</v>
-      </c>
-      <c r="T74">
         <f t="shared" si="47"/>
         <v>1.07</v>
       </c>
+      <c r="T74">
+        <f t="shared" si="48"/>
+        <v>1.07</v>
+      </c>
       <c r="U74">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999987</v>
       </c>
       <c r="V74" t="s">
         <v>18</v>
       </c>
       <c r="X74" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446</v>
       </c>
       <c r="Y74" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691</v>
       </c>
       <c r="Z74" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"73":9446</v>
       </c>
       <c r="AA74" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"73":1691</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9317,83 +9331,84 @@
         <v>9457</v>
       </c>
       <c r="D75">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>9457</v>
       </c>
       <c r="E75">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1694</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="G75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.04</v>
       </c>
       <c r="J75">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>66.665274401171672</v>
       </c>
       <c r="K75" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>140393.7346251476</v>
       </c>
       <c r="L75" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>13489.301617112094</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>140393.7346251476</v>
       </c>
       <c r="P75" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>13489.301617112094</v>
       </c>
       <c r="Q75" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>25666.13064445111</v>
       </c>
       <c r="R75" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>8333.159300146468</v>
       </c>
       <c r="S75">
-        <f t="shared" si="46"/>
-        <v>1.04</v>
-      </c>
-      <c r="T75">
         <f t="shared" si="47"/>
         <v>1.04</v>
       </c>
+      <c r="T75">
+        <f t="shared" si="48"/>
+        <v>1.04</v>
+      </c>
       <c r="U75">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999987</v>
       </c>
       <c r="V75" t="s">
         <v>18</v>
       </c>
       <c r="X75" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457</v>
       </c>
       <c r="Y75" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694</v>
       </c>
       <c r="Z75" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"74":9457</v>
       </c>
       <c r="AA75" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"74":1694</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9401,83 +9416,84 @@
         <v>7</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>삭</v>
       </c>
       <c r="E76">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1697</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="G76">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.05</v>
       </c>
       <c r="J76">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>69.998538121230254</v>
       </c>
       <c r="K76" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>147413.42135640499</v>
       </c>
       <c r="L76" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>14163.7666979677</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>147413.42135640499</v>
       </c>
       <c r="P76" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>14163.7666979677</v>
       </c>
       <c r="Q76" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>26949.437176673669</v>
       </c>
       <c r="R76" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>8749.8172651537916</v>
       </c>
       <c r="S76">
-        <f t="shared" si="46"/>
-        <v>1.05</v>
-      </c>
-      <c r="T76">
         <f t="shared" si="47"/>
         <v>1.05</v>
       </c>
+      <c r="T76">
+        <f t="shared" si="48"/>
+        <v>1.05</v>
+      </c>
       <c r="U76">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999992</v>
       </c>
       <c r="V76" t="s">
         <v>18</v>
       </c>
       <c r="X76" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7</v>
       </c>
       <c r="Y76" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697</v>
       </c>
       <c r="Z76" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"75":7</v>
       </c>
       <c r="AA76" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"75":1697</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9485,83 +9501,84 @@
         <v>9468</v>
       </c>
       <c r="D77">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>9468</v>
       </c>
       <c r="E77">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1700</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="G77">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.07</v>
       </c>
       <c r="J77">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>74.898435789716373</v>
       </c>
       <c r="K77" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>157732.36085135335</v>
       </c>
       <c r="L77" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>15155.230366825439</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>157732.36085135335</v>
       </c>
       <c r="P77" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>15155.230366825439</v>
       </c>
       <c r="Q77" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>28835.897779040828</v>
       </c>
       <c r="R77" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>9362.3044737145574</v>
       </c>
       <c r="S77">
-        <f t="shared" si="46"/>
-        <v>1.07</v>
-      </c>
-      <c r="T77">
         <f t="shared" si="47"/>
         <v>1.07</v>
       </c>
+      <c r="T77">
+        <f t="shared" si="48"/>
+        <v>1.07</v>
+      </c>
       <c r="U77">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999992</v>
       </c>
       <c r="V77" t="s">
         <v>18</v>
       </c>
       <c r="X77" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468</v>
       </c>
       <c r="Y77" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700</v>
       </c>
       <c r="Z77" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"76":9468</v>
       </c>
       <c r="AA77" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"76":1700</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9569,83 +9586,84 @@
         <v>9479</v>
       </c>
       <c r="D78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>9479</v>
       </c>
       <c r="E78">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1703</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="G78">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="J78">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>81.639295010790846</v>
       </c>
       <c r="K78" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>171928.27332797516</v>
       </c>
       <c r="L78" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>16519.201099839731</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>171928.27332797516</v>
       </c>
       <c r="P78" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16519.201099839731</v>
       </c>
       <c r="Q78" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>31431.128579154505</v>
       </c>
       <c r="R78" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10204.91187634887</v>
       </c>
       <c r="S78">
-        <f t="shared" si="46"/>
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="T78">
         <f t="shared" si="47"/>
         <v>1.0900000000000001</v>
       </c>
+      <c r="T78">
+        <f t="shared" si="48"/>
+        <v>1.0900000000000001</v>
+      </c>
       <c r="U78">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999987</v>
       </c>
       <c r="V78" t="s">
         <v>18</v>
       </c>
       <c r="X78" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479</v>
       </c>
       <c r="Y78" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703</v>
       </c>
       <c r="Z78" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"77":9479</v>
       </c>
       <c r="AA78" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"77":1703</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9653,83 +9671,84 @@
         <v>9490</v>
       </c>
       <c r="D79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>9490</v>
       </c>
       <c r="E79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1706</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="G79">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.03</v>
       </c>
       <c r="J79">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>84.088473861114579</v>
       </c>
       <c r="K79" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>177086.12152781442</v>
       </c>
       <c r="L79" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>17014.777132834923</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>177086.12152781442</v>
       </c>
       <c r="P79" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>17014.777132834923</v>
       </c>
       <c r="Q79" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>32374.062436529141</v>
       </c>
       <c r="R79" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10511.059232639334</v>
       </c>
       <c r="S79">
-        <f t="shared" si="46"/>
-        <v>1.03</v>
-      </c>
-      <c r="T79">
         <f t="shared" si="47"/>
         <v>1.03</v>
       </c>
+      <c r="T79">
+        <f t="shared" si="48"/>
+        <v>1.03</v>
+      </c>
       <c r="U79">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999992</v>
       </c>
       <c r="V79" t="s">
         <v>18</v>
       </c>
       <c r="X79" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490</v>
       </c>
       <c r="Y79" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706</v>
       </c>
       <c r="Z79" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"78":9490</v>
       </c>
       <c r="AA79" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"78":1706</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9737,83 +9756,84 @@
         <v>9501</v>
       </c>
       <c r="D80">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>9501</v>
       </c>
       <c r="E80">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1709</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="G80">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.04</v>
       </c>
       <c r="J80">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>87.452012815559172</v>
       </c>
       <c r="K80" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>184169.56638892699</v>
       </c>
       <c r="L80" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>17695.36821814832</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>184169.56638892699</v>
       </c>
       <c r="P80" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>17695.36821814832</v>
       </c>
       <c r="Q80" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>33669.024933990302</v>
       </c>
       <c r="R80" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10931.501601944909</v>
       </c>
       <c r="S80">
-        <f t="shared" si="46"/>
-        <v>1.04</v>
-      </c>
-      <c r="T80">
         <f t="shared" si="47"/>
         <v>1.04</v>
       </c>
+      <c r="T80">
+        <f t="shared" si="48"/>
+        <v>1.04</v>
+      </c>
       <c r="U80">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999983</v>
       </c>
       <c r="V80" t="s">
         <v>18</v>
       </c>
       <c r="X80" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501</v>
       </c>
       <c r="Y80" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709</v>
       </c>
       <c r="Z80" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"79":9501</v>
       </c>
       <c r="AA80" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"79":1709</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9821,83 +9841,84 @@
         <v>15</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>삭</v>
       </c>
       <c r="E81">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1712</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="G81">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.05</v>
       </c>
       <c r="J81">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>91.824613456337133</v>
       </c>
       <c r="K81" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>193378.04470837335</v>
       </c>
       <c r="L81" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>18580.136629055738</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>193378.04470837335</v>
       </c>
       <c r="P81" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>18580.136629055738</v>
       </c>
       <c r="Q81" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>35352.476180689824</v>
       </c>
       <c r="R81" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>11478.076682042156</v>
       </c>
       <c r="S81">
-        <f t="shared" si="46"/>
-        <v>1.05</v>
-      </c>
-      <c r="T81">
         <f t="shared" si="47"/>
         <v>1.05</v>
       </c>
+      <c r="T81">
+        <f t="shared" si="48"/>
+        <v>1.05</v>
+      </c>
       <c r="U81">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999987</v>
       </c>
       <c r="V81" t="s">
         <v>18</v>
       </c>
       <c r="X81" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15</v>
       </c>
       <c r="Y81" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712</v>
       </c>
       <c r="Z81" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"80":15</v>
       </c>
       <c r="AA81" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"80":1712</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9905,84 +9926,84 @@
         <v>10551</v>
       </c>
       <c r="D82">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>10551</v>
       </c>
       <c r="E82">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1715</v>
       </c>
       <c r="F82">
-        <f>F72+1</f>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="G82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="J82">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>86.774259716238589</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>182742.25224941279</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>17558.22911445767</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>182742.25224941279</v>
       </c>
       <c r="P82" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>17558.22911445767</v>
       </c>
       <c r="Q82" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>33408.089990751876</v>
       </c>
       <c r="R82" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10846.782464529835</v>
       </c>
       <c r="S82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="T82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.94499999999999984</v>
       </c>
       <c r="U82">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999983</v>
       </c>
       <c r="V82" t="s">
         <v>18</v>
       </c>
       <c r="X82" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551</v>
       </c>
       <c r="Y82" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715</v>
       </c>
       <c r="Z82" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"81":10551</v>
       </c>
       <c r="AA82" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"81":1715</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9990,84 +10011,84 @@
         <v>10562</v>
       </c>
       <c r="D83">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>10562</v>
       </c>
       <c r="E83">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1718</v>
       </c>
       <c r="F83">
-        <f t="shared" ref="F83:F146" si="51">F73+1</f>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="G83">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.05</v>
       </c>
       <c r="J83">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>91.112972702050527</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>191879.36486188343</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>18436.140570180556</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>191879.36486188343</v>
       </c>
       <c r="P83" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>18436.140570180556</v>
       </c>
       <c r="Q83" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>35078.494490289471</v>
       </c>
       <c r="R83" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>11389.121587756328</v>
       </c>
       <c r="S83">
-        <f t="shared" si="46"/>
-        <v>1.05</v>
-      </c>
-      <c r="T83">
         <f t="shared" si="47"/>
         <v>1.05</v>
       </c>
+      <c r="T83">
+        <f t="shared" si="48"/>
+        <v>1.05</v>
+      </c>
       <c r="U83">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999983</v>
       </c>
       <c r="V83" t="s">
         <v>18</v>
       </c>
       <c r="X83" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562</v>
       </c>
       <c r="Y83" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718</v>
       </c>
       <c r="Z83" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"82":10562</v>
       </c>
       <c r="AA83" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"82":1718</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10075,84 +10096,84 @@
         <v>10573</v>
       </c>
       <c r="D84">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>10573</v>
       </c>
       <c r="E84">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1721</v>
       </c>
       <c r="F84">
-        <f t="shared" si="51"/>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="G84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.07</v>
       </c>
       <c r="J84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>97.490880791194073</v>
       </c>
       <c r="K84" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>205310.92040221527</v>
       </c>
       <c r="L84" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>19726.670410093197</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>205310.92040221527</v>
       </c>
       <c r="P84" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>19726.670410093197</v>
       </c>
       <c r="Q84" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>37533.989104609733</v>
       </c>
       <c r="R84" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>12186.360098899273</v>
       </c>
       <c r="S84">
-        <f t="shared" si="46"/>
-        <v>1.07</v>
-      </c>
-      <c r="T84">
         <f t="shared" si="47"/>
         <v>1.07</v>
       </c>
+      <c r="T84">
+        <f t="shared" si="48"/>
+        <v>1.07</v>
+      </c>
       <c r="U84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999979</v>
       </c>
       <c r="V84" t="s">
         <v>18</v>
       </c>
       <c r="X84" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573</v>
       </c>
       <c r="Y84" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721</v>
       </c>
       <c r="Z84" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"83":10573</v>
       </c>
       <c r="AA84" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"83":1721</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10160,84 +10181,84 @@
         <v>10584</v>
       </c>
       <c r="D85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>10584</v>
       </c>
       <c r="E85">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1724</v>
       </c>
       <c r="F85">
-        <f t="shared" si="51"/>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="G85">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.04</v>
       </c>
       <c r="J85">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>101.39051602284184</v>
       </c>
       <c r="K85" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>213523.35721830389</v>
       </c>
       <c r="L85" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>20515.737226496924</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>213523.35721830389</v>
       </c>
       <c r="P85" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>20515.737226496924</v>
       </c>
       <c r="Q85" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>39035.348668794126</v>
       </c>
       <c r="R85" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>12673.814502855243</v>
       </c>
       <c r="S85">
-        <f t="shared" si="46"/>
-        <v>1.04</v>
-      </c>
-      <c r="T85">
         <f t="shared" si="47"/>
         <v>1.04</v>
       </c>
+      <c r="T85">
+        <f t="shared" si="48"/>
+        <v>1.04</v>
+      </c>
       <c r="U85">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999983</v>
       </c>
       <c r="V85" t="s">
         <v>18</v>
       </c>
       <c r="X85" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584</v>
       </c>
       <c r="Y85" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724</v>
       </c>
       <c r="Z85" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"84":10584</v>
       </c>
       <c r="AA85" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"84":1724</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10245,84 +10266,84 @@
         <v>7</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>삭</v>
       </c>
       <c r="E86">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1727</v>
       </c>
       <c r="F86">
-        <f t="shared" si="51"/>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="G86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.05</v>
       </c>
       <c r="J86">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>106.46004182398393</v>
       </c>
       <c r="K86" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>224199.52507921911</v>
       </c>
       <c r="L86" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>21541.52408782177</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>224199.52507921911</v>
       </c>
       <c r="P86" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>21541.52408782177</v>
       </c>
       <c r="Q86" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>40987.116102233835</v>
       </c>
       <c r="R86" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>13307.505227998005</v>
       </c>
       <c r="S86">
-        <f t="shared" si="46"/>
-        <v>1.05</v>
-      </c>
-      <c r="T86">
         <f t="shared" si="47"/>
         <v>1.05</v>
       </c>
+      <c r="T86">
+        <f t="shared" si="48"/>
+        <v>1.05</v>
+      </c>
       <c r="U86">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999987</v>
       </c>
       <c r="V86" t="s">
         <v>18</v>
       </c>
       <c r="X86" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7</v>
       </c>
       <c r="Y86" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727</v>
       </c>
       <c r="Z86" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"85":7</v>
       </c>
       <c r="AA86" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"85":1727</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10330,84 +10351,84 @@
         <v>10595</v>
       </c>
       <c r="D87">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>10595</v>
       </c>
       <c r="E87">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1730</v>
       </c>
       <c r="F87">
-        <f t="shared" si="51"/>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="G87">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.07</v>
       </c>
       <c r="J87">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>113.91224475166281</v>
       </c>
       <c r="K87" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>239893.49183476446</v>
       </c>
       <c r="L87" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>23049.430773969296</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>239893.49183476446</v>
       </c>
       <c r="P87" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>23049.430773969296</v>
       </c>
       <c r="Q87" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>43856.214229390207</v>
       </c>
       <c r="R87" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>14239.030593957867</v>
       </c>
       <c r="S87">
-        <f t="shared" si="46"/>
-        <v>1.07</v>
-      </c>
-      <c r="T87">
         <f t="shared" si="47"/>
         <v>1.07</v>
       </c>
+      <c r="T87">
+        <f t="shared" si="48"/>
+        <v>1.07</v>
+      </c>
       <c r="U87">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999983</v>
       </c>
       <c r="V87" t="s">
         <v>18</v>
       </c>
       <c r="X87" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595</v>
       </c>
       <c r="Y87" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730</v>
       </c>
       <c r="Z87" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"86":10595</v>
       </c>
       <c r="AA87" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"86":1730</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10415,84 +10436,84 @@
         <v>10606</v>
       </c>
       <c r="D88">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>10606</v>
       </c>
       <c r="E88">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1733</v>
       </c>
       <c r="F88">
-        <f t="shared" si="51"/>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="G88">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="J88">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>124.16434677931247</v>
       </c>
       <c r="K88" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>261483.90609989327</v>
       </c>
       <c r="L88" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>25123.879543626535</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>261483.90609989327</v>
       </c>
       <c r="P88" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>25123.879543626535</v>
       </c>
       <c r="Q88" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>47803.273510035324</v>
       </c>
       <c r="R88" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>15520.543347414077</v>
       </c>
       <c r="S88">
-        <f t="shared" si="46"/>
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="T88">
         <f t="shared" si="47"/>
         <v>1.0900000000000001</v>
       </c>
+      <c r="T88">
+        <f t="shared" si="48"/>
+        <v>1.0900000000000001</v>
+      </c>
       <c r="U88">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999979</v>
       </c>
       <c r="V88" t="s">
         <v>18</v>
       </c>
       <c r="X88" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606</v>
       </c>
       <c r="Y88" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733</v>
       </c>
       <c r="Z88" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"87":10606</v>
       </c>
       <c r="AA88" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"87":1733</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10500,84 +10521,84 @@
         <v>10617</v>
       </c>
       <c r="D89">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>10617</v>
       </c>
       <c r="E89">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1736</v>
       </c>
       <c r="F89">
-        <f t="shared" si="51"/>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="G89">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.03</v>
       </c>
       <c r="J89">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>127.88927718269184</v>
       </c>
       <c r="K89" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>269328.42328289006</v>
       </c>
       <c r="L89" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>25877.595929935331</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>269328.42328289006</v>
       </c>
       <c r="P89" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>25877.595929935331</v>
       </c>
       <c r="Q89" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>49237.371715336383</v>
       </c>
       <c r="R89" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>15986.159647836499</v>
       </c>
       <c r="S89">
-        <f t="shared" si="46"/>
-        <v>1.03</v>
-      </c>
-      <c r="T89">
         <f t="shared" si="47"/>
         <v>1.03</v>
       </c>
+      <c r="T89">
+        <f t="shared" si="48"/>
+        <v>1.03</v>
+      </c>
       <c r="U89">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999979</v>
       </c>
       <c r="V89" t="s">
         <v>18</v>
       </c>
       <c r="X89" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617</v>
       </c>
       <c r="Y89" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736</v>
       </c>
       <c r="Z89" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"88":10617</v>
       </c>
       <c r="AA89" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"88":1736</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10585,19 +10606,19 @@
         <v>10628</v>
       </c>
       <c r="D90">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>10628</v>
       </c>
       <c r="E90">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1739</v>
       </c>
       <c r="F90">
-        <f t="shared" si="51"/>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="G90">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.04</v>
       </c>
       <c r="H90">
@@ -10609,68 +10630,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J90">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>130.39691006862697</v>
       </c>
       <c r="K90" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>274609.37275902514</v>
       </c>
       <c r="L90" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>26384.999771698767</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>274609.37275902514</v>
       </c>
       <c r="P90" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>26384.999771698767</v>
       </c>
       <c r="Q90" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>50202.81037642141</v>
       </c>
       <c r="R90" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>16299.613758578391</v>
       </c>
       <c r="S90">
-        <f t="shared" si="46"/>
-        <v>1.0196078431372548</v>
-      </c>
-      <c r="T90">
         <f t="shared" si="47"/>
         <v>1.0196078431372548</v>
       </c>
+      <c r="T90">
+        <f t="shared" si="48"/>
+        <v>1.0196078431372548</v>
+      </c>
       <c r="U90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999979</v>
       </c>
       <c r="V90" t="s">
         <v>18</v>
       </c>
       <c r="X90" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628</v>
       </c>
       <c r="Y90" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739</v>
       </c>
       <c r="Z90" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"89":10628</v>
       </c>
       <c r="AA90" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"89":1739</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10678,84 +10699,84 @@
         <v>15</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>삭</v>
       </c>
       <c r="E91">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1742</v>
       </c>
       <c r="F91">
-        <f t="shared" si="51"/>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="G91">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.05</v>
       </c>
       <c r="J91">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>136.91675557205832</v>
       </c>
       <c r="K91" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>288339.84139697638</v>
       </c>
       <c r="L91" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>27704.249760283707</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>288339.84139697638</v>
       </c>
       <c r="P91" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>27704.249760283707</v>
       </c>
       <c r="Q91" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>52712.950895242473</v>
       </c>
       <c r="R91" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>17114.594446507312</v>
       </c>
       <c r="S91">
-        <f t="shared" si="46"/>
-        <v>1.05</v>
-      </c>
-      <c r="T91">
         <f t="shared" si="47"/>
         <v>1.05</v>
       </c>
+      <c r="T91">
+        <f t="shared" si="48"/>
+        <v>1.05</v>
+      </c>
       <c r="U91">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999974</v>
       </c>
       <c r="V91" t="s">
         <v>18</v>
       </c>
       <c r="X91" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15</v>
       </c>
       <c r="Y91" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742</v>
       </c>
       <c r="Z91" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"90":15</v>
       </c>
       <c r="AA91" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"90":1742</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10763,19 +10784,19 @@
         <v>11678</v>
       </c>
       <c r="D92">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>11678</v>
       </c>
       <c r="E92">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1745</v>
       </c>
       <c r="F92">
-        <f t="shared" si="51"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>5</v>
       </c>
       <c r="G92">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="H92">
@@ -10787,68 +10808,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J92">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>126.84934707411284</v>
       </c>
       <c r="K92" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>267138.38247072807</v>
       </c>
       <c r="L92" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>25667.17257202755</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>267138.38247072807</v>
       </c>
       <c r="P92" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>25667.17257202755</v>
       </c>
       <c r="Q92" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>48836.998623533465</v>
       </c>
       <c r="R92" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>15856.168384264125</v>
       </c>
       <c r="S92">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.92647058823529393</v>
       </c>
       <c r="T92">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.92647058823529405</v>
       </c>
       <c r="U92">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999974</v>
       </c>
       <c r="V92" t="s">
         <v>18</v>
       </c>
       <c r="X92" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678</v>
       </c>
       <c r="Y92" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745</v>
       </c>
       <c r="Z92" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"91":11678</v>
       </c>
       <c r="AA92" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"91":1745</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10856,19 +10877,19 @@
         <v>11689</v>
       </c>
       <c r="D93">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>11689</v>
       </c>
       <c r="E93">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1748</v>
       </c>
       <c r="F93">
-        <f t="shared" si="51"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>5</v>
       </c>
       <c r="G93">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.05</v>
       </c>
       <c r="H93">
@@ -10880,68 +10901,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J93">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>130.58021022335146</v>
       </c>
       <c r="K93" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>274995.39371986716</v>
       </c>
       <c r="L93" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>26422.089412381301</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>274995.39371986716</v>
       </c>
       <c r="P93" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>26422.089412381301</v>
       </c>
       <c r="Q93" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>50273.380935990332</v>
       </c>
       <c r="R93" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>16322.526277918951</v>
       </c>
       <c r="S93">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0294117647058825</v>
       </c>
       <c r="T93">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="U93">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999979</v>
       </c>
       <c r="V93" t="s">
         <v>18</v>
       </c>
       <c r="X93" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689</v>
       </c>
       <c r="Y93" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748</v>
       </c>
       <c r="Z93" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"92":11689</v>
       </c>
       <c r="AA93" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"92":1748</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10949,19 +10970,19 @@
         <v>11700</v>
       </c>
       <c r="D94">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>11700</v>
       </c>
       <c r="E94">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1751</v>
       </c>
       <c r="F94">
-        <f t="shared" si="51"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>5</v>
       </c>
       <c r="G94">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.07</v>
       </c>
       <c r="H94">
@@ -10973,68 +10994,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J94">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>136.98120092057457</v>
       </c>
       <c r="K94" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>288475.56007868418</v>
       </c>
       <c r="L94" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>27717.289873772541</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>288475.56007868418</v>
       </c>
       <c r="P94" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>27717.289873772541</v>
       </c>
       <c r="Q94" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>52737.762354421233</v>
       </c>
       <c r="R94" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>17122.65011507184</v>
       </c>
       <c r="S94">
-        <f t="shared" si="46"/>
-        <v>1.0490196078431373</v>
-      </c>
-      <c r="T94">
         <f t="shared" si="47"/>
         <v>1.0490196078431373</v>
       </c>
+      <c r="T94">
+        <f t="shared" si="48"/>
+        <v>1.0490196078431373</v>
+      </c>
       <c r="U94">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999983</v>
       </c>
       <c r="V94" t="s">
         <v>18</v>
       </c>
       <c r="X94" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700</v>
       </c>
       <c r="Y94" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751</v>
       </c>
       <c r="Z94" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"93":11700</v>
       </c>
       <c r="AA94" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"93":1751</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -11042,19 +11063,19 @@
         <v>11711</v>
       </c>
       <c r="D95">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>11711</v>
       </c>
       <c r="E95">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1754</v>
       </c>
       <c r="F95">
-        <f t="shared" si="51"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>5</v>
       </c>
       <c r="G95">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.04</v>
       </c>
       <c r="H95">
@@ -11066,68 +11087,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J95">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>139.66710682097798</v>
       </c>
       <c r="K95" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>294131.94360963878</v>
       </c>
       <c r="L95" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>28260.766145807294</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>294131.94360963878</v>
       </c>
       <c r="P95" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>28260.766145807294</v>
       </c>
       <c r="Q95" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>53771.836126076552</v>
       </c>
       <c r="R95" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>17458.388352622267</v>
       </c>
       <c r="S95">
-        <f t="shared" si="46"/>
-        <v>1.0196078431372548</v>
-      </c>
-      <c r="T95">
         <f t="shared" si="47"/>
         <v>1.0196078431372548</v>
       </c>
+      <c r="T95">
+        <f t="shared" si="48"/>
+        <v>1.0196078431372548</v>
+      </c>
       <c r="U95">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999983</v>
       </c>
       <c r="V95" t="s">
         <v>18</v>
       </c>
       <c r="X95" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711</v>
       </c>
       <c r="Y95" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754</v>
       </c>
       <c r="Z95" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"94":11711</v>
       </c>
       <c r="AA95" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"94":1754</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -11135,19 +11156,19 @@
         <v>7</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>삭</v>
       </c>
       <c r="E96">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1757</v>
       </c>
       <c r="F96">
-        <f t="shared" si="51"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>5</v>
       </c>
       <c r="G96">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.05</v>
       </c>
       <c r="H96">
@@ -11159,68 +11180,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J96">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>143.77496290394791</v>
       </c>
       <c r="K96" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>302782.88312756934</v>
       </c>
       <c r="L96" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>29091.965150095741</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>302782.88312756934</v>
       </c>
       <c r="P96" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>29091.965150095741</v>
       </c>
       <c r="Q96" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>55353.360718019983</v>
       </c>
       <c r="R96" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>17971.870362993508</v>
       </c>
       <c r="S96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0294117647058825</v>
       </c>
       <c r="T96">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="U96">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999987</v>
       </c>
       <c r="V96" t="s">
         <v>18</v>
       </c>
       <c r="X96" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7</v>
       </c>
       <c r="Y96" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757</v>
       </c>
       <c r="Z96" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"95":7</v>
       </c>
       <c r="AA96" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"95":1757</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -11228,19 +11249,19 @@
         <v>11722</v>
       </c>
       <c r="D97">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>11722</v>
       </c>
       <c r="E97">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1760</v>
       </c>
       <c r="F97">
-        <f t="shared" si="51"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>5</v>
       </c>
       <c r="G97">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.07</v>
       </c>
       <c r="H97">
@@ -11252,68 +11273,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J97">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>150.82275520316105</v>
       </c>
       <c r="K97" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>317625.18132009724</v>
       </c>
       <c r="L97" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>30518.041873139649</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>317625.18132009724</v>
       </c>
       <c r="P97" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>30518.041873139649</v>
       </c>
       <c r="Q97" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>58066.760753217037</v>
       </c>
       <c r="R97" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>18852.844400395152</v>
       </c>
       <c r="S97">
-        <f t="shared" si="46"/>
-        <v>1.0490196078431373</v>
-      </c>
-      <c r="T97">
         <f t="shared" si="47"/>
         <v>1.0490196078431373</v>
       </c>
+      <c r="T97">
+        <f t="shared" si="48"/>
+        <v>1.0490196078431373</v>
+      </c>
       <c r="U97">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999983</v>
       </c>
       <c r="V97" t="s">
         <v>18</v>
       </c>
       <c r="X97" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722</v>
       </c>
       <c r="Y97" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760</v>
       </c>
       <c r="Z97" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>"96":11722</v>
       </c>
       <c r="AA97" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>"96":1760</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -11321,16 +11342,16 @@
         <v>11733</v>
       </c>
       <c r="D98">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>11733</v>
       </c>
       <c r="E98">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1763</v>
       </c>
       <c r="F98">
-        <f t="shared" si="51"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>5</v>
       </c>
       <c r="G98">
         <f t="shared" ref="G98:G129" si="54">IF(MOD(A98,10)=1,0.945,
@@ -11355,56 +11376,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J98">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>161.17333644259367</v>
       </c>
       <c r="K98" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>339422.98788128037</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>32612.417295806095</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>339422.98788128037</v>
       </c>
       <c r="P98" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>32612.417295806095</v>
       </c>
       <c r="Q98" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>62051.7345303986</v>
       </c>
       <c r="R98" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>20146.667055324229</v>
       </c>
       <c r="S98">
-        <f t="shared" si="46"/>
-        <v>1.0686274509803921</v>
-      </c>
-      <c r="T98">
         <f t="shared" si="47"/>
         <v>1.0686274509803921</v>
       </c>
+      <c r="T98">
+        <f t="shared" si="48"/>
+        <v>1.0686274509803921</v>
+      </c>
       <c r="U98">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999987</v>
       </c>
       <c r="V98" t="s">
         <v>18</v>
       </c>
       <c r="X98" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733</v>
       </c>
       <c r="Y98" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763</v>
       </c>
       <c r="Z98" t="str">
@@ -11416,7 +11437,7 @@
         <v>"97":1763</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -11435,8 +11456,8 @@
         <v>1766</v>
       </c>
       <c r="F99">
-        <f t="shared" si="51"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>5</v>
       </c>
       <c r="G99">
         <f t="shared" si="54"/>
@@ -11451,56 +11472,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J99">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>162.75346719203085</v>
       </c>
       <c r="K99" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>342750.66423305764</v>
       </c>
       <c r="L99" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>32932.146877137522</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>342750.66423305764</v>
       </c>
       <c r="P99" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>32932.146877137522</v>
       </c>
       <c r="Q99" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>62660.084868931917</v>
       </c>
       <c r="R99" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>20344.183399003876</v>
       </c>
       <c r="S99">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0098039215686274</v>
       </c>
       <c r="T99">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0098039215686272</v>
       </c>
       <c r="U99">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999992</v>
       </c>
       <c r="V99" t="s">
         <v>18</v>
       </c>
       <c r="X99" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744</v>
       </c>
       <c r="Y99" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766</v>
       </c>
       <c r="Z99" t="str">
@@ -11512,7 +11533,7 @@
         <v>"98":1766</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -11528,8 +11549,8 @@
         <v>1769</v>
       </c>
       <c r="F100">
-        <f t="shared" si="51"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>5</v>
       </c>
       <c r="G100">
         <f t="shared" si="54"/>
@@ -11544,56 +11565,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J100">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>165.94471164677654</v>
       </c>
       <c r="K100" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>349471.26549252938</v>
       </c>
       <c r="L100" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>33577.875247277472</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>349471.26549252938</v>
       </c>
       <c r="P100" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>33577.875247277472</v>
       </c>
       <c r="Q100" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>63888.713984009017</v>
       </c>
       <c r="R100" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>20743.088955847088</v>
       </c>
       <c r="S100">
-        <f t="shared" si="46"/>
-        <v>1.0196078431372548</v>
-      </c>
-      <c r="T100">
         <f t="shared" si="47"/>
         <v>1.0196078431372548</v>
       </c>
+      <c r="T100">
+        <f t="shared" si="48"/>
+        <v>1.0196078431372548</v>
+      </c>
       <c r="U100">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999992</v>
       </c>
       <c r="V100" t="s">
         <v>18</v>
       </c>
       <c r="X100" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755</v>
       </c>
       <c r="Y100" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769</v>
       </c>
       <c r="Z100" t="str">
@@ -11605,7 +11626,7 @@
         <v>"99":1769</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -11621,8 +11642,8 @@
         <v>1772</v>
       </c>
       <c r="F101">
-        <f t="shared" si="51"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>5</v>
       </c>
       <c r="G101">
         <f t="shared" si="54"/>
@@ -11637,56 +11658,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J101">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>170.82543845991702</v>
       </c>
       <c r="K101" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>359749.83212466259</v>
       </c>
       <c r="L101" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>34565.459813373869</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>359749.83212466259</v>
       </c>
       <c r="P101" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>34565.459813373869</v>
       </c>
       <c r="Q101" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>65767.793807068112</v>
       </c>
       <c r="R101" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>21353.179807489651</v>
       </c>
       <c r="S101">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="T101">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0294117647058825</v>
       </c>
       <c r="U101">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999996</v>
       </c>
       <c r="V101" t="s">
         <v>18</v>
       </c>
       <c r="X101" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20</v>
       </c>
       <c r="Y101" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772</v>
       </c>
       <c r="Z101" t="str">
@@ -11698,7 +11719,7 @@
         <v>"100":1772</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -11714,64 +11735,64 @@
         <v>1775</v>
       </c>
       <c r="F102">
-        <f t="shared" si="51"/>
-        <v>4</v>
+        <f t="shared" si="34"/>
+        <v>6</v>
       </c>
       <c r="G102">
         <f t="shared" si="54"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="J102">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>161.43003934462158</v>
       </c>
       <c r="K102" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>339963.59135780612</v>
       </c>
       <c r="L102" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>32664.359523638304</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>339963.59135780612</v>
       </c>
       <c r="P102" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>32664.359523638304</v>
       </c>
       <c r="Q102" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>62150.565147679357</v>
       </c>
       <c r="R102" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>20178.754918077717</v>
       </c>
       <c r="S102">
-        <f t="shared" si="46"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="T102">
         <f t="shared" si="47"/>
         <v>0.94499999999999995</v>
       </c>
+      <c r="T102">
+        <f t="shared" si="48"/>
+        <v>0.94499999999999995</v>
+      </c>
       <c r="U102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999996</v>
       </c>
       <c r="V102" t="s">
         <v>18</v>
       </c>
       <c r="X102" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805</v>
       </c>
       <c r="Y102" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775</v>
       </c>
       <c r="Z102" t="str">
@@ -11783,7 +11804,7 @@
         <v>"101":1775</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -11799,8 +11820,8 @@
         <v>1778</v>
       </c>
       <c r="F103">
-        <f t="shared" si="51"/>
-        <v>4</v>
+        <f t="shared" si="34"/>
+        <v>6</v>
       </c>
       <c r="G103">
         <f t="shared" si="54"/>
@@ -11815,56 +11836,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J103">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>166.17798167828693</v>
       </c>
       <c r="K103" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>349962.52051538863</v>
       </c>
       <c r="L103" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>33625.075980215901</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>349962.52051538863</v>
       </c>
       <c r="P103" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>33625.075980215901</v>
       </c>
       <c r="Q103" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>63978.522946140511</v>
       </c>
       <c r="R103" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>20772.247709785886</v>
       </c>
       <c r="S103">
-        <f t="shared" si="46"/>
-        <v>1.0294117647058822</v>
-      </c>
-      <c r="T103">
         <f t="shared" si="47"/>
         <v>1.0294117647058822</v>
       </c>
+      <c r="T103">
+        <f t="shared" si="48"/>
+        <v>1.0294117647058822</v>
+      </c>
       <c r="U103">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999992</v>
       </c>
       <c r="V103" t="s">
         <v>18</v>
       </c>
       <c r="X103" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816</v>
       </c>
       <c r="Y103" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778</v>
       </c>
       <c r="Z103" t="str">
@@ -11876,7 +11897,7 @@
         <v>"102":1778</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -11892,8 +11913,8 @@
         <v>1781</v>
       </c>
       <c r="F104">
-        <f t="shared" si="51"/>
-        <v>4</v>
+        <f t="shared" si="34"/>
+        <v>6</v>
       </c>
       <c r="G104">
         <f t="shared" si="54"/>
@@ -11908,56 +11929,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J104">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>174.32396117232059</v>
       </c>
       <c r="K104" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>367117.54603084887</v>
       </c>
       <c r="L104" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>35273.364018461776</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>367117.54603084887</v>
       </c>
       <c r="P104" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>35273.364018461776</v>
       </c>
       <c r="Q104" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>67114.725051343485</v>
       </c>
       <c r="R104" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>21790.495146540095</v>
       </c>
       <c r="S104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0490196078431373</v>
       </c>
       <c r="T104">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0490196078431371</v>
       </c>
       <c r="U104">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999996</v>
       </c>
       <c r="V104" t="s">
         <v>18</v>
       </c>
       <c r="X104" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827</v>
       </c>
       <c r="Y104" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781</v>
       </c>
       <c r="Z104" t="str">
@@ -11969,7 +11990,7 @@
         <v>"103":1781</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -11985,8 +12006,8 @@
         <v>1784</v>
       </c>
       <c r="F105">
-        <f t="shared" si="51"/>
-        <v>4</v>
+        <f t="shared" si="34"/>
+        <v>6</v>
       </c>
       <c r="G105">
         <f t="shared" si="54"/>
@@ -12001,56 +12022,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J105">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>177.74207805805236</v>
       </c>
       <c r="K105" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>374315.92928635573</v>
       </c>
       <c r="L105" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>35964.998607059068</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>374315.92928635573</v>
       </c>
       <c r="P105" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>35964.998607059068</v>
       </c>
       <c r="Q105" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>68430.700052350221</v>
       </c>
       <c r="R105" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>22217.759757256568</v>
       </c>
       <c r="S105">
-        <f t="shared" si="46"/>
-        <v>1.0196078431372551</v>
-      </c>
-      <c r="T105">
         <f t="shared" si="47"/>
         <v>1.0196078431372551</v>
       </c>
+      <c r="T105">
+        <f t="shared" si="48"/>
+        <v>1.0196078431372551</v>
+      </c>
       <c r="U105">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999996</v>
       </c>
       <c r="V105" t="s">
         <v>18</v>
       </c>
       <c r="X105" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838</v>
       </c>
       <c r="Y105" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784</v>
       </c>
       <c r="Z105" t="str">
@@ -12062,7 +12083,7 @@
         <v>"104":1784</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12078,8 +12099,8 @@
         <v>1787</v>
       </c>
       <c r="F106">
-        <f t="shared" si="51"/>
-        <v>4</v>
+        <f t="shared" si="34"/>
+        <v>6</v>
       </c>
       <c r="G106">
         <f t="shared" si="54"/>
@@ -12094,56 +12115,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J106">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>182.96978623623036</v>
       </c>
       <c r="K106" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>385325.22132418974</v>
       </c>
       <c r="L106" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>37022.792683737272</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="O106" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>385325.22132418974</v>
       </c>
       <c r="P106" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>37022.792683737272</v>
       </c>
       <c r="Q106" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>70443.367700948758</v>
       </c>
       <c r="R106" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>22871.223279528818</v>
       </c>
       <c r="S106">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0294117647058825</v>
       </c>
       <c r="T106">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="U106">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.08</v>
       </c>
       <c r="V106" t="s">
         <v>18</v>
       </c>
       <c r="X106" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10</v>
       </c>
       <c r="Y106" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787</v>
       </c>
       <c r="Z106" t="str">
@@ -12155,7 +12176,7 @@
         <v>"105":1787</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12171,8 +12192,8 @@
         <v>1790</v>
       </c>
       <c r="F107">
-        <f t="shared" si="51"/>
-        <v>4</v>
+        <f t="shared" si="34"/>
+        <v>6</v>
       </c>
       <c r="G107">
         <f t="shared" si="54"/>
@@ -12187,56 +12208,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J107">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>191.93889340467302</v>
       </c>
       <c r="K107" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>404213.71256557159</v>
       </c>
       <c r="L107" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>38837.635462351842</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>404213.71256557159</v>
       </c>
       <c r="P107" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>38837.635462351842</v>
       </c>
       <c r="Q107" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>73896.47396079918</v>
       </c>
       <c r="R107" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>23992.36167558415</v>
       </c>
       <c r="S107">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0490196078431373</v>
       </c>
       <c r="T107">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0490196078431371</v>
       </c>
       <c r="U107">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.08</v>
       </c>
       <c r="V107" t="s">
         <v>18</v>
       </c>
       <c r="X107" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849</v>
       </c>
       <c r="Y107" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790</v>
       </c>
       <c r="Z107" t="str">
@@ -12248,7 +12269,7 @@
         <v>"106":1790</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12264,8 +12285,8 @@
         <v>1793</v>
       </c>
       <c r="F108">
-        <f t="shared" si="51"/>
-        <v>4</v>
+        <f t="shared" si="34"/>
+        <v>6</v>
       </c>
       <c r="G108">
         <f t="shared" si="54"/>
@@ -12280,56 +12301,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J108">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>205.11117040303296</v>
       </c>
       <c r="K108" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>431953.86931026768</v>
       </c>
       <c r="L108" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>41502.963386238735</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>431953.86931026768</v>
       </c>
       <c r="P108" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>41502.963386238735</v>
       </c>
       <c r="Q108" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>78967.800605167751</v>
       </c>
       <c r="R108" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>25638.896300379143</v>
       </c>
       <c r="S108">
-        <f t="shared" si="46"/>
-        <v>1.0686274509803921</v>
-      </c>
-      <c r="T108">
         <f t="shared" si="47"/>
         <v>1.0686274509803921</v>
       </c>
+      <c r="T108">
+        <f t="shared" si="48"/>
+        <v>1.0686274509803921</v>
+      </c>
       <c r="U108">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999996</v>
       </c>
       <c r="V108" t="s">
         <v>18</v>
       </c>
       <c r="X108" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860</v>
       </c>
       <c r="Y108" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793</v>
       </c>
       <c r="Z108" t="str">
@@ -12341,7 +12362,7 @@
         <v>"107":1793</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12357,8 +12378,8 @@
         <v>1796</v>
       </c>
       <c r="F109">
-        <f t="shared" si="51"/>
-        <v>4</v>
+        <f t="shared" si="34"/>
+        <v>6</v>
       </c>
       <c r="G109">
         <f t="shared" si="54"/>
@@ -12373,56 +12394,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J109">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>207.12206423051367</v>
       </c>
       <c r="K109" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>436188.71116625069</v>
       </c>
       <c r="L109" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>41909.855184143038</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>436188.71116625069</v>
       </c>
       <c r="P109" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>41909.855184143038</v>
       </c>
       <c r="Q109" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>79741.994728747828</v>
       </c>
       <c r="R109" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>25890.258028814234</v>
       </c>
       <c r="S109">
-        <f t="shared" si="46"/>
-        <v>1.0098039215686274</v>
-      </c>
-      <c r="T109">
         <f t="shared" si="47"/>
         <v>1.0098039215686274</v>
       </c>
+      <c r="T109">
+        <f t="shared" si="48"/>
+        <v>1.0098039215686274</v>
+      </c>
       <c r="U109">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999996</v>
       </c>
       <c r="V109" t="s">
         <v>18</v>
       </c>
       <c r="X109" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871</v>
       </c>
       <c r="Y109" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796</v>
       </c>
       <c r="Z109" t="str">
@@ -12434,7 +12455,7 @@
         <v>"108":1796</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -12450,8 +12471,8 @@
         <v>1799</v>
       </c>
       <c r="F110">
-        <f t="shared" si="51"/>
-        <v>4</v>
+        <f t="shared" si="34"/>
+        <v>6</v>
       </c>
       <c r="G110">
         <f t="shared" si="54"/>
@@ -12466,56 +12487,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J110">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>211.18328117621002</v>
       </c>
       <c r="K110" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>444741.43099303992</v>
       </c>
       <c r="L110" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>42731.617050498782</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>444741.43099303992</v>
       </c>
       <c r="P110" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>42731.617050498782</v>
       </c>
       <c r="Q110" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>81305.563252840933</v>
       </c>
       <c r="R110" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>26397.910147026276</v>
       </c>
       <c r="S110">
-        <f t="shared" si="46"/>
-        <v>1.0196078431372548</v>
-      </c>
-      <c r="T110">
         <f t="shared" si="47"/>
         <v>1.0196078431372548</v>
       </c>
+      <c r="T110">
+        <f t="shared" si="48"/>
+        <v>1.0196078431372548</v>
+      </c>
       <c r="U110">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.08</v>
       </c>
       <c r="V110" t="s">
         <v>18</v>
       </c>
       <c r="X110" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882</v>
       </c>
       <c r="Y110" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799</v>
       </c>
       <c r="Z110" t="str">
@@ -12527,7 +12548,7 @@
         <v>"109":1799</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -12543,8 +12564,8 @@
         <v>1802</v>
       </c>
       <c r="F111">
-        <f t="shared" si="51"/>
-        <v>4</v>
+        <f t="shared" si="34"/>
+        <v>6</v>
       </c>
       <c r="G111">
         <f t="shared" si="54"/>
@@ -12559,56 +12580,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J111">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>217.39455415198091</v>
       </c>
       <c r="K111" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>457822.06131636462</v>
       </c>
       <c r="L111" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>43988.429316689922</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>457822.06131636462</v>
       </c>
       <c r="P111" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43988.429316689922</v>
       </c>
       <c r="Q111" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>83696.903348512715</v>
       </c>
       <c r="R111" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>27174.319268997639</v>
       </c>
       <c r="S111">
-        <f t="shared" si="46"/>
-        <v>1.0294117647058822</v>
-      </c>
-      <c r="T111">
         <f t="shared" si="47"/>
         <v>1.0294117647058822</v>
       </c>
+      <c r="T111">
+        <f t="shared" si="48"/>
+        <v>1.0294117647058822</v>
+      </c>
       <c r="U111">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999996</v>
       </c>
       <c r="V111" t="s">
         <v>18</v>
       </c>
       <c r="X111" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20</v>
       </c>
       <c r="Y111" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802</v>
       </c>
       <c r="Z111" t="str">
@@ -12620,7 +12641,7 @@
         <v>"110":1802</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -12636,64 +12657,64 @@
         <v>1805</v>
       </c>
       <c r="F112">
-        <f t="shared" si="51"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>7</v>
       </c>
       <c r="G112">
         <f t="shared" si="54"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="J112">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>205.43785367362196</v>
       </c>
       <c r="K112" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>432641.84794396453</v>
       </c>
       <c r="L112" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>41569.065704271976</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>432641.84794396453</v>
       </c>
       <c r="P112" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>41569.065704271976</v>
       </c>
       <c r="Q112" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>79093.573664344513</v>
       </c>
       <c r="R112" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>25679.731709202766</v>
       </c>
       <c r="S112">
-        <f t="shared" si="46"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="T112">
         <f t="shared" si="47"/>
         <v>0.94499999999999995</v>
       </c>
+      <c r="T112">
+        <f t="shared" si="48"/>
+        <v>0.94499999999999995</v>
+      </c>
       <c r="U112">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999996</v>
       </c>
       <c r="V112" t="s">
         <v>18</v>
       </c>
       <c r="X112" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932</v>
       </c>
       <c r="Y112" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805</v>
       </c>
       <c r="Z112" t="str">
@@ -12705,7 +12726,7 @@
         <v>"111":1805</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -12721,8 +12742,8 @@
         <v>1808</v>
       </c>
       <c r="F113">
-        <f t="shared" si="51"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>7</v>
       </c>
       <c r="G113">
         <f t="shared" si="54"/>
@@ -12737,56 +12758,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J113">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>211.480143487552</v>
       </c>
       <c r="K113" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>445366.60817761056</v>
       </c>
       <c r="L113" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>42791.685283809391</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>445366.60817761056</v>
       </c>
       <c r="P113" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>42791.685283809391</v>
       </c>
       <c r="Q113" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>81419.855242707592</v>
       </c>
       <c r="R113" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>26435.017935944026</v>
       </c>
       <c r="S113">
-        <f t="shared" si="46"/>
-        <v>1.0294117647058825</v>
-      </c>
-      <c r="T113">
         <f t="shared" si="47"/>
         <v>1.0294117647058825</v>
       </c>
+      <c r="T113">
+        <f t="shared" si="48"/>
+        <v>1.0294117647058825</v>
+      </c>
       <c r="U113">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999996</v>
       </c>
       <c r="V113" t="s">
         <v>18</v>
       </c>
       <c r="X113" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943</v>
       </c>
       <c r="Y113" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808</v>
       </c>
       <c r="Z113" t="str">
@@ -12798,7 +12819,7 @@
         <v>"112":1808</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -12814,8 +12835,8 @@
         <v>1811</v>
       </c>
       <c r="F114">
-        <f t="shared" si="51"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>7</v>
       </c>
       <c r="G114">
         <f t="shared" si="54"/>
@@ -12830,56 +12851,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>221.8468171879222</v>
       </c>
       <c r="K114" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>467198.30465690518</v>
       </c>
       <c r="L114" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>44889.316915368676</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>467198.30465690518</v>
       </c>
       <c r="P114" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>44889.316915368676</v>
       </c>
       <c r="Q114" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>85411.024617350107</v>
       </c>
       <c r="R114" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>27730.852148490303</v>
       </c>
       <c r="S114">
-        <f t="shared" si="46"/>
-        <v>1.0490196078431373</v>
-      </c>
-      <c r="T114">
         <f t="shared" si="47"/>
         <v>1.0490196078431373</v>
       </c>
+      <c r="T114">
+        <f t="shared" si="48"/>
+        <v>1.0490196078431373</v>
+      </c>
       <c r="U114">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999992</v>
       </c>
       <c r="V114" t="s">
         <v>18</v>
       </c>
       <c r="X114" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954</v>
       </c>
       <c r="Y114" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811</v>
       </c>
       <c r="Z114" t="str">
@@ -12891,7 +12912,7 @@
         <v>"113":1811</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -12907,8 +12928,8 @@
         <v>1814</v>
       </c>
       <c r="F115">
-        <f t="shared" si="51"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>7</v>
       </c>
       <c r="G115">
         <f t="shared" si="54"/>
@@ -12923,56 +12944,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J115">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>226.19675477984225</v>
       </c>
       <c r="K115" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>476359.05572860921</v>
       </c>
       <c r="L115" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>45769.499599983748</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>476359.05572860921</v>
       </c>
       <c r="P115" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>45769.499599983748</v>
       </c>
       <c r="Q115" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>87085.750590239331</v>
       </c>
       <c r="R115" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>28274.59434748031</v>
       </c>
       <c r="S115">
-        <f t="shared" si="46"/>
-        <v>1.0196078431372548</v>
-      </c>
-      <c r="T115">
         <f t="shared" si="47"/>
         <v>1.0196078431372548</v>
       </c>
+      <c r="T115">
+        <f t="shared" si="48"/>
+        <v>1.0196078431372548</v>
+      </c>
       <c r="U115">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999992</v>
       </c>
       <c r="V115" t="s">
         <v>18</v>
       </c>
       <c r="X115" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965</v>
       </c>
       <c r="Y115" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814</v>
       </c>
       <c r="Z115" t="str">
@@ -12984,7 +13005,7 @@
         <v>"114":1814</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -13000,8 +13021,8 @@
         <v>1817</v>
       </c>
       <c r="F116">
-        <f t="shared" si="51"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>7</v>
       </c>
       <c r="G116">
         <f t="shared" si="54"/>
@@ -13016,56 +13037,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J116">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>232.84960050866113</v>
       </c>
       <c r="K116" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>490369.61619121535</v>
       </c>
       <c r="L116" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>47115.66135292445</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>490369.61619121535</v>
       </c>
       <c r="P116" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>47115.66135292445</v>
       </c>
       <c r="Q116" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>89647.096195834602</v>
       </c>
       <c r="R116" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>29106.200063582673</v>
       </c>
       <c r="S116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="T116">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0294117647058825</v>
       </c>
       <c r="U116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999987</v>
       </c>
       <c r="V116" t="s">
         <v>18</v>
       </c>
       <c r="X116" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10</v>
       </c>
       <c r="Y116" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817</v>
       </c>
       <c r="Z116" t="str">
@@ -13077,7 +13098,7 @@
         <v>"115":1817</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -13093,8 +13114,8 @@
         <v>1820</v>
       </c>
       <c r="F117">
-        <f t="shared" si="51"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>7</v>
       </c>
       <c r="G117">
         <f t="shared" si="54"/>
@@ -13109,56 +13130,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J117">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>244.26379661202688</v>
       </c>
       <c r="K117" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>514407.34247509844</v>
       </c>
       <c r="L117" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>49425.252595714868</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>514407.34247509844</v>
       </c>
       <c r="P117" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>49425.252595714868</v>
       </c>
       <c r="Q117" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>94041.561695630415</v>
       </c>
       <c r="R117" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>30532.974576503395</v>
       </c>
       <c r="S117">
-        <f t="shared" si="46"/>
-        <v>1.0490196078431373</v>
-      </c>
-      <c r="T117">
         <f t="shared" si="47"/>
         <v>1.0490196078431373</v>
       </c>
+      <c r="T117">
+        <f t="shared" si="48"/>
+        <v>1.0490196078431373</v>
+      </c>
       <c r="U117">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999987</v>
       </c>
       <c r="V117" t="s">
         <v>18</v>
       </c>
       <c r="X117" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976</v>
       </c>
       <c r="Y117" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820</v>
       </c>
       <c r="Z117" t="str">
@@ -13170,7 +13191,7 @@
         <v>"116":1820</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -13186,8 +13207,8 @@
         <v>1823</v>
       </c>
       <c r="F118">
-        <f t="shared" si="51"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>7</v>
       </c>
       <c r="G118">
         <f t="shared" si="54"/>
@@ -13202,56 +13223,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J118">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>261.02699834030324</v>
       </c>
       <c r="K118" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>549709.80715476209</v>
       </c>
       <c r="L118" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>52817.181695420797</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
       <c r="O118" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>549709.80715476209</v>
       </c>
       <c r="P118" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>52817.181695420797</v>
       </c>
       <c r="Q118" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>100495.39436101682</v>
       </c>
       <c r="R118" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>32628.374792537947</v>
       </c>
       <c r="S118">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0686274509803921</v>
       </c>
       <c r="T118">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0686274509803924</v>
       </c>
       <c r="U118">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999983</v>
       </c>
       <c r="V118" t="s">
         <v>18</v>
       </c>
       <c r="X118" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987</v>
       </c>
       <c r="Y118" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823</v>
       </c>
       <c r="Z118" t="str">
@@ -13263,7 +13284,7 @@
         <v>"117":1823</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -13279,8 +13300,8 @@
         <v>1826</v>
       </c>
       <c r="F119">
-        <f t="shared" si="51"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>7</v>
       </c>
       <c r="G119">
         <f t="shared" si="54"/>
@@ -13295,56 +13316,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J119">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>263.58608655932585</v>
       </c>
       <c r="K119" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>555099.11898961267</v>
       </c>
       <c r="L119" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>53334.997202238643</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>555099.11898961267</v>
       </c>
       <c r="P119" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>53334.997202238643</v>
       </c>
       <c r="Q119" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>101480.64332534051</v>
       </c>
       <c r="R119" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>32948.260819915762</v>
       </c>
       <c r="S119">
-        <f t="shared" si="46"/>
-        <v>1.0098039215686274</v>
-      </c>
-      <c r="T119">
         <f t="shared" si="47"/>
         <v>1.0098039215686274</v>
       </c>
+      <c r="T119">
+        <f t="shared" si="48"/>
+        <v>1.0098039215686274</v>
+      </c>
       <c r="U119">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999987</v>
       </c>
       <c r="V119" t="s">
         <v>18</v>
       </c>
       <c r="X119" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998</v>
       </c>
       <c r="Y119" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826</v>
       </c>
       <c r="Z119" t="str">
@@ -13356,7 +13377,7 @@
         <v>"118":1826</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -13372,8 +13393,8 @@
         <v>1829</v>
       </c>
       <c r="F120">
-        <f t="shared" si="51"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>7</v>
       </c>
       <c r="G120">
         <f t="shared" si="54"/>
@@ -13388,56 +13409,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J120">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>268.75444119774397</v>
       </c>
       <c r="K120" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>565983.41544038942</v>
       </c>
       <c r="L120" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>54380.781461106068</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>565983.41544038942</v>
       </c>
       <c r="P120" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>54380.781461106068</v>
       </c>
       <c r="Q120" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>103470.45986113152</v>
       </c>
       <c r="R120" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>33594.305149718035</v>
       </c>
       <c r="S120">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0196078431372551</v>
       </c>
       <c r="T120">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0196078431372548</v>
       </c>
       <c r="U120">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999992</v>
       </c>
       <c r="V120" t="s">
         <v>18</v>
       </c>
       <c r="X120" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009</v>
       </c>
       <c r="Y120" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829</v>
       </c>
       <c r="Z120" t="str">
@@ -13449,7 +13470,7 @@
         <v>"119":1829</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -13465,8 +13486,8 @@
         <v>1832</v>
       </c>
       <c r="F121">
-        <f t="shared" si="51"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>7</v>
       </c>
       <c r="G121">
         <f t="shared" si="54"/>
@@ -13481,56 +13502,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J121">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>276.65898358591295</v>
       </c>
       <c r="K121" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>582629.98648275388</v>
       </c>
       <c r="L121" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>55980.216209962127</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
       <c r="O121" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>582629.98648275388</v>
       </c>
       <c r="P121" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>55980.216209962127</v>
       </c>
       <c r="Q121" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>106513.70868057657</v>
       </c>
       <c r="R121" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>34582.372948239157</v>
       </c>
       <c r="S121">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0294117647058825</v>
       </c>
       <c r="T121">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="U121">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999992</v>
       </c>
       <c r="V121" t="s">
         <v>18</v>
       </c>
       <c r="X121" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20</v>
       </c>
       <c r="Y121" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832</v>
       </c>
       <c r="Z121" t="str">
@@ -13542,7 +13563,7 @@
         <v>"120":1832</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -13558,64 +13579,64 @@
         <v>1835</v>
       </c>
       <c r="F122">
-        <f t="shared" si="51"/>
-        <v>6</v>
+        <f t="shared" si="34"/>
+        <v>8</v>
       </c>
       <c r="G122">
         <f t="shared" si="54"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="J122">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>261.44273948868772</v>
       </c>
       <c r="K122" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>550585.33722620236</v>
       </c>
       <c r="L122" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>52901.304318414208</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>550585.33722620236</v>
       </c>
       <c r="P122" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>52901.304318414208</v>
       </c>
       <c r="Q122" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>100655.45470314485</v>
       </c>
       <c r="R122" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>32680.342436085997</v>
       </c>
       <c r="S122">
-        <f t="shared" si="46"/>
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="T122">
         <f t="shared" si="47"/>
         <v>0.94499999999999995</v>
       </c>
+      <c r="T122">
+        <f t="shared" si="48"/>
+        <v>0.94499999999999995</v>
+      </c>
       <c r="U122">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999992</v>
       </c>
       <c r="V122" t="s">
         <v>18</v>
       </c>
       <c r="X122" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059</v>
       </c>
       <c r="Y122" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835</v>
       </c>
       <c r="Z122" t="str">
@@ -13627,7 +13648,7 @@
         <v>"121":1835</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -13643,8 +13664,8 @@
         <v>1838</v>
       </c>
       <c r="F123">
-        <f t="shared" si="51"/>
-        <v>6</v>
+        <f t="shared" si="34"/>
+        <v>8</v>
       </c>
       <c r="G123">
         <f t="shared" si="54"/>
@@ -13659,56 +13680,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J123">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>269.13223182659027</v>
       </c>
       <c r="K123" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>566779.02361520834</v>
       </c>
       <c r="L123" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>54457.225033661678</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>566779.02361520834</v>
       </c>
       <c r="P123" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>54457.225033661678</v>
       </c>
       <c r="Q123" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>103615.90925323735</v>
       </c>
       <c r="R123" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>33641.528978323819</v>
       </c>
       <c r="S123">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0294117647058825</v>
       </c>
       <c r="T123">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="U123">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999996</v>
       </c>
       <c r="V123" t="s">
         <v>18</v>
       </c>
       <c r="X123" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070</v>
       </c>
       <c r="Y123" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838</v>
       </c>
       <c r="Z123" t="str">
@@ -13720,7 +13741,7 @@
         <v>"122":1838</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -13736,8 +13757,8 @@
         <v>1841</v>
       </c>
       <c r="F124">
-        <f t="shared" si="51"/>
-        <v>6</v>
+        <f t="shared" si="34"/>
+        <v>8</v>
       </c>
       <c r="G124">
         <f t="shared" si="54"/>
@@ -13752,56 +13773,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J124">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>282.32498828867801</v>
       </c>
       <c r="K124" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>594562.30908654211</v>
       </c>
       <c r="L124" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>57126.696849037253</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>594562.30908654211</v>
       </c>
       <c r="P124" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>57126.696849037253</v>
       </c>
       <c r="Q124" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>108695.12049114115</v>
       </c>
       <c r="R124" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>35290.623536084793</v>
       </c>
       <c r="S124">
-        <f t="shared" si="46"/>
-        <v>1.0490196078431373</v>
-      </c>
-      <c r="T124">
         <f t="shared" si="47"/>
         <v>1.0490196078431373</v>
       </c>
+      <c r="T124">
+        <f t="shared" si="48"/>
+        <v>1.0490196078431373</v>
+      </c>
       <c r="U124">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0799999999999996</v>
       </c>
       <c r="V124" t="s">
         <v>18</v>
       </c>
       <c r="X124" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081</v>
       </c>
       <c r="Y124" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841</v>
       </c>
       <c r="Z124" t="str">
@@ -13813,7 +13834,7 @@
         <v>"123":1841</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -13829,8 +13850,8 @@
         <v>1844</v>
       </c>
       <c r="F125">
-        <f t="shared" si="51"/>
-        <v>6</v>
+        <f t="shared" si="34"/>
+        <v>8</v>
       </c>
       <c r="G125">
         <f t="shared" si="54"/>
@@ -13845,56 +13866,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J125">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>287.86077237276976</v>
       </c>
       <c r="K125" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>606220.39357843518</v>
       </c>
       <c r="L125" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>58246.828159802688</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>606220.39357843518</v>
       </c>
       <c r="P125" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>58246.828159802688</v>
       </c>
       <c r="Q125" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>110826.39736351647</v>
       </c>
       <c r="R125" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>35982.596546596258</v>
       </c>
       <c r="S125">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0196078431372551</v>
       </c>
       <c r="T125">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0196078431372548</v>
       </c>
       <c r="U125">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.08</v>
       </c>
       <c r="V125" t="s">
         <v>18</v>
       </c>
       <c r="X125" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092</v>
       </c>
       <c r="Y125" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844</v>
       </c>
       <c r="Z125" t="str">
@@ -13906,7 +13927,7 @@
         <v>"124":1844</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13922,8 +13943,8 @@
         <v>1847</v>
       </c>
       <c r="F126">
-        <f t="shared" si="51"/>
-        <v>6</v>
+        <f t="shared" si="34"/>
+        <v>8</v>
       </c>
       <c r="G126">
         <f t="shared" si="54"/>
@@ -13938,56 +13959,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J126">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>296.32726567785124</v>
       </c>
       <c r="K126" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>624050.40515427152</v>
       </c>
       <c r="L126" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>59959.970164502767</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
       <c r="O126" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>624050.40515427152</v>
       </c>
       <c r="P126" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>59959.970164502767</v>
       </c>
       <c r="Q126" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>114085.99728597284</v>
       </c>
       <c r="R126" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>37040.908209731439</v>
       </c>
       <c r="S126">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0294117647058825</v>
       </c>
       <c r="T126">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="U126">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0800000000000005</v>
       </c>
       <c r="V126" t="s">
         <v>18</v>
       </c>
       <c r="X126" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10</v>
       </c>
       <c r="Y126" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847</v>
       </c>
       <c r="Z126" t="str">
@@ -13999,7 +14020,7 @@
         <v>"125":1847</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14015,8 +14036,8 @@
         <v>1850</v>
       </c>
       <c r="F127">
-        <f t="shared" si="51"/>
-        <v>6</v>
+        <f t="shared" ref="F127:F131" si="63">F117+1</f>
+        <v>8</v>
       </c>
       <c r="G127">
         <f t="shared" si="54"/>
@@ -14031,56 +14052,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J127">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>310.85311203460867</v>
       </c>
       <c r="K127" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>654641.11128928489</v>
       </c>
       <c r="L127" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>62899.184388252907</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>654641.11128928489</v>
       </c>
       <c r="P127" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>62899.184388252907</v>
       </c>
       <c r="Q127" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>119678.44813332446</v>
       </c>
       <c r="R127" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>38856.63900432612</v>
       </c>
       <c r="S127">
-        <f t="shared" si="46"/>
-        <v>1.0490196078431373</v>
-      </c>
-      <c r="T127">
         <f t="shared" si="47"/>
         <v>1.0490196078431373</v>
       </c>
+      <c r="T127">
+        <f t="shared" si="48"/>
+        <v>1.0490196078431373</v>
+      </c>
       <c r="U127">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0800000000000005</v>
       </c>
       <c r="V127" t="s">
         <v>18</v>
       </c>
       <c r="X127" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103</v>
       </c>
       <c r="Y127" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850</v>
       </c>
       <c r="Z127" t="str">
@@ -14092,7 +14113,7 @@
         <v>"126":1850</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14108,8 +14129,8 @@
         <v>1853</v>
       </c>
       <c r="F128">
-        <f t="shared" si="51"/>
-        <v>6</v>
+        <f t="shared" si="63"/>
+        <v>8</v>
       </c>
       <c r="G128">
         <f t="shared" si="54"/>
@@ -14124,56 +14145,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J128">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>332.18616874286613</v>
       </c>
       <c r="K128" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>699567.46206403978</v>
       </c>
       <c r="L128" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>67215.795081564385</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>699567.46206403978</v>
       </c>
       <c r="P128" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>67215.795081564385</v>
       </c>
       <c r="Q128" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>127891.6749660036</v>
       </c>
       <c r="R128" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>41523.271092858311</v>
       </c>
       <c r="S128">
-        <f t="shared" si="46"/>
-        <v>1.0686274509803921</v>
-      </c>
-      <c r="T128">
         <f t="shared" si="47"/>
         <v>1.0686274509803921</v>
       </c>
+      <c r="T128">
+        <f t="shared" si="48"/>
+        <v>1.0686274509803921</v>
+      </c>
       <c r="U128">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.08</v>
       </c>
       <c r="V128" t="s">
         <v>18</v>
       </c>
       <c r="X128" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114</v>
       </c>
       <c r="Y128" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853</v>
       </c>
       <c r="Z128" t="str">
@@ -14185,7 +14206,7 @@
         <v>"127":1853</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14201,8 +14222,8 @@
         <v>1856</v>
       </c>
       <c r="F129">
-        <f t="shared" si="51"/>
-        <v>6</v>
+        <f t="shared" si="63"/>
+        <v>8</v>
       </c>
       <c r="G129">
         <f t="shared" si="54"/>
@@ -14217,56 +14238,56 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J129">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>335.44289588740401</v>
       </c>
       <c r="K129" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>706425.96659407928</v>
       </c>
       <c r="L129" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>67874.773464716971</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>706425.96659407928</v>
       </c>
       <c r="P129" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>67874.773464716971</v>
       </c>
       <c r="Q129" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>129145.51491665067</v>
       </c>
       <c r="R129" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>41930.361985925541</v>
       </c>
       <c r="S129">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0098039215686272</v>
       </c>
       <c r="T129">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0098039215686274</v>
       </c>
       <c r="U129">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.08</v>
       </c>
       <c r="V129" t="s">
         <v>18</v>
       </c>
       <c r="X129" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125</v>
       </c>
       <c r="Y129" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856</v>
       </c>
       <c r="Z129" t="str">
@@ -14278,7 +14299,7 @@
         <v>"128":1856</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -14294,11 +14315,11 @@
         <v>1859</v>
       </c>
       <c r="F130">
-        <f t="shared" si="51"/>
-        <v>6</v>
+        <f t="shared" si="63"/>
+        <v>8</v>
       </c>
       <c r="G130">
-        <f t="shared" ref="G130:G151" si="63">IF(MOD(A130,10)=1,0.945,
+        <f t="shared" ref="G130:G151" si="64">IF(MOD(A130,10)=1,0.945,
 IF(MOD(A130,10)=2,1.05,
 IF(MOD(A130,10)=3,1.07,
 IF(MOD(A130,10)=4,1.04,
@@ -14320,68 +14341,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J130">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>342.02020757147073</v>
       </c>
       <c r="K130" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>720277.45613513968</v>
       </c>
       <c r="L130" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>69205.65137578985</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>720277.45613513968</v>
       </c>
       <c r="P130" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>69205.65137578985</v>
       </c>
       <c r="Q130" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>131677.77991501638</v>
       </c>
       <c r="R130" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>42752.525946433889</v>
       </c>
       <c r="S130">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0196078431372551</v>
       </c>
       <c r="T130">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.0196078431372548</v>
       </c>
       <c r="U130">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.08</v>
       </c>
       <c r="V130" t="s">
         <v>18</v>
       </c>
       <c r="X130" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136</v>
       </c>
       <c r="Y130" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859</v>
       </c>
       <c r="Z130" t="str">
-        <f t="shared" ref="Z130:Z151" si="64">""""&amp;$A130&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B130),C130,B130)</f>
+        <f t="shared" ref="Z130:Z151" si="65">""""&amp;$A130&amp;""""&amp;""&amp;":"&amp;IF(ISBLANK(B130),C130,B130)</f>
         <v>"129":15136</v>
       </c>
       <c r="AA130" t="str">
-        <f t="shared" ref="AA130:AA151" si="65">""""&amp;$A130&amp;""""&amp;""&amp;":"&amp;E130</f>
+        <f t="shared" ref="AA130:AA151" si="66">""""&amp;$A130&amp;""""&amp;""&amp;":"&amp;E130</f>
         <v>"129":1859</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -14389,22 +14410,22 @@
         <v>20</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D151" si="66">IF(NOT(ISBLANK(B131)),"삭",
+        <f t="shared" ref="D131:D151" si="67">IF(NOT(ISBLANK(B131)),"삭",
 IF(MOD(A130,10)=0,D129+1050,
 IF(MOD(A130,10)=5,D129+11,
 D130+11)))</f>
         <v>삭</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E151" si="67">E130+3</f>
+        <f t="shared" ref="E131:E151" si="68">E130+3</f>
         <v>1862</v>
       </c>
       <c r="F131">
-        <f t="shared" si="51"/>
-        <v>6</v>
+        <f t="shared" si="63"/>
+        <v>8</v>
       </c>
       <c r="G131">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.05</v>
       </c>
       <c r="H131">
@@ -14416,68 +14437,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J131">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>352.07962544121989</v>
       </c>
       <c r="K131" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>741462.08719793789</v>
       </c>
       <c r="L131" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>71241.111710371901</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
       <c r="O131" s="2">
-        <f t="shared" ref="O131:O151" si="68">IF(ISBLANK(M131),K131,M131)</f>
+        <f t="shared" ref="O131:O151" si="69">IF(ISBLANK(M131),K131,M131)</f>
         <v>741462.08719793789</v>
       </c>
       <c r="P131" s="2">
-        <f t="shared" ref="P131:P151" si="69">IF(ISBLANK(N131),L131,N131)</f>
+        <f t="shared" ref="P131:P151" si="70">IF(ISBLANK(N131),L131,N131)</f>
         <v>71241.111710371901</v>
       </c>
       <c r="Q131" s="2">
-        <f t="shared" ref="Q131:Q151" si="70">O131/((1+1.485+0.25)*2)</f>
+        <f t="shared" ref="Q131:Q151" si="71">O131/((1+1.485+0.25)*2)</f>
         <v>135550.65579486979</v>
       </c>
       <c r="R131" s="2">
-        <f t="shared" ref="R131:R151" si="71">P131/(1+0.61875)</f>
+        <f t="shared" ref="R131:R151" si="72">P131/(1+0.61875)</f>
         <v>44009.95318015253</v>
       </c>
       <c r="S131">
-        <f t="shared" si="46"/>
-        <v>1.0294117647058822</v>
-      </c>
-      <c r="T131">
         <f t="shared" si="47"/>
         <v>1.0294117647058822</v>
       </c>
+      <c r="T131">
+        <f t="shared" si="48"/>
+        <v>1.0294117647058822</v>
+      </c>
       <c r="U131">
-        <f t="shared" ref="U131:U151" si="72">Q131/R131</f>
+        <f t="shared" ref="U131:U151" si="73">Q131/R131</f>
         <v>3.08</v>
       </c>
       <c r="V131" t="s">
         <v>18</v>
       </c>
       <c r="X131" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20</v>
       </c>
       <c r="Y131" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862</v>
       </c>
       <c r="Z131" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"130":20</v>
       </c>
       <c r="AA131" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"130":1862</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -14485,84 +14506,84 @@
         <v>16186</v>
       </c>
       <c r="D132">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>16186</v>
       </c>
       <c r="E132">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1865</v>
       </c>
       <c r="F132">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" ref="F83:F146" si="74">F122+1</f>
+        <v>9</v>
       </c>
       <c r="G132">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="J132">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>332.71524604195275</v>
       </c>
       <c r="K132" s="2">
-        <f t="shared" ref="K132:K151" si="73">O131*$G132*IF(ISBLANK($H132),1,$H132)</f>
+        <f t="shared" ref="K132:K151" si="75">O131*$G132*IF(ISBLANK($H132),1,$H132)</f>
         <v>700681.67240205128</v>
       </c>
       <c r="L132" s="2">
-        <f t="shared" ref="L132:L151" si="74">P131*$G132*IF(ISBLANK($I132),1,$I132)</f>
+        <f t="shared" ref="L132:L151" si="76">P131*$G132*IF(ISBLANK($I132),1,$I132)</f>
         <v>67322.850566301437</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
       <c r="O132" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>700681.67240205128</v>
       </c>
       <c r="P132" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>67322.850566301437</v>
       </c>
       <c r="Q132" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>128095.36972615196</v>
       </c>
       <c r="R132" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>41589.40575524413</v>
       </c>
       <c r="S132">
-        <f t="shared" ref="S132:S151" si="75">O132/O131</f>
+        <f t="shared" ref="S132:S151" si="77">O132/O131</f>
         <v>0.94499999999999995</v>
       </c>
       <c r="T132">
-        <f t="shared" ref="T132:T151" si="76">P132/P131</f>
+        <f t="shared" ref="T132:T151" si="78">P132/P131</f>
         <v>0.94499999999999984</v>
       </c>
       <c r="U132">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.080000000000001</v>
       </c>
       <c r="V132" t="s">
         <v>18</v>
       </c>
       <c r="X132" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186</v>
       </c>
       <c r="Y132" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865</v>
       </c>
       <c r="Z132" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"131":16186</v>
       </c>
       <c r="AA132" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"131":1865</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -14570,19 +14591,19 @@
         <v>16197</v>
       </c>
       <c r="D133">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>16197</v>
       </c>
       <c r="E133">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1868</v>
       </c>
       <c r="F133">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" si="74"/>
+        <v>9</v>
       </c>
       <c r="G133">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.05</v>
       </c>
       <c r="H133">
@@ -14594,68 +14615,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J133">
-        <f t="shared" ref="J133:J151" si="77">J132*G133*IF(ISBLANK($I133),1,$I133)</f>
+        <f t="shared" ref="J133:J151" si="79">J132*G133*IF(ISBLANK($I133),1,$I133)</f>
         <v>342.50098857259843</v>
       </c>
       <c r="K133" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>721289.9568844646</v>
       </c>
       <c r="L133" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>69302.934406486776</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
       <c r="O133" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>721289.9568844646</v>
       </c>
       <c r="P133" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>69302.934406486776</v>
       </c>
       <c r="Q133" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>131862.88060045056</v>
       </c>
       <c r="R133" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>42812.623571574848</v>
       </c>
       <c r="S133">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0294117647058825</v>
       </c>
       <c r="T133">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0294117647058825</v>
       </c>
       <c r="U133">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.0800000000000005</v>
       </c>
       <c r="V133" t="s">
         <v>18</v>
       </c>
       <c r="X133" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197</v>
       </c>
       <c r="Y133" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868</v>
       </c>
       <c r="Z133" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"132":16197</v>
       </c>
       <c r="AA133" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"132":1868</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -14663,19 +14684,19 @@
         <v>16208</v>
       </c>
       <c r="D134">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>16208</v>
       </c>
       <c r="E134">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1871</v>
       </c>
       <c r="F134">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" si="74"/>
+        <v>9</v>
       </c>
       <c r="G134">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.07</v>
       </c>
       <c r="H134">
@@ -14687,68 +14708,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J134">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>359.29025271831404</v>
       </c>
       <c r="K134" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>756647.30771213444</v>
       </c>
       <c r="L134" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>72700.137073471415</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
       <c r="O134" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>756647.30771213444</v>
       </c>
       <c r="P134" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>72700.137073471415</v>
       </c>
       <c r="Q134" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>138326.74729655107</v>
       </c>
       <c r="R134" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>44911.281589789294</v>
       </c>
       <c r="S134">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0490196078431373</v>
       </c>
       <c r="T134">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0490196078431371</v>
       </c>
       <c r="U134">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.080000000000001</v>
       </c>
       <c r="V134" t="s">
         <v>18</v>
       </c>
       <c r="X134" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208</v>
       </c>
       <c r="Y134" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871</v>
       </c>
       <c r="Z134" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"133":16208</v>
       </c>
       <c r="AA134" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"133":1871</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -14756,19 +14777,19 @@
         <v>16219</v>
       </c>
       <c r="D135">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>16219</v>
       </c>
       <c r="E135">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1874</v>
       </c>
       <c r="F135">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" si="74"/>
+        <v>9</v>
       </c>
       <c r="G135">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.04</v>
       </c>
       <c r="H135">
@@ -14780,68 +14801,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J135">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>366.3351596343594</v>
       </c>
       <c r="K135" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>771483.52943198022</v>
       </c>
       <c r="L135" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>74125.629957264959</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="O135" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>771483.52943198022</v>
       </c>
       <c r="P135" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>74125.629957264959</v>
       </c>
       <c r="Q135" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>141039.03645922855</v>
       </c>
       <c r="R135" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>45791.894954294956</v>
       </c>
       <c r="S135">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0196078431372548</v>
       </c>
       <c r="T135">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0196078431372548</v>
       </c>
       <c r="U135">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.0800000000000018</v>
       </c>
       <c r="V135" t="s">
         <v>18</v>
       </c>
       <c r="X135" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219</v>
       </c>
       <c r="Y135" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874</v>
       </c>
       <c r="Z135" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"134":16219</v>
       </c>
       <c r="AA135" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"134":1874</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -14849,19 +14870,19 @@
         <v>10</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>삭</v>
       </c>
       <c r="E136">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1877</v>
       </c>
       <c r="F136">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" si="74"/>
+        <v>9</v>
       </c>
       <c r="G136">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.05</v>
       </c>
       <c r="H136">
@@ -14873,68 +14894,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J136">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>377.10972315301706</v>
       </c>
       <c r="K136" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>794174.22147409723</v>
       </c>
       <c r="L136" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>76305.795544243345</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>794174.22147409723</v>
       </c>
       <c r="P136" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>76305.795544243345</v>
       </c>
       <c r="Q136" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>145187.24341391172</v>
       </c>
       <c r="R136" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>47138.715394127168</v>
       </c>
       <c r="S136">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="T136">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0294117647058825</v>
       </c>
       <c r="U136">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.080000000000001</v>
       </c>
       <c r="V136" t="s">
         <v>18</v>
       </c>
       <c r="X136" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10</v>
       </c>
       <c r="Y136" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877</v>
       </c>
       <c r="Z136" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"135":10</v>
       </c>
       <c r="AA136" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"135":1877</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -14942,19 +14963,19 @@
         <v>16230</v>
       </c>
       <c r="D137">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>16230</v>
       </c>
       <c r="E137">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1880</v>
       </c>
       <c r="F137">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" si="74"/>
+        <v>9</v>
       </c>
       <c r="G137">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.07</v>
       </c>
       <c r="H137">
@@ -14966,68 +14987,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J137">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>395.59549389581207</v>
       </c>
       <c r="K137" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>833104.33036988636</v>
       </c>
       <c r="L137" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>80046.275717980767</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>833104.33036988636</v>
       </c>
       <c r="P137" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>80046.275717980767</v>
       </c>
       <c r="Q137" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>152304.2651498878</v>
       </c>
       <c r="R137" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>49449.436736976539</v>
       </c>
       <c r="S137">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0490196078431373</v>
       </c>
       <c r="T137">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0490196078431373</v>
       </c>
       <c r="U137">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.080000000000001</v>
       </c>
       <c r="V137" t="s">
         <v>18</v>
       </c>
       <c r="X137" t="str">
-        <f t="shared" ref="X137:X151" si="78">X136&amp;","&amp;Z137</f>
+        <f t="shared" ref="X137:X151" si="80">X136&amp;","&amp;Z137</f>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230</v>
       </c>
       <c r="Y137" t="str">
-        <f t="shared" ref="Y137:Y151" si="79">Y136&amp;","&amp;AA137</f>
+        <f t="shared" ref="Y137:Y151" si="81">Y136&amp;","&amp;AA137</f>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880</v>
       </c>
       <c r="Z137" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"136":16230</v>
       </c>
       <c r="AA137" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"136":1880</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -15035,19 +15056,19 @@
         <v>16241</v>
       </c>
       <c r="D138">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>16241</v>
       </c>
       <c r="E138">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1883</v>
       </c>
       <c r="F138">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" si="74"/>
+        <v>9</v>
       </c>
       <c r="G138">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="H138">
@@ -15059,68 +15080,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J138">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>422.74420426121094</v>
       </c>
       <c r="K138" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>890278.15696389822</v>
       </c>
       <c r="L138" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>85539.64758097945</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
       <c r="O138" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>890278.15696389822</v>
       </c>
       <c r="P138" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>85539.64758097945</v>
       </c>
       <c r="Q138" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>162756.51864056638</v>
       </c>
       <c r="R138" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>52843.025532651402</v>
       </c>
       <c r="S138">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0686274509803921</v>
       </c>
       <c r="T138">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0686274509803921</v>
       </c>
       <c r="U138">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.0800000000000014</v>
       </c>
       <c r="V138" t="s">
         <v>18</v>
       </c>
       <c r="X138" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241</v>
       </c>
       <c r="Y138" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880,"137":1883</v>
       </c>
       <c r="Z138" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"137":16241</v>
       </c>
       <c r="AA138" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"137":1883</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -15128,19 +15149,19 @@
         <v>16252</v>
       </c>
       <c r="D139">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>16252</v>
       </c>
       <c r="E139">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1886</v>
       </c>
       <c r="F139">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" si="74"/>
+        <v>9</v>
       </c>
       <c r="G139">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.03</v>
       </c>
       <c r="H139">
@@ -15152,68 +15173,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J139">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>426.88875528337968</v>
       </c>
       <c r="K139" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>899006.37418903445</v>
       </c>
       <c r="L139" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>86378.271576871412</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>899006.37418903445</v>
       </c>
       <c r="P139" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>86378.271576871412</v>
       </c>
       <c r="Q139" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>164352.17078410136</v>
       </c>
       <c r="R139" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>53361.094410422498</v>
       </c>
       <c r="S139">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0098039215686274</v>
       </c>
       <c r="T139">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0098039215686274</v>
       </c>
       <c r="U139">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.080000000000001</v>
       </c>
       <c r="V139" t="s">
         <v>18</v>
       </c>
       <c r="X139" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252</v>
       </c>
       <c r="Y139" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880,"137":1883,"138":1886</v>
       </c>
       <c r="Z139" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"138":16252</v>
       </c>
       <c r="AA139" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"138":1886</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15221,19 +15242,19 @@
         <v>16263</v>
       </c>
       <c r="D140">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>16263</v>
       </c>
       <c r="E140">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1889</v>
       </c>
       <c r="F140">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" si="74"/>
+        <v>9</v>
       </c>
       <c r="G140">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.04</v>
       </c>
       <c r="H140">
@@ -15245,68 +15266,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J140">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>435.25912303403419</v>
       </c>
       <c r="K140" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>916633.95015352534</v>
       </c>
       <c r="L140" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>88071.963176417907</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
       <c r="O140" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>916633.95015352534</v>
       </c>
       <c r="P140" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>88071.963176417907</v>
       </c>
       <c r="Q140" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>167574.76236810334</v>
       </c>
       <c r="R140" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>54407.390379254306</v>
       </c>
       <c r="S140">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0196078431372548</v>
       </c>
       <c r="T140">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0196078431372548</v>
       </c>
       <c r="U140">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.0800000000000014</v>
       </c>
       <c r="V140" t="s">
         <v>18</v>
       </c>
       <c r="X140" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263</v>
       </c>
       <c r="Y140" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880,"137":1883,"138":1886,"139":1889</v>
       </c>
       <c r="Z140" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"139":16263</v>
       </c>
       <c r="AA140" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"139":1889</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15314,19 +15335,19 @@
         <v>20</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>삭</v>
       </c>
       <c r="E141">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1892</v>
       </c>
       <c r="F141">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" si="74"/>
+        <v>9</v>
       </c>
       <c r="G141">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.05</v>
       </c>
       <c r="H141">
@@ -15338,68 +15359,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J141">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>448.06086194679989</v>
       </c>
       <c r="K141" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>943593.77221686428</v>
       </c>
       <c r="L141" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>90662.315034547835</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>943593.77221686428</v>
       </c>
       <c r="P141" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>90662.315034547835</v>
       </c>
       <c r="Q141" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>172503.43184951812</v>
       </c>
       <c r="R141" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>56007.607743350018</v>
       </c>
       <c r="S141">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="T141">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="U141">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.0800000000000014</v>
       </c>
       <c r="V141" t="s">
         <v>18</v>
       </c>
       <c r="X141" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20</v>
       </c>
       <c r="Y141" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880,"137":1883,"138":1886,"139":1889,"140":1892</v>
       </c>
       <c r="Z141" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"140":20</v>
       </c>
       <c r="AA141" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"140":1892</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15407,84 +15428,84 @@
         <v>17313</v>
       </c>
       <c r="D142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>17313</v>
       </c>
       <c r="E142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1895</v>
       </c>
       <c r="F142">
-        <f t="shared" si="51"/>
-        <v>8</v>
+        <f t="shared" si="74"/>
+        <v>10</v>
       </c>
       <c r="G142">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="J142">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>423.41751453972586</v>
       </c>
       <c r="K142" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>891696.1147449367</v>
       </c>
       <c r="L142" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>85675.887707647693</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>891696.1147449367</v>
       </c>
       <c r="P142" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>85675.887707647693</v>
       </c>
       <c r="Q142" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>163015.74309779462</v>
       </c>
       <c r="R142" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>52927.18931746576</v>
       </c>
       <c r="S142">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>0.94499999999999995</v>
       </c>
       <c r="T142">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>0.94499999999999984</v>
       </c>
       <c r="U142">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.0800000000000014</v>
       </c>
       <c r="V142" t="s">
         <v>18</v>
       </c>
       <c r="X142" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313</v>
       </c>
       <c r="Y142" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880,"137":1883,"138":1886,"139":1889,"140":1892,"141":1895</v>
       </c>
       <c r="Z142" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"141":17313</v>
       </c>
       <c r="AA142" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"141":1895</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15492,19 +15513,19 @@
         <v>17324</v>
       </c>
       <c r="D143">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>17324</v>
       </c>
       <c r="E143">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1898</v>
       </c>
       <c r="F143">
-        <f t="shared" si="51"/>
-        <v>8</v>
+        <f t="shared" si="74"/>
+        <v>10</v>
       </c>
       <c r="G143">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.05</v>
       </c>
       <c r="H143">
@@ -15516,68 +15537,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J143">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>435.87097084971776</v>
       </c>
       <c r="K143" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>917922.47106096428</v>
       </c>
       <c r="L143" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>88195.766757872625</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
       <c r="O143" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>917922.47106096428</v>
       </c>
       <c r="P143" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>88195.766757872625</v>
       </c>
       <c r="Q143" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>167810.32377714154</v>
       </c>
       <c r="R143" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>54483.871356214753</v>
       </c>
       <c r="S143">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0294117647058825</v>
       </c>
       <c r="T143">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="U143">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.0800000000000018</v>
       </c>
       <c r="V143" t="s">
         <v>18</v>
       </c>
       <c r="X143" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324</v>
       </c>
       <c r="Y143" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880,"137":1883,"138":1886,"139":1889,"140":1892,"141":1895,"142":1898</v>
       </c>
       <c r="Z143" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"142":17324</v>
       </c>
       <c r="AA143" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"142":1898</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -15585,19 +15606,19 @@
         <v>17335</v>
       </c>
       <c r="D144">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>17335</v>
       </c>
       <c r="E144">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1901</v>
       </c>
       <c r="F144">
-        <f t="shared" si="51"/>
-        <v>8</v>
+        <f t="shared" si="74"/>
+        <v>10</v>
       </c>
       <c r="G144">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.07</v>
       </c>
       <c r="H144">
@@ -15609,68 +15630,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J144">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>457.23719491097847</v>
       </c>
       <c r="K144" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>962918.67062277626</v>
       </c>
       <c r="L144" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>92519.088657768341</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
       <c r="O144" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>962918.67062277626</v>
       </c>
       <c r="P144" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>92519.088657768341</v>
       </c>
       <c r="Q144" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>176036.32004072689</v>
       </c>
       <c r="R144" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>57154.64936387234</v>
       </c>
       <c r="S144">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0490196078431373</v>
       </c>
       <c r="T144">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0490196078431373</v>
       </c>
       <c r="U144">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.0800000000000014</v>
       </c>
       <c r="V144" t="s">
         <v>18</v>
       </c>
       <c r="X144" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335</v>
       </c>
       <c r="Y144" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880,"137":1883,"138":1886,"139":1889,"140":1892,"141":1895,"142":1898,"143":1901</v>
       </c>
       <c r="Z144" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"143":17335</v>
       </c>
       <c r="AA144" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"143":1901</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -15678,19 +15699,19 @@
         <v>17346</v>
       </c>
       <c r="D145">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>17346</v>
       </c>
       <c r="E145">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1904</v>
       </c>
       <c r="F145">
-        <f t="shared" si="51"/>
-        <v>8</v>
+        <f t="shared" si="74"/>
+        <v>10</v>
       </c>
       <c r="G145">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.04</v>
       </c>
       <c r="H145">
@@ -15702,68 +15723,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J145">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>466.20263010531141</v>
       </c>
       <c r="K145" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>981799.42887028167</v>
       </c>
       <c r="L145" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>94333.188435371645</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
       <c r="O145" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>981799.42887028167</v>
       </c>
       <c r="P145" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>94333.188435371645</v>
       </c>
       <c r="Q145" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>179488.01259054508</v>
       </c>
       <c r="R145" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>58275.328763163954</v>
       </c>
       <c r="S145">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0196078431372548</v>
       </c>
       <c r="T145">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0196078431372548</v>
       </c>
       <c r="U145">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.0800000000000018</v>
       </c>
       <c r="V145" t="s">
         <v>18</v>
       </c>
       <c r="X145" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346</v>
       </c>
       <c r="Y145" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880,"137":1883,"138":1886,"139":1889,"140":1892,"141":1895,"142":1898,"143":1901,"144":1904</v>
       </c>
       <c r="Z145" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"144":17346</v>
       </c>
       <c r="AA145" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"144":1904</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -15771,19 +15792,19 @@
         <v>10</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>삭</v>
       </c>
       <c r="E146">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1907</v>
       </c>
       <c r="F146">
-        <f t="shared" si="51"/>
-        <v>8</v>
+        <f t="shared" si="74"/>
+        <v>10</v>
       </c>
       <c r="G146">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.05</v>
       </c>
       <c r="H146">
@@ -15795,68 +15816,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J146">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>479.91447216723236</v>
       </c>
       <c r="K146" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1010675.8826605841</v>
       </c>
       <c r="L146" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>97107.693977588468</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
       <c r="O146" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1010675.8826605841</v>
       </c>
       <c r="P146" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>97107.693977588468</v>
       </c>
       <c r="Q146" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>184767.07178438464</v>
       </c>
       <c r="R146" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>59989.309020904075</v>
       </c>
       <c r="S146">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="T146">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0294117647058825</v>
       </c>
       <c r="U146">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.0800000000000014</v>
       </c>
       <c r="V146" t="s">
         <v>18</v>
       </c>
       <c r="X146" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346,"145":10</v>
       </c>
       <c r="Y146" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880,"137":1883,"138":1886,"139":1889,"140":1892,"141":1895,"142":1898,"143":1901,"144":1904,"145":1907</v>
       </c>
       <c r="Z146" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"145":10</v>
       </c>
       <c r="AA146" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"145":1907</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -15864,19 +15885,19 @@
         <v>17357</v>
       </c>
       <c r="D147">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>17357</v>
       </c>
       <c r="E147">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1910</v>
       </c>
       <c r="F147">
-        <f t="shared" ref="F147:F151" si="80">F137+1</f>
-        <v>8</v>
+        <f t="shared" ref="F147:F151" si="82">F137+1</f>
+        <v>10</v>
       </c>
       <c r="G147">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.07</v>
       </c>
       <c r="H147">
@@ -15888,68 +15909,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J147">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>503.4396913911163</v>
       </c>
       <c r="K147" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1060218.8180851224</v>
       </c>
       <c r="L147" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>101867.87505492123</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
       <c r="O147" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1060218.8180851224</v>
       </c>
       <c r="P147" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>101867.87505492123</v>
       </c>
       <c r="Q147" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>193824.28118557995</v>
       </c>
       <c r="R147" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>62929.961423889567</v>
       </c>
       <c r="S147">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0490196078431371</v>
       </c>
       <c r="T147">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0490196078431371</v>
       </c>
       <c r="U147">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.0800000000000014</v>
       </c>
       <c r="V147" t="s">
         <v>18</v>
       </c>
       <c r="X147" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346,"145":10,"146":17357</v>
       </c>
       <c r="Y147" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880,"137":1883,"138":1886,"139":1889,"140":1892,"141":1895,"142":1898,"143":1901,"144":1904,"145":1907,"146":1910</v>
       </c>
       <c r="Z147" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"146":17357</v>
       </c>
       <c r="AA147" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"146":1910</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -15957,19 +15978,19 @@
         <v>17368</v>
       </c>
       <c r="D148">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>17368</v>
       </c>
       <c r="E148">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1913</v>
       </c>
       <c r="F148">
-        <f t="shared" si="80"/>
-        <v>8</v>
+        <f t="shared" si="82"/>
+        <v>10</v>
       </c>
       <c r="G148">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="H148">
@@ -15981,68 +16002,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J148">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>537.98947413364397</v>
       </c>
       <c r="K148" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1132978.9330517484</v>
       </c>
       <c r="L148" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>108858.80765672955</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
       <c r="O148" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1132978.9330517484</v>
       </c>
       <c r="P148" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>108858.80765672955</v>
       </c>
       <c r="Q148" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>207125.94754145306</v>
       </c>
       <c r="R148" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>67248.684266705517</v>
       </c>
       <c r="S148">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0686274509803921</v>
       </c>
       <c r="T148">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0686274509803921</v>
       </c>
       <c r="U148">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.080000000000001</v>
       </c>
       <c r="V148" t="s">
         <v>18</v>
       </c>
       <c r="X148" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346,"145":10,"146":17357,"147":17368</v>
       </c>
       <c r="Y148" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880,"137":1883,"138":1886,"139":1889,"140":1892,"141":1895,"142":1898,"143":1901,"144":1904,"145":1907,"146":1910,"147":1913</v>
       </c>
       <c r="Z148" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"147":17368</v>
       </c>
       <c r="AA148" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"147":1913</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -16050,19 +16071,19 @@
         <v>17379</v>
       </c>
       <c r="D149">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>17379</v>
       </c>
       <c r="E149">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1916</v>
       </c>
       <c r="F149">
-        <f t="shared" si="80"/>
-        <v>8</v>
+        <f t="shared" si="82"/>
+        <v>10</v>
       </c>
       <c r="G149">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.03</v>
       </c>
       <c r="H149">
@@ -16074,68 +16095,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J149">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>543.26388074279737</v>
       </c>
       <c r="K149" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1144086.569650295</v>
       </c>
       <c r="L149" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>109926.05086905042</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1144086.569650295</v>
       </c>
       <c r="P149" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>109926.05086905042</v>
       </c>
       <c r="Q149" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>209156.59408597712</v>
       </c>
       <c r="R149" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>67907.985092849689</v>
       </c>
       <c r="S149">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0098039215686274</v>
       </c>
       <c r="T149">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0098039215686274</v>
       </c>
       <c r="U149">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.080000000000001</v>
       </c>
       <c r="V149" t="s">
         <v>18</v>
       </c>
       <c r="X149" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346,"145":10,"146":17357,"147":17368,"148":17379</v>
       </c>
       <c r="Y149" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880,"137":1883,"138":1886,"139":1889,"140":1892,"141":1895,"142":1898,"143":1901,"144":1904,"145":1907,"146":1910,"147":1913,"148":1916</v>
       </c>
       <c r="Z149" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"148":17379</v>
       </c>
       <c r="AA149" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"148":1916</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -16143,19 +16164,19 @@
         <v>17390</v>
       </c>
       <c r="D150">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>17390</v>
       </c>
       <c r="E150">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1919</v>
       </c>
       <c r="F150">
-        <f t="shared" si="80"/>
-        <v>8</v>
+        <f t="shared" si="82"/>
+        <v>10</v>
       </c>
       <c r="G150">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.04</v>
       </c>
       <c r="H150">
@@ -16167,68 +16188,68 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J150">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>553.91611369853854</v>
       </c>
       <c r="K150" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1166519.6396434379</v>
       </c>
       <c r="L150" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>112081.46363118867</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1166519.6396434379</v>
       </c>
       <c r="P150" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>112081.46363118867</v>
       </c>
       <c r="Q150" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>213257.70377393745</v>
       </c>
       <c r="R150" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>69239.514212317328</v>
       </c>
       <c r="S150">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0196078431372548</v>
       </c>
       <c r="T150">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0196078431372551</v>
       </c>
       <c r="U150">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.080000000000001</v>
       </c>
       <c r="V150" t="s">
         <v>18</v>
       </c>
       <c r="X150" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346,"145":10,"146":17357,"147":17368,"148":17379,"149":17390</v>
       </c>
       <c r="Y150" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880,"137":1883,"138":1886,"139":1889,"140":1892,"141":1895,"142":1898,"143":1901,"144":1904,"145":1907,"146":1910,"147":1913,"148":1916,"149":1919</v>
       </c>
       <c r="Z150" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"149":17390</v>
       </c>
       <c r="AA150" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"149":1919</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -16236,19 +16257,19 @@
         <v>25</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>삭</v>
       </c>
       <c r="E151">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1922</v>
       </c>
       <c r="F151">
-        <f t="shared" si="80"/>
-        <v>8</v>
+        <f t="shared" si="82"/>
+        <v>10</v>
       </c>
       <c r="G151">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.05</v>
       </c>
       <c r="H151">
@@ -16260,69 +16281,75 @@
         <v>0.98039215686274506</v>
       </c>
       <c r="J151">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>570.20776410143674</v>
       </c>
       <c r="K151" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1200829.0408094213</v>
       </c>
       <c r="L151" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>115377.9772674001</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1200829.0408094213</v>
       </c>
       <c r="P151" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>115377.9772674001</v>
       </c>
       <c r="Q151" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>219529.98917905323</v>
       </c>
       <c r="R151" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>71275.970512679603</v>
       </c>
       <c r="S151">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="T151">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="U151">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>3.0800000000000005</v>
       </c>
       <c r="V151" t="s">
         <v>18</v>
       </c>
       <c r="X151" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>"1":1535,"2":1546,"3":1557,"4":1568,"5":5,"6":1579,"7":1590,"8":1601,"9":1612,"10":10,"11":2662,"12":2673,"13":2684,"14":2695,"15":5,"16":2706,"17":2717,"18":2728,"19":2739,"20":10,"21":3789,"22":3800,"23":3811,"24":3822,"25":5,"26":3833,"27":3844,"28":3855,"29":3866,"30":10,"31":4916,"32":4927,"33":4938,"34":4949,"35":5,"36":4960,"37":4971,"38":4982,"39":4993,"40":10,"41":6043,"42":6054,"43":6065,"44":6076,"45":5,"46":6087,"47":6098,"48":6109,"49":6120,"50":15,"51":7170,"52":7181,"53":7192,"54":7203,"55":7,"56":7214,"57":7225,"58":7236,"59":7247,"60":15,"61":8297,"62":8308,"63":8319,"64":8330,"65":7,"66":8341,"67":8352,"68":8363,"69":8374,"70":15,"71":9424,"72":9435,"73":9446,"74":9457,"75":7,"76":9468,"77":9479,"78":9490,"79":9501,"80":15,"81":10551,"82":10562,"83":10573,"84":10584,"85":7,"86":10595,"87":10606,"88":10617,"89":10628,"90":15,"91":11678,"92":11689,"93":11700,"94":11711,"95":7,"96":11722,"97":11733,"98":11744,"99":11755,"100":20,"101":12805,"102":12816,"103":12827,"104":12838,"105":10,"106":12849,"107":12860,"108":12871,"109":12882,"110":20,"111":13932,"112":13943,"113":13954,"114":13965,"115":10,"116":13976,"117":13987,"118":13998,"119":14009,"120":20,"121":15059,"122":15070,"123":15081,"124":15092,"125":10,"126":15103,"127":15114,"128":15125,"129":15136,"130":20,"131":16186,"132":16197,"133":16208,"134":16219,"135":10,"136":16230,"137":16241,"138":16252,"139":16263,"140":20,"141":17313,"142":17324,"143":17335,"144":17346,"145":10,"146":17357,"147":17368,"148":17379,"149":17390,"150":25</v>
       </c>
       <c r="Y151" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>"1":1475,"2":1478,"3":1481,"4":1484,"5":1487,"6":1490,"7":1493,"8":1496,"9":1499,"10":1502,"11":1505,"12":1508,"13":1511,"14":1514,"15":1517,"16":1520,"17":1523,"18":1526,"19":1529,"20":1532,"21":1535,"22":1538,"23":1541,"24":1544,"25":1547,"26":1550,"27":1553,"28":1556,"29":1559,"30":1562,"31":1565,"32":1568,"33":1571,"34":1574,"35":1577,"36":1580,"37":1583,"38":1586,"39":1589,"40":1592,"41":1595,"42":1598,"43":1601,"44":1604,"45":1607,"46":1610,"47":1613,"48":1616,"49":1619,"50":1622,"51":1625,"52":1628,"53":1631,"54":1634,"55":1637,"56":1640,"57":1643,"58":1646,"59":1649,"60":1652,"61":1655,"62":1658,"63":1661,"64":1664,"65":1667,"66":1670,"67":1673,"68":1676,"69":1679,"70":1682,"71":1685,"72":1688,"73":1691,"74":1694,"75":1697,"76":1700,"77":1703,"78":1706,"79":1709,"80":1712,"81":1715,"82":1718,"83":1721,"84":1724,"85":1727,"86":1730,"87":1733,"88":1736,"89":1739,"90":1742,"91":1745,"92":1748,"93":1751,"94":1754,"95":1757,"96":1760,"97":1763,"98":1766,"99":1769,"100":1772,"101":1775,"102":1778,"103":1781,"104":1784,"105":1787,"106":1790,"107":1793,"108":1796,"109":1799,"110":1802,"111":1805,"112":1808,"113":1811,"114":1814,"115":1817,"116":1820,"117":1823,"118":1826,"119":1829,"120":1832,"121":1835,"122":1838,"123":1841,"124":1844,"125":1847,"126":1850,"127":1853,"128":1856,"129":1859,"130":1862,"131":1865,"132":1868,"133":1871,"134":1874,"135":1877,"136":1880,"137":1883,"138":1886,"139":1889,"140":1892,"141":1895,"142":1898,"143":1901,"144":1904,"145":1907,"146":1910,"147":1913,"148":1916,"149":1919,"150":1922</v>
       </c>
       <c r="Z151" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>"150":25</v>
       </c>
       <c r="AA151" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>"150":1922</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F151" xr:uid="{15A49A21-F739-4696-BA1F-3B6DC435DC5E}"/>
+  <autoFilter ref="F1:F151" xr:uid="{15A49A21-F739-4696-BA1F-3B6DC435DC5E}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE2500D-EC0C-4542-8688-A90F77B2260E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC648BC4-CD90-47E0-9760-DDC232BF13D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -2126,7 +2126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="54">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2331,6 +2331,10 @@
   </si>
   <si>
     <t>Atk스테이지화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HellCreeper_Red</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2724,11 +2728,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:AC151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F130" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A146" sqref="A146"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2949,7 +2953,7 @@
         <v>1.05</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H4" si="5">1.02</f>
+        <f t="shared" ref="H3" si="5">1.02</f>
         <v>1.02</v>
       </c>
       <c r="J3">
@@ -3956,7 +3960,7 @@
         <v>1.07</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:I17" si="20">1.02^2</f>
+        <f t="shared" ref="H14:H15" si="20">1.02^2</f>
         <v>1.0404</v>
       </c>
       <c r="I14">
@@ -4483,7 +4487,7 @@
         <v>1.04</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H18:I29" si="21">1.02</f>
+        <f t="shared" ref="H20:H21" si="21">1.02</f>
         <v>1.02</v>
       </c>
       <c r="J20">
@@ -5253,7 +5257,7 @@
         <v>1.03</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H26:H36" si="22">1.02</f>
+        <f t="shared" ref="H29:H36" si="22">1.02</f>
         <v>1.02</v>
       </c>
       <c r="I29">
@@ -5441,7 +5445,7 @@
         <v>1.02</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I30:I31" si="23">1.02^2</f>
+        <f t="shared" ref="I31" si="23">1.02^2</f>
         <v>1.0404</v>
       </c>
       <c r="J31">
@@ -5625,7 +5629,7 @@
         <v>1.02</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="H33:I33" si="24">1.02^3</f>
+        <f t="shared" ref="I33" si="24">1.02^3</f>
         <v>1.0612079999999999</v>
       </c>
       <c r="J33">
@@ -6554,7 +6558,7 @@
         <v>1.05</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43:I43" si="33">1.02^3</f>
+        <f t="shared" ref="H43" si="33">1.02^3</f>
         <v>1.0612079999999999</v>
       </c>
       <c r="I43">
@@ -7018,7 +7022,7 @@
         <v>1.0612079999999999</v>
       </c>
       <c r="I48">
-        <f t="shared" ref="H48:I48" si="34">1.02^3</f>
+        <f t="shared" ref="I48" si="34">1.02^3</f>
         <v>1.0612079999999999</v>
       </c>
       <c r="J48">
@@ -16379,9 +16383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16823,7 +16827,7 @@
         <v>0.5</v>
       </c>
       <c r="G16">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -16939,7 +16943,7 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -17055,7 +17059,7 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -17124,7 +17128,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -17139,16 +17143,16 @@
         <v>0.5</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -17171,7 +17175,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -17287,16 +17291,16 @@
         <v>0.5</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -17319,7 +17323,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -17406,8 +17410,7 @@
         <v>2</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36" si="0">G36/4</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>8</v>
@@ -17436,17 +17439,16 @@
         <v>0.5</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H37">
-        <f>G37/1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -17469,10 +17471,9 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H38">
-        <f>G38/1</f>
         <v>1</v>
       </c>
       <c r="I38">
@@ -17557,8 +17558,7 @@
         <v>2</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41" si="1">G41/4</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>8</v>
@@ -17587,17 +17587,16 @@
         <v>0.5</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <f>G42/1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -17620,10 +17619,9 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <f>G43/1</f>
         <v>1</v>
       </c>
       <c r="I43">
@@ -17708,8 +17706,7 @@
         <v>2</v>
       </c>
       <c r="H46">
-        <f t="shared" ref="H46" si="2">G46/4</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>8</v>
@@ -17741,14 +17738,13 @@
         <v>2</v>
       </c>
       <c r="H47">
-        <f>G47/1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -17771,10 +17767,9 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <f>G48/1</f>
         <v>1</v>
       </c>
       <c r="I48">

--- a/Excel/작업NodeWar.xlsx
+++ b/Excel/작업NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138B8767-03B9-44BC-B102-E2D53E94E991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23314F8D-B16C-415B-A0AD-5021917AD2AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -2126,7 +2126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="54">
   <si>
     <t>level|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2726,13 +2726,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -11931,7 +11932,7 @@
         <v>"100":1772</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -12015,7 +12016,7 @@
         <v>"101":1775</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -12103,7 +12104,7 @@
         <v>"102":1778</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -12195,7 +12196,7 @@
         <v>"103":1781</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -12283,7 +12284,7 @@
         <v>"104":1784</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12371,7 +12372,7 @@
         <v>"105":1787</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12463,7 +12464,7 @@
         <v>"106":1790</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12555,7 +12556,7 @@
         <v>"107":1793</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12643,7 +12644,7 @@
         <v>"108":1796</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -12731,7 +12732,7 @@
         <v>"109":1799</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -12819,7 +12820,7 @@
         <v>"110":1802</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -12903,7 +12904,7 @@
         <v>"111":1805</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -12995,7 +12996,7 @@
         <v>"112":1808</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -13087,7 +13088,7 @@
         <v>"113":1811</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -13175,7 +13176,7 @@
         <v>"114":1814</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -13263,7 +13264,7 @@
         <v>"115":1817</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -13355,7 +13356,7 @@
         <v>"116":1820</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -13447,7 +13448,7 @@
         <v>"117":1823</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -13539,7 +13540,7 @@
         <v>"118":1826</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -13631,7 +13632,7 @@
         <v>"119":1829</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -13723,7 +13724,7 @@
         <v>"120":1832</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -13807,7 +13808,7 @@
         <v>"121":1835</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -13899,7 +13900,7 @@
         <v>"122":1838</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -13991,7 +13992,7 @@
         <v>"123":1841</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -14083,7 +14084,7 @@
         <v>"124":1844</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -14175,7 +14176,7 @@
         <v>"125":1847</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14267,7 +14268,7 @@
         <v>"126":1850</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14359,7 +14360,7 @@
         <v>"127":1853</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14451,7 +14452,7 @@
         <v>"128":1856</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -14553,7 +14554,7 @@
         <v>"129":1859</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -14648,7 +14649,7 @@
         <v>"130":1862</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -14732,7 +14733,7 @@
         <v>"131":1865</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -14824,7 +14825,7 @@
         <v>"132":1868</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -14916,7 +14917,7 @@
         <v>"133":1871</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -15008,7 +15009,7 @@
         <v>"134":1874</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -15100,7 +15101,7 @@
         <v>"135":1877</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -15188,7 +15189,7 @@
         <v>"136":1880</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -15272,7 +15273,7 @@
         <v>"137":1883</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -15356,7 +15357,7 @@
         <v>"138":1886</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15440,7 +15441,7 @@
         <v>"139":1889</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15524,7 +15525,7 @@
         <v>"140":1892</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15608,7 +15609,7 @@
         <v>"141":1895</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15692,7 +15693,7 @@
         <v>"142":1898</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -15776,7 +15777,7 @@
         <v>"143":1901</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -15860,7 +15861,7 @@
         <v>"144":1904</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -15944,7 +15945,7 @@
         <v>"145":1907</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -16028,7 +16029,7 @@
         <v>"146":1910</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -16112,7 +16113,7 @@
         <v>"147":1913</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -16196,7 +16197,7 @@
         <v>"148":1916</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -16280,7 +16281,7 @@
         <v>"149":1919</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -16365,7 +16366,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F151" xr:uid="{15A49A21-F739-4696-BA1F-3B6DC435DC5E}"/>
+  <autoFilter ref="F1:F151" xr:uid="{15A49A21-F739-4696-BA1F-3B6DC435DC5E}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0"/>
+        <filter val="1.5"/>
+        <filter val="2.5"/>
+        <filter val="4.5"/>
+        <filter val="6.5"/>
+        <filter val="7.5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -16375,11 +16387,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37665C30-492D-4DDE-A5D3-F3C0AAD6EFDB}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17776,6 +17788,746 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>60</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0.5</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0.4</v>
+      </c>
+      <c r="H49">
+        <v>0.1</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>60</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0.7</v>
+      </c>
+      <c r="H50">
+        <v>0.2</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51">
+        <v>60</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>0.5</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <v>8</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
+      </c>
+      <c r="F52">
+        <v>0.5</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>60</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>70</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0.4</v>
+      </c>
+      <c r="H54">
+        <v>0.1</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55">
+        <v>70</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0.7</v>
+      </c>
+      <c r="H55">
+        <v>0.2</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>70</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
+      </c>
+      <c r="F56">
+        <v>0.5</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57">
+        <v>70</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+      <c r="F57">
+        <v>0.5</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58">
+        <v>70</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>80</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0.5</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0.4</v>
+      </c>
+      <c r="H59">
+        <v>0.1</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60">
+        <v>80</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0.7</v>
+      </c>
+      <c r="H60">
+        <v>0.2</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61">
+        <v>80</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+      <c r="F61">
+        <v>0.5</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>8</v>
+      </c>
+      <c r="J61">
+        <v>8</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62">
+        <v>80</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
+      </c>
+      <c r="F62">
+        <v>0.5</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63">
+        <v>80</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>15</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>90</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0.5</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0.4</v>
+      </c>
+      <c r="H64">
+        <v>0.1</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65">
+        <v>90</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0.7</v>
+      </c>
+      <c r="H65">
+        <v>0.2</v>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66">
+        <v>90</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+      <c r="F66">
+        <v>0.5</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>8</v>
+      </c>
+      <c r="J66">
+        <v>8</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67">
+        <v>90</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+      <c r="F67">
+        <v>0.5</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68">
+        <v>90</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>15</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0.5</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0.4</v>
+      </c>
+      <c r="H69">
+        <v>0.1</v>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0.7</v>
+      </c>
+      <c r="H70">
+        <v>0.2</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71">
+        <v>100</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>20</v>
+      </c>
+      <c r="F71">
+        <v>0.5</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>8</v>
+      </c>
+      <c r="J71">
+        <v>8</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>30</v>
+      </c>
+      <c r="F72">
+        <v>0.5</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73">
+        <v>100</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>15</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17786,10 +18538,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CF6387-5136-4565-9CA6-4645A4F33399}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18058,6 +18810,136 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1.5</v>
+      </c>
+      <c r="F13">
+        <v>4.5</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1.5</v>
+      </c>
+      <c r="F14">
+        <v>4.5</v>
+      </c>
+      <c r="G14">
+        <v>0.2</v>
+      </c>
+      <c r="H14">
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>1.5</v>
+      </c>
+      <c r="F15">
+        <v>4.5</v>
+      </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1.5</v>
+      </c>
+      <c r="F16">
+        <v>4.5</v>
+      </c>
+      <c r="G16">
+        <v>0.2</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>1.5</v>
+      </c>
+      <c r="F17">
+        <v>4.5</v>
+      </c>
+      <c r="G17">
+        <v>0.2</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
